--- a/reading flight data/short_period.xlsx
+++ b/reading flight data/short_period.xlsx
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX10"/>
+  <dimension ref="A1:AX25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,139 +675,139 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="1">
-        <v>5981</v>
+        <v>5975</v>
       </c>
       <c r="B2">
-        <v>20832</v>
+        <v>20826</v>
       </c>
       <c r="C2">
-        <v>3.555830197106339</v>
+        <v>3.527756829449954</v>
       </c>
       <c r="D2">
-        <v>2.250716034080121</v>
+        <v>2.250145283035336</v>
       </c>
       <c r="E2">
-        <v>45.35368825962827</v>
+        <v>84.17095996688037</v>
       </c>
       <c r="F2">
-        <v>408.0613020699468</v>
+        <v>408.0747764693992</v>
       </c>
       <c r="G2">
-        <v>448.3091822788161</v>
+        <v>448.5694764139914</v>
       </c>
       <c r="H2">
-        <v>422.5351122615363</v>
+        <v>422.4626592069886</v>
       </c>
       <c r="I2">
-        <v>425.9042346721888</v>
+        <v>425.9340761307061</v>
       </c>
       <c r="J2">
-        <v>79.34117650510856</v>
+        <v>79.34174744866658</v>
       </c>
       <c r="K2">
-        <v>78.32566424759443</v>
+        <v>78.32515714311435</v>
       </c>
       <c r="L2">
-        <v>63.58941030000624</v>
+        <v>63.58267987518866</v>
       </c>
       <c r="M2">
-        <v>75.99517276776052</v>
+        <v>75.98808448157347</v>
       </c>
       <c r="N2">
-        <v>63.53429746036882</v>
+        <v>63.55217522858614</v>
       </c>
       <c r="O2">
-        <v>76.39741215623859</v>
+        <v>76.41265150221993</v>
       </c>
       <c r="P2">
-        <v>293.4331936776978</v>
+        <v>293.3651921451608</v>
       </c>
       <c r="Q2">
-        <v>319.1378263180378</v>
+        <v>319.0630850902618</v>
       </c>
       <c r="R2">
-        <v>0.3126645960549898</v>
+        <v>0.311788710186465</v>
       </c>
       <c r="S2">
-        <v>0.1968736065297137</v>
+        <v>0.6478623275251016</v>
       </c>
       <c r="T2">
-        <v>-0.495217267373477</v>
+        <v>-0.4890992430858298</v>
       </c>
       <c r="U2">
         <v>120320</v>
       </c>
       <c r="V2">
-        <v>41653.40004405793</v>
+        <v>41652.80006588872</v>
       </c>
       <c r="W2">
-        <v>-1.359983473751673</v>
+        <v>-1.302098919433836</v>
       </c>
       <c r="X2">
-        <v>1.772214979226027</v>
+        <v>1.607044271127901</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>51.81784069992486</v>
+        <v>51.81780398617077</v>
       </c>
       <c r="AA2">
-        <v>5.149400534561835</v>
+        <v>5.150089884871628</v>
       </c>
       <c r="AB2">
-        <v>-0.1064262948451893</v>
+        <v>-0.1738296485291461</v>
       </c>
       <c r="AC2">
-        <v>0.8228655082507226</v>
+        <v>-0.0348919894511925</v>
       </c>
       <c r="AD2">
-        <v>-0.1771839375040454</v>
+        <v>-0.1582277764979267</v>
       </c>
       <c r="AE2">
-        <v>0.03011567019371718</v>
+        <v>0.02625278721148649</v>
       </c>
       <c r="AF2">
-        <v>-0.0001633773503747431</v>
+        <v>-0.0004091108002046506</v>
       </c>
       <c r="AG2">
-        <v>0.05191221270555266</v>
+        <v>-0.0004480936681966132</v>
       </c>
       <c r="AH2">
-        <v>-0.002575335799235449</v>
+        <v>-0.001864201390559902</v>
       </c>
       <c r="AI2">
-        <v>-0.0251107127764388</v>
+        <v>-0.02314605355483603</v>
       </c>
       <c r="AJ2">
-        <v>0.05175836772780094</v>
+        <v>-0.0004003026552911457</v>
       </c>
       <c r="AK2">
-        <v>-7.75000004413988</v>
+        <v>-7.750001007877583</v>
       </c>
       <c r="AL2">
-        <v>-2.749999999999642</v>
+        <v>-2.749999999999655</v>
       </c>
       <c r="AM2">
-        <v>6811.589350931804</v>
+        <v>6814.077397642616</v>
       </c>
       <c r="AN2">
-        <v>6819.805336159759</v>
+        <v>6822.100342523137</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.3118706622104871</v>
+        <v>0.3119151049881299</v>
       </c>
       <c r="AQ2">
-        <v>182.1109090250916</v>
+        <v>182.1067437898487</v>
       </c>
       <c r="AR2">
-        <v>197.9899849476699</v>
+        <v>198.003340515381</v>
       </c>
       <c r="AS2">
-        <v>-245.2049460856153</v>
+        <v>-219.4291901920966</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -822,144 +822,144 @@
         <v>4</v>
       </c>
       <c r="AX2">
-        <v>2092.2</v>
+        <v>2091.6</v>
       </c>
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="1">
-        <v>5982</v>
+        <v>5976</v>
       </c>
       <c r="B3">
-        <v>20833</v>
+        <v>20827</v>
       </c>
       <c r="C3">
-        <v>3.598754234670888</v>
+        <v>3.523217804186687</v>
       </c>
       <c r="D3">
-        <v>2.250737933477879</v>
+        <v>2.250048683570752</v>
       </c>
       <c r="E3">
-        <v>39.7729694060559</v>
+        <v>79.94367163388551</v>
       </c>
       <c r="F3">
-        <v>408.1014650021791</v>
+        <v>408.0156949812375</v>
       </c>
       <c r="G3">
-        <v>448.2314104765383</v>
+        <v>448.5716895355825</v>
       </c>
       <c r="H3">
-        <v>422.5336732176117</v>
+        <v>422.4787214858884</v>
       </c>
       <c r="I3">
-        <v>425.9162729947194</v>
+        <v>425.9192356682809</v>
       </c>
       <c r="J3">
-        <v>79.34159345867116</v>
+        <v>79.34177370804603</v>
       </c>
       <c r="K3">
-        <v>78.32586541006253</v>
+        <v>78.32547460322441</v>
       </c>
       <c r="L3">
-        <v>63.59000594506698</v>
+        <v>63.58370701130657</v>
       </c>
       <c r="M3">
-        <v>75.99575351640459</v>
+        <v>75.98926425501863</v>
       </c>
       <c r="N3">
-        <v>63.52938100725046</v>
+        <v>63.55214169959188</v>
       </c>
       <c r="O3">
-        <v>76.39541548471942</v>
+        <v>76.41171454100787</v>
       </c>
       <c r="P3">
-        <v>293.4445298295034</v>
+        <v>293.3765259144659</v>
       </c>
       <c r="Q3">
-        <v>319.150277190551</v>
+        <v>319.0755454149711</v>
       </c>
       <c r="R3">
-        <v>0.3161005790751183</v>
+        <v>0.3121706079395886</v>
       </c>
       <c r="S3">
-        <v>0.1271295873574101</v>
+        <v>0.6058986914353869</v>
       </c>
       <c r="T3">
-        <v>-0.4986518350522783</v>
+        <v>-0.4886899812779331</v>
       </c>
       <c r="U3">
         <v>120320</v>
       </c>
       <c r="V3">
-        <v>41653.50004121922</v>
+        <v>41652.90006065009</v>
       </c>
       <c r="W3">
-        <v>-1.37167173317914</v>
+        <v>-1.315639023373822</v>
       </c>
       <c r="X3">
-        <v>1.869041648701965</v>
+        <v>1.605542941601359</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>51.81784677574164</v>
+        <v>51.81781016316509</v>
       </c>
       <c r="AA3">
-        <v>5.149285681048999</v>
+        <v>5.149974942229786</v>
       </c>
       <c r="AB3">
-        <v>-0.1035075878148336</v>
+        <v>-0.1108938591634253</v>
       </c>
       <c r="AC3">
-        <v>1.075063047923051</v>
+        <v>-0.0006602438347840195</v>
       </c>
       <c r="AD3">
-        <v>-0.1583534952364042</v>
+        <v>-0.1741200586872941</v>
       </c>
       <c r="AE3">
-        <v>0.03168578980738818</v>
+        <v>0.02618665559999275</v>
       </c>
       <c r="AF3">
-        <v>0.0002168458412892053</v>
+        <v>-0.0008181900575273413</v>
       </c>
       <c r="AG3">
-        <v>0.07210570385209839</v>
+        <v>-0.0001998260779169374</v>
       </c>
       <c r="AH3">
-        <v>-0.003465681030740723</v>
+        <v>-0.001905974879328848</v>
       </c>
       <c r="AI3">
-        <v>-0.02541301438619037</v>
+        <v>-0.02376835796489632</v>
       </c>
       <c r="AJ3">
-        <v>0.07196735349371072</v>
+        <v>-0.0001667746118794894</v>
       </c>
       <c r="AK3">
-        <v>-7.750000014366842</v>
+        <v>-7.750000026079681</v>
       </c>
       <c r="AL3">
-        <v>-2.749999999999623</v>
+        <v>-2.749999999999654</v>
       </c>
       <c r="AM3">
-        <v>6811.034256683792</v>
+        <v>6813.658636025646</v>
       </c>
       <c r="AN3">
-        <v>6819.231920923661</v>
+        <v>6821.700202737739</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.311887484970122</v>
+        <v>0.3119192700222314</v>
       </c>
       <c r="AQ3">
-        <v>182.1220307608606</v>
+        <v>182.1150826348822</v>
       </c>
       <c r="AR3">
-        <v>197.9994359685132</v>
+        <v>198.0071358039581</v>
       </c>
       <c r="AS3">
-        <v>-252.0964388952711</v>
+        <v>-224.9032610535915</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -974,144 +974,144 @@
         <v>4</v>
       </c>
       <c r="AX3">
-        <v>2092.3</v>
+        <v>2091.7</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="1">
-        <v>5983</v>
+        <v>5977</v>
       </c>
       <c r="B4">
-        <v>20834</v>
+        <v>20828</v>
       </c>
       <c r="C4">
-        <v>3.657281465961899</v>
+        <v>3.517282763046361</v>
       </c>
       <c r="D4">
-        <v>2.250672014070421</v>
+        <v>2.250074075306396</v>
       </c>
       <c r="E4">
-        <v>35.56610913587942</v>
+        <v>74.16969406205222</v>
       </c>
       <c r="F4">
-        <v>408.1271102403441</v>
+        <v>407.9847766261686</v>
       </c>
       <c r="G4">
-        <v>448.1155095300725</v>
+        <v>448.5363824485759</v>
       </c>
       <c r="H4">
-        <v>422.5372666908817</v>
+        <v>422.5014738421434</v>
       </c>
       <c r="I4">
-        <v>425.9173712245981</v>
+        <v>425.8988191654914</v>
       </c>
       <c r="J4">
-        <v>79.34228532945924</v>
+        <v>79.34166916171756</v>
       </c>
       <c r="K4">
-        <v>78.326089857276</v>
+        <v>78.32571356836083</v>
       </c>
       <c r="L4">
-        <v>63.59043480777244</v>
+        <v>63.58489366602407</v>
       </c>
       <c r="M4">
-        <v>75.99616805078588</v>
+        <v>75.99057328938592</v>
       </c>
       <c r="N4">
-        <v>63.52471810524237</v>
+        <v>63.55067771722495</v>
       </c>
       <c r="O4">
-        <v>76.39354169787683</v>
+        <v>76.40939784012855</v>
       </c>
       <c r="P4">
-        <v>293.4558666936767</v>
+        <v>293.3878588249277</v>
       </c>
       <c r="Q4">
-        <v>319.1627248435935</v>
+        <v>319.088004758928</v>
       </c>
       <c r="R4">
-        <v>0.3223053151020213</v>
+        <v>0.3124323505720582</v>
       </c>
       <c r="S4">
-        <v>0.07329273142194251</v>
+        <v>0.5435221106056316</v>
       </c>
       <c r="T4">
-        <v>-0.5031525783204654</v>
+        <v>-0.4887404655535004</v>
       </c>
       <c r="U4">
         <v>120320</v>
       </c>
       <c r="V4">
-        <v>41653.6000383805</v>
+        <v>41653.00005541279</v>
       </c>
       <c r="W4">
-        <v>-1.382201453542426</v>
+        <v>-1.324512777100506</v>
       </c>
       <c r="X4">
-        <v>1.990356444462309</v>
+        <v>1.60949433146024</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>51.81785284499735</v>
+        <v>51.81781631221506</v>
       </c>
       <c r="AA4">
-        <v>5.149170832249135</v>
+        <v>5.149860023792722</v>
       </c>
       <c r="AB4">
-        <v>-0.08908744919214699</v>
+        <v>-0.07370057066360139</v>
       </c>
       <c r="AC4">
-        <v>1.314333881663653</v>
+        <v>0.07086262809572476</v>
       </c>
       <c r="AD4">
-        <v>-0.1371416126139512</v>
+        <v>-0.1889729426963955</v>
       </c>
       <c r="AE4">
-        <v>0.0333429642606652</v>
+        <v>0.02632450693753494</v>
       </c>
       <c r="AF4">
-        <v>0.0005672967769142263</v>
+        <v>-0.001047216948462042</v>
       </c>
       <c r="AG4">
-        <v>0.09286420919802874</v>
+        <v>0.002314184829838296</v>
       </c>
       <c r="AH4">
-        <v>-0.004815049304500031</v>
+        <v>-0.001905996265708547</v>
       </c>
       <c r="AI4">
-        <v>-0.02573288129208335</v>
+        <v>-0.02419306297568091</v>
       </c>
       <c r="AJ4">
-        <v>0.0927588138623292</v>
+        <v>0.002312308450229845</v>
       </c>
       <c r="AK4">
-        <v>-7.749999994467486</v>
+        <v>-7.749999675210126</v>
       </c>
       <c r="AL4">
-        <v>-2.749999999999631</v>
+        <v>-2.749999999999629</v>
       </c>
       <c r="AM4">
-        <v>6810.417993695752</v>
+        <v>6813.261901833818</v>
       </c>
       <c r="AN4">
-        <v>6818.575264352581</v>
+        <v>6821.337726114444</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.3119006762177121</v>
+        <v>0.3119117622054263</v>
       </c>
       <c r="AQ4">
-        <v>182.130731550329</v>
+        <v>182.1173886431504</v>
       </c>
       <c r="AR4">
-        <v>198.0016434715907</v>
+        <v>198.0036656777643</v>
       </c>
       <c r="AS4">
-        <v>-262.5833597450953</v>
+        <v>-230.2020011774273</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1126,144 +1126,144 @@
         <v>4</v>
       </c>
       <c r="AX4">
-        <v>2092.4</v>
+        <v>2091.8</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="1">
-        <v>5984</v>
+        <v>5978</v>
       </c>
       <c r="B5">
-        <v>20835</v>
+        <v>20829</v>
       </c>
       <c r="C5">
-        <v>3.730182593697034</v>
+        <v>3.513357070070647</v>
       </c>
       <c r="D5">
-        <v>2.25054326796498</v>
+        <v>2.250213387977409</v>
       </c>
       <c r="E5">
-        <v>32.70950643873985</v>
+        <v>67.18433382985476</v>
       </c>
       <c r="F5">
-        <v>408.1259201145156</v>
+        <v>407.9790651832996</v>
       </c>
       <c r="G5">
-        <v>447.9657983609707</v>
+        <v>448.4804755172232</v>
       </c>
       <c r="H5">
-        <v>422.5441696481898</v>
+        <v>422.5230001035997</v>
       </c>
       <c r="I5">
-        <v>425.9111093033517</v>
+        <v>425.8818408596601</v>
       </c>
       <c r="J5">
-        <v>79.34311712301783</v>
+        <v>79.34145542012952</v>
       </c>
       <c r="K5">
-        <v>78.32623283155364</v>
+        <v>78.32577194177918</v>
       </c>
       <c r="L5">
-        <v>63.59068360283825</v>
+        <v>63.5862042732157</v>
       </c>
       <c r="M5">
-        <v>75.99646285666552</v>
+        <v>75.99194455494228</v>
       </c>
       <c r="N5">
-        <v>63.52076908624239</v>
+        <v>63.54780229626221</v>
       </c>
       <c r="O5">
-        <v>76.39187642268355</v>
+        <v>76.40616456543849</v>
       </c>
       <c r="P5">
-        <v>293.467203524791</v>
+        <v>293.3991915767384</v>
       </c>
       <c r="Q5">
-        <v>319.1751683379924</v>
+        <v>319.1004625499146</v>
       </c>
       <c r="R5">
-        <v>0.331007026380727</v>
+        <v>0.3122809427149192</v>
       </c>
       <c r="S5">
-        <v>0.03441569198102949</v>
+        <v>0.4632330811981735</v>
       </c>
       <c r="T5">
-        <v>-0.5088153709969389</v>
+        <v>-0.4893681640727435</v>
       </c>
       <c r="U5">
         <v>120320</v>
       </c>
       <c r="V5">
-        <v>41653.70003554178</v>
+        <v>41653.10005257407</v>
       </c>
       <c r="W5">
-        <v>-1.391242700190972</v>
+        <v>-1.331542807941602</v>
       </c>
       <c r="X5">
-        <v>2.133883025758631</v>
+        <v>1.623271271146769</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>51.81785889850771</v>
+        <v>51.8178224338966</v>
       </c>
       <c r="AA5">
-        <v>5.149055994673741</v>
+        <v>5.149745129349991</v>
       </c>
       <c r="AB5">
-        <v>-0.08033332809032746</v>
+        <v>-0.06420128929268548</v>
       </c>
       <c r="AC5">
-        <v>1.525546689286192</v>
+        <v>0.1905077849633189</v>
       </c>
       <c r="AD5">
-        <v>-0.1163346633626213</v>
+        <v>-0.1981736593742917</v>
       </c>
       <c r="AE5">
-        <v>0.03507584398640506</v>
+        <v>0.02676904893161649</v>
       </c>
       <c r="AF5">
-        <v>0.0007994219841589425</v>
+        <v>-0.001033796220895462</v>
       </c>
       <c r="AG5">
-        <v>0.1135423463731433</v>
+        <v>0.008413286408302443</v>
       </c>
       <c r="AH5">
-        <v>-0.006601983449094588</v>
+        <v>-0.001881270330264672</v>
       </c>
       <c r="AI5">
-        <v>-0.02614546909539249</v>
+        <v>-0.02444046550233165</v>
       </c>
       <c r="AJ5">
-        <v>0.1134695115576287</v>
+        <v>0.0083619460371934</v>
       </c>
       <c r="AK5">
-        <v>-7.749999991430296</v>
+        <v>-7.749999768407235</v>
       </c>
       <c r="AL5">
-        <v>-2.749999999999655</v>
+        <v>-2.749999999999623</v>
       </c>
       <c r="AM5">
-        <v>6809.761013869556</v>
+        <v>6812.882077129657</v>
       </c>
       <c r="AN5">
-        <v>6817.870672818908</v>
+        <v>6821.004403741083</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.3118929674070833</v>
+        <v>0.3118946953837345</v>
       </c>
       <c r="AQ5">
-        <v>182.1273153695536</v>
+        <v>182.1138430606312</v>
       </c>
       <c r="AR5">
-        <v>197.9874675993343</v>
+        <v>197.9949104274482</v>
       </c>
       <c r="AS5">
-        <v>-276.598853161614</v>
+        <v>-234.5712014865054</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -1278,144 +1278,144 @@
         <v>4</v>
       </c>
       <c r="AX5">
-        <v>2092.5</v>
+        <v>2091.9</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="1">
-        <v>5985</v>
+        <v>5979</v>
       </c>
       <c r="B6">
-        <v>20836</v>
+        <v>20830</v>
       </c>
       <c r="C6">
-        <v>3.816115512409496</v>
+        <v>3.515702234954087</v>
       </c>
       <c r="D6">
-        <v>2.250384594093954</v>
+        <v>2.250412872101082</v>
       </c>
       <c r="E6">
-        <v>31.01731749260892</v>
+        <v>59.59499357390286</v>
       </c>
       <c r="F6">
-        <v>408.0965392773433</v>
+        <v>407.9926780152949</v>
       </c>
       <c r="G6">
-        <v>447.8091056267685</v>
+        <v>448.4207042295664</v>
       </c>
       <c r="H6">
-        <v>422.5507269011212</v>
+        <v>422.5358120601742</v>
       </c>
       <c r="I6">
-        <v>425.9076206296334</v>
+        <v>425.8774459610557</v>
       </c>
       <c r="J6">
-        <v>79.34389693893631</v>
+        <v>79.34121292073445</v>
       </c>
       <c r="K6">
-        <v>78.32623095401203</v>
+        <v>78.32567531501276</v>
       </c>
       <c r="L6">
-        <v>63.59056536338998</v>
+        <v>63.58748370420383</v>
       </c>
       <c r="M6">
-        <v>75.99658498637773</v>
+        <v>75.99324900384043</v>
       </c>
       <c r="N6">
-        <v>63.5181005724242</v>
+        <v>63.54382235885245</v>
       </c>
       <c r="O6">
-        <v>76.39086097140188</v>
+        <v>76.40275684478222</v>
       </c>
       <c r="P6">
-        <v>293.478539539771</v>
+        <v>293.4105247066832</v>
       </c>
       <c r="Q6">
-        <v>319.1876074798153</v>
+        <v>319.1129186805877</v>
       </c>
       <c r="R6">
-        <v>0.3414795027162397</v>
+        <v>0.3117810329578377</v>
       </c>
       <c r="S6">
-        <v>0.008030628419242168</v>
+        <v>0.3723240151247669</v>
       </c>
       <c r="T6">
-        <v>-0.5151603602720761</v>
+        <v>-0.4906440528057783</v>
       </c>
       <c r="U6">
         <v>120320</v>
       </c>
       <c r="V6">
-        <v>41653.80003270307</v>
+        <v>41653.20004973537</v>
       </c>
       <c r="W6">
-        <v>-1.400475736697628</v>
+        <v>-1.339165171993864</v>
       </c>
       <c r="X6">
-        <v>2.296175729429208</v>
+        <v>1.651950048560611</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>51.81786492194799</v>
+        <v>51.81782853391114</v>
       </c>
       <c r="AA6">
-        <v>5.148941178863618</v>
+        <v>5.149630254155539</v>
       </c>
       <c r="AB6">
-        <v>-0.09657815231943818</v>
+        <v>-0.07523521788042059</v>
       </c>
       <c r="AC6">
-        <v>1.699110865691477</v>
+        <v>0.3618011860794038</v>
       </c>
       <c r="AD6">
-        <v>-0.0994075456033286</v>
+        <v>-0.1990071736646635</v>
       </c>
       <c r="AE6">
-        <v>0.03692905472732282</v>
+        <v>0.0275692705674364</v>
       </c>
       <c r="AF6">
-        <v>0.0008395470426146144</v>
+        <v>-0.0008293730938887013</v>
       </c>
       <c r="AG6">
-        <v>0.1343414409147206</v>
+        <v>0.01887573587927225</v>
       </c>
       <c r="AH6">
-        <v>-0.008751435765451164</v>
+        <v>-0.001904496350237977</v>
       </c>
       <c r="AI6">
-        <v>-0.02677456126167656</v>
+        <v>-0.02461935138835389</v>
       </c>
       <c r="AJ6">
-        <v>0.1342877497915426</v>
+        <v>0.01877281612371182</v>
       </c>
       <c r="AK6">
-        <v>-7.749999996193645</v>
+        <v>-7.74999995079079</v>
       </c>
       <c r="AL6">
-        <v>-2.749999999999654</v>
+        <v>-2.749999999999646</v>
       </c>
       <c r="AM6">
-        <v>6809.080710410578</v>
+        <v>6812.496201120909</v>
       </c>
       <c r="AN6">
-        <v>6817.1527347136</v>
+        <v>6820.666743388778</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.3118566588867093</v>
+        <v>0.3118756159859171</v>
       </c>
       <c r="AQ6">
-        <v>182.1075316803747</v>
+        <v>182.1079562145667</v>
       </c>
       <c r="AR6">
-        <v>197.9561007937619</v>
+        <v>197.9862432205034</v>
       </c>
       <c r="AS6">
-        <v>-293.2413963670135</v>
+        <v>-237.9106566505643</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -1430,144 +1430,144 @@
         <v>4</v>
       </c>
       <c r="AX6">
-        <v>2092.6</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="1">
-        <v>5986</v>
+        <v>5980</v>
       </c>
       <c r="B7">
-        <v>20837</v>
+        <v>20831</v>
       </c>
       <c r="C7">
-        <v>3.913711334614367</v>
+        <v>3.528703363067127</v>
       </c>
       <c r="D7">
-        <v>2.250228358952769</v>
+        <v>2.25059971316775</v>
       </c>
       <c r="E7">
-        <v>30.22589535109768</v>
+        <v>52.10765948758721</v>
       </c>
       <c r="F7">
-        <v>408.0495453384437</v>
+        <v>408.0216544530243</v>
       </c>
       <c r="G7">
-        <v>447.6713806523237</v>
+        <v>448.3657659262699</v>
       </c>
       <c r="H7">
-        <v>422.5553222872127</v>
+        <v>422.5381857556893</v>
       </c>
       <c r="I7">
-        <v>425.9149864041715</v>
+        <v>425.8874789731333</v>
       </c>
       <c r="J7">
-        <v>79.34443324954842</v>
+        <v>79.3410735527216</v>
       </c>
       <c r="K7">
-        <v>78.32609593920996</v>
+        <v>78.32559429853914</v>
       </c>
       <c r="L7">
-        <v>63.58977403015722</v>
+        <v>63.58857780001325</v>
       </c>
       <c r="M7">
-        <v>75.99634513717999</v>
+        <v>75.99434803346227</v>
       </c>
       <c r="N7">
-        <v>63.51706911808577</v>
+        <v>63.53919380734054</v>
       </c>
       <c r="O7">
-        <v>76.39095137102308</v>
+        <v>76.39978332173406</v>
       </c>
       <c r="P7">
-        <v>293.4898742493637</v>
+        <v>293.4218586415292</v>
       </c>
       <c r="Q7">
-        <v>319.2000427959446</v>
+        <v>319.1253732851967</v>
       </c>
       <c r="R7">
-        <v>0.3528797898820305</v>
+        <v>0.31155843132962</v>
       </c>
       <c r="S7">
-        <v>-0.008775573657967169</v>
+        <v>0.2805419556360809</v>
       </c>
       <c r="T7">
-        <v>-0.521117178796573</v>
+        <v>-0.4925903480110223</v>
       </c>
       <c r="U7">
         <v>120320</v>
       </c>
       <c r="V7">
-        <v>41653.90002986436</v>
+        <v>41653.30004689665</v>
       </c>
       <c r="W7">
-        <v>-1.412814455646074</v>
+        <v>-1.348694315907259</v>
       </c>
       <c r="X7">
-        <v>2.473081695472521</v>
+        <v>1.700393278941788</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>51.81787090027278</v>
+        <v>51.81783462029731</v>
       </c>
       <c r="AA7">
-        <v>5.148826396188851</v>
+        <v>5.149515391267527</v>
       </c>
       <c r="AB7">
-        <v>-0.1425463085017536</v>
+        <v>-0.09403969519412882</v>
       </c>
       <c r="AC7">
-        <v>1.829078617209751</v>
+        <v>0.5780137703072906</v>
       </c>
       <c r="AD7">
-        <v>-0.08939068778012321</v>
+        <v>-0.1914416782149373</v>
       </c>
       <c r="AE7">
-        <v>0.03894459806292331</v>
+        <v>0.0287095590715666</v>
       </c>
       <c r="AF7">
-        <v>0.0006936955087377194</v>
+        <v>-0.0005213824930486706</v>
       </c>
       <c r="AG7">
-        <v>0.1557161587227028</v>
+        <v>0.03367562526675957</v>
       </c>
       <c r="AH7">
-        <v>-0.01117691571711745</v>
+        <v>-0.002091809942548395</v>
       </c>
       <c r="AI7">
-        <v>-0.02769361185207093</v>
+        <v>-0.02483448006275144</v>
       </c>
       <c r="AJ7">
-        <v>0.1556677455789376</v>
+        <v>0.03353439449707483</v>
       </c>
       <c r="AK7">
-        <v>-7.750000000397698</v>
+        <v>-7.750000043014141</v>
       </c>
       <c r="AL7">
-        <v>-2.749999999999629</v>
+        <v>-2.749999999999658</v>
       </c>
       <c r="AM7">
-        <v>6808.385090055973</v>
+        <v>6812.073625213539</v>
       </c>
       <c r="AN7">
-        <v>6816.441673057046</v>
+        <v>6820.279361083215</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.3117987728746148</v>
+        <v>0.311865324557282</v>
       </c>
       <c r="AQ7">
-        <v>182.0756121920004</v>
+        <v>182.1055977378694</v>
       </c>
       <c r="AR7">
-        <v>197.9158153521034</v>
+        <v>197.9838728611807</v>
       </c>
       <c r="AS7">
-        <v>-311.3408639724473</v>
+        <v>-240.981493803309</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -1582,144 +1582,144 @@
         <v>4</v>
       </c>
       <c r="AX7">
-        <v>2092.7</v>
+        <v>2092.1</v>
       </c>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="1">
-        <v>5987</v>
+        <v>5981</v>
       </c>
       <c r="B8">
-        <v>20838</v>
+        <v>20832</v>
       </c>
       <c r="C8">
-        <v>4.020835390943246</v>
+        <v>3.555830197106339</v>
       </c>
       <c r="D8">
-        <v>2.250097626249536</v>
+        <v>2.250716034080121</v>
       </c>
       <c r="E8">
-        <v>30.06891813960051</v>
+        <v>45.35368825962827</v>
       </c>
       <c r="F8">
-        <v>408.0001813590555</v>
+        <v>408.0613020699468</v>
       </c>
       <c r="G8">
-        <v>447.5494248803895</v>
+        <v>448.3091822788161</v>
       </c>
       <c r="H8">
-        <v>422.5596851558579</v>
+        <v>422.5351122615363</v>
       </c>
       <c r="I8">
-        <v>425.9317668775535</v>
+        <v>425.9042346721888</v>
       </c>
       <c r="J8">
-        <v>79.34460659018833</v>
+        <v>79.34117650510856</v>
       </c>
       <c r="K8">
-        <v>78.32599296076056</v>
+        <v>78.32566424759443</v>
       </c>
       <c r="L8">
-        <v>63.58801914562469</v>
+        <v>63.58941030000624</v>
       </c>
       <c r="M8">
-        <v>75.99543574908489</v>
+        <v>75.99517276776052</v>
       </c>
       <c r="N8">
-        <v>63.51750337166045</v>
+        <v>63.53429746036882</v>
       </c>
       <c r="O8">
-        <v>76.39218188690992</v>
+        <v>76.39741215623859</v>
       </c>
       <c r="P8">
-        <v>293.5012075877348</v>
+        <v>293.4331936776978</v>
       </c>
       <c r="Q8">
-        <v>319.2124747244135</v>
+        <v>319.1378263180378</v>
       </c>
       <c r="R8">
-        <v>0.364424876970074</v>
+        <v>0.3126645960549898</v>
       </c>
       <c r="S8">
-        <v>-0.01879673897139424</v>
+        <v>0.1968736065297137</v>
       </c>
       <c r="T8">
-        <v>-0.5256404816782847</v>
+        <v>-0.495217267373477</v>
       </c>
       <c r="U8">
         <v>120320</v>
       </c>
       <c r="V8">
-        <v>41654.00002702326</v>
+        <v>41653.40004405793</v>
       </c>
       <c r="W8">
-        <v>-1.430416378256571</v>
+        <v>-1.359983473751673</v>
       </c>
       <c r="X8">
-        <v>2.660009188463718</v>
+        <v>1.772214979226027</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>51.81787682418146</v>
+        <v>51.81784069992486</v>
       </c>
       <c r="AA8">
-        <v>5.148711654037111</v>
+        <v>5.149400534561835</v>
       </c>
       <c r="AB8">
-        <v>-0.2014465518700942</v>
+        <v>-0.1064262948451893</v>
       </c>
       <c r="AC8">
-        <v>1.911979133519265</v>
+        <v>0.8228655082507226</v>
       </c>
       <c r="AD8">
-        <v>-0.08731864658900966</v>
+        <v>-0.1771839375040454</v>
       </c>
       <c r="AE8">
-        <v>0.04110227723123812</v>
+        <v>0.03011567019371718</v>
       </c>
       <c r="AF8">
-        <v>0.0004578592063142478</v>
+        <v>-0.0001633773503747431</v>
       </c>
       <c r="AG8">
-        <v>0.177614702396799</v>
+        <v>0.05191221270555266</v>
       </c>
       <c r="AH8">
-        <v>-0.01381388397417794</v>
+        <v>-0.002575335799235449</v>
       </c>
       <c r="AI8">
-        <v>-0.02885347016230087</v>
+        <v>-0.0251107127764388</v>
       </c>
       <c r="AJ8">
-        <v>0.1775662048116623</v>
+        <v>0.05175836772780094</v>
       </c>
       <c r="AK8">
-        <v>-7.750000001571914</v>
+        <v>-7.75000004413988</v>
       </c>
       <c r="AL8">
-        <v>-2.749999999999623</v>
+        <v>-2.749999999999642</v>
       </c>
       <c r="AM8">
-        <v>6807.681471730623</v>
+        <v>6811.589350931804</v>
       </c>
       <c r="AN8">
-        <v>6815.747523014139</v>
+        <v>6819.805336159759</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.3117346775847415</v>
+        <v>0.3118706622104871</v>
       </c>
       <c r="AQ8">
-        <v>182.0403160195193</v>
+        <v>182.1109090250916</v>
       </c>
       <c r="AR8">
-        <v>197.8771636181653</v>
+        <v>197.9899849476699</v>
       </c>
       <c r="AS8">
-        <v>-329.8795753214237</v>
+        <v>-245.2049460856153</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -1734,144 +1734,144 @@
         <v>4</v>
       </c>
       <c r="AX8">
-        <v>2092.8</v>
+        <v>2092.2</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="1">
-        <v>5988</v>
+        <v>5982</v>
       </c>
       <c r="B9">
-        <v>20839</v>
+        <v>20833</v>
       </c>
       <c r="C9">
-        <v>4.133902920140685</v>
+        <v>3.598754234670888</v>
       </c>
       <c r="D9">
-        <v>2.249999302995835</v>
+        <v>2.250737933477879</v>
       </c>
       <c r="E9">
-        <v>30.30485125651247</v>
+        <v>39.7729694060559</v>
       </c>
       <c r="F9">
-        <v>407.9584374769208</v>
+        <v>408.1014650021791</v>
       </c>
       <c r="G9">
-        <v>447.4064460451121</v>
+        <v>448.2314104765383</v>
       </c>
       <c r="H9">
-        <v>422.5667825802349</v>
+        <v>422.5336732176117</v>
       </c>
       <c r="I9">
-        <v>425.9469925817417</v>
+        <v>425.9162729947194</v>
       </c>
       <c r="J9">
-        <v>79.34439711895457</v>
+        <v>79.34159345867116</v>
       </c>
       <c r="K9">
-        <v>78.3262894145311</v>
+        <v>78.32586541006253</v>
       </c>
       <c r="L9">
-        <v>63.58509030718125</v>
+        <v>63.59000594506698</v>
       </c>
       <c r="M9">
-        <v>75.99352278930922</v>
+        <v>75.99575351640459</v>
       </c>
       <c r="N9">
-        <v>63.51862132144809</v>
+        <v>63.52938100725046</v>
       </c>
       <c r="O9">
-        <v>76.39398064346508</v>
+        <v>76.39541548471942</v>
       </c>
       <c r="P9">
-        <v>293.5125397665536</v>
+        <v>293.4445298295034</v>
       </c>
       <c r="Q9">
-        <v>319.2249026812481</v>
+        <v>319.150277190551</v>
       </c>
       <c r="R9">
-        <v>0.3754614200271711</v>
+        <v>0.3161005790751183</v>
       </c>
       <c r="S9">
-        <v>-0.02452084716800442</v>
+        <v>0.1271295873574101</v>
       </c>
       <c r="T9">
-        <v>-0.5284280626603622</v>
+        <v>-0.4986518350522783</v>
       </c>
       <c r="U9">
         <v>120320</v>
       </c>
       <c r="V9">
-        <v>41654.10001538543</v>
+        <v>41653.50004121922</v>
       </c>
       <c r="W9">
-        <v>-1.453063304731022</v>
+        <v>-1.37167173317914</v>
       </c>
       <c r="X9">
-        <v>2.852187023472376</v>
+        <v>1.869041648701965</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>51.81788269483064</v>
+        <v>51.81784677574164</v>
       </c>
       <c r="AA9">
-        <v>5.148596952072163</v>
+        <v>5.149285681048999</v>
       </c>
       <c r="AB9">
-        <v>-0.2459238452640597</v>
+        <v>-0.1035075878148336</v>
       </c>
       <c r="AC9">
-        <v>1.947669547823494</v>
+        <v>1.075063047923051</v>
       </c>
       <c r="AD9">
-        <v>-0.09184310639400747</v>
+        <v>-0.1583534952364042</v>
       </c>
       <c r="AE9">
-        <v>0.04330473692792395</v>
+        <v>0.03168578980738818</v>
       </c>
       <c r="AF9">
-        <v>0.0002544732789479184</v>
+        <v>0.0002168458412892053</v>
       </c>
       <c r="AG9">
-        <v>0.1992065177338967</v>
+        <v>0.07210570385209839</v>
       </c>
       <c r="AH9">
-        <v>-0.01662684997395902</v>
+        <v>-0.003465681030740723</v>
       </c>
       <c r="AI9">
-        <v>-0.03010542213293792</v>
+        <v>-0.02541301438619037</v>
       </c>
       <c r="AJ9">
-        <v>0.1991601663154036</v>
+        <v>0.07196735349371072</v>
       </c>
       <c r="AK9">
-        <v>-7.75000000091927</v>
+        <v>-7.750000014366842</v>
       </c>
       <c r="AL9">
-        <v>-2.749999999999646</v>
+        <v>-2.749999999999623</v>
       </c>
       <c r="AM9">
-        <v>6806.991648224965</v>
+        <v>6811.034256683792</v>
       </c>
       <c r="AN9">
-        <v>6815.084255545746</v>
+        <v>6819.231920923661</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.3116749932976294</v>
+        <v>0.311887484970122</v>
       </c>
       <c r="AQ9">
-        <v>182.0072043816937</v>
+        <v>182.1220307608606</v>
       </c>
       <c r="AR9">
-        <v>197.844042989052</v>
+        <v>197.9994359685132</v>
       </c>
       <c r="AS9">
-        <v>-347.8866781672771</v>
+        <v>-252.0964388952711</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -1886,144 +1886,144 @@
         <v>4</v>
       </c>
       <c r="AX9">
-        <v>2092.9</v>
+        <v>2092.3</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="1">
-        <v>5989</v>
+        <v>5983</v>
       </c>
       <c r="B10">
-        <v>20840</v>
+        <v>20834</v>
       </c>
       <c r="C10">
-        <v>4.247980229715052</v>
+        <v>3.657281465961899</v>
       </c>
       <c r="D10">
-        <v>2.249927351957011</v>
+        <v>2.250672014070421</v>
       </c>
       <c r="E10">
-        <v>30.68189006281279</v>
+        <v>35.56610913587942</v>
       </c>
       <c r="F10">
-        <v>407.9226592523494</v>
+        <v>408.1271102403441</v>
       </c>
       <c r="G10">
-        <v>447.1984434405713</v>
+        <v>448.1155095300725</v>
       </c>
       <c r="H10">
-        <v>422.5771824638235</v>
+        <v>422.5372666908817</v>
       </c>
       <c r="I10">
-        <v>425.9484174248378</v>
+        <v>425.9173712245981</v>
       </c>
       <c r="J10">
-        <v>79.34386637420467</v>
+        <v>79.34228532945924</v>
       </c>
       <c r="K10">
-        <v>78.32736676044019</v>
+        <v>78.326089857276</v>
       </c>
       <c r="L10">
-        <v>63.5808260360923</v>
+        <v>63.59043480777244</v>
       </c>
       <c r="M10">
-        <v>75.99039660441231</v>
+        <v>75.99616805078588</v>
       </c>
       <c r="N10">
-        <v>63.51930391820254</v>
+        <v>63.52471810524237</v>
       </c>
       <c r="O10">
-        <v>76.39540601640279</v>
+        <v>76.39354169787683</v>
       </c>
       <c r="P10">
-        <v>293.5238709515328</v>
+        <v>293.4558666936767</v>
       </c>
       <c r="Q10">
-        <v>319.2373248602325</v>
+        <v>319.1627248435935</v>
       </c>
       <c r="R10">
-        <v>0.3855427033820255</v>
+        <v>0.3223053151020213</v>
       </c>
       <c r="S10">
-        <v>-0.02822259204170836</v>
+        <v>0.07329273142194251</v>
       </c>
       <c r="T10">
-        <v>-0.5299919204191792</v>
+        <v>-0.5031525783204654</v>
       </c>
       <c r="U10">
         <v>120320</v>
       </c>
       <c r="V10">
-        <v>41654.2000037476</v>
+        <v>41653.6000383805</v>
       </c>
       <c r="W10">
-        <v>-1.478201649223939</v>
+        <v>-1.382201453542426</v>
       </c>
       <c r="X10">
-        <v>3.045074368995902</v>
+        <v>1.990356444462309</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>51.81788852327079</v>
+        <v>51.81785284499735</v>
       </c>
       <c r="AA10">
-        <v>5.148482282314093</v>
+        <v>5.149170832249135</v>
       </c>
       <c r="AB10">
-        <v>-0.256572669487288</v>
+        <v>-0.08908744919214699</v>
       </c>
       <c r="AC10">
-        <v>1.940723442978626</v>
+        <v>1.314333881663653</v>
       </c>
       <c r="AD10">
-        <v>-0.1005365965020022</v>
+        <v>-0.1371416126139512</v>
       </c>
       <c r="AE10">
-        <v>0.04540903845250277</v>
+        <v>0.0333429642606652</v>
       </c>
       <c r="AF10">
-        <v>0.0001440255539342985</v>
+        <v>0.0005672967769142263</v>
       </c>
       <c r="AG10">
-        <v>0.219214769278096</v>
+        <v>0.09286420919802874</v>
       </c>
       <c r="AH10">
-        <v>-0.01959726007301807</v>
+        <v>-0.004815049304500031</v>
       </c>
       <c r="AI10">
-        <v>-0.03129779790310634</v>
+        <v>-0.02573288129208335</v>
       </c>
       <c r="AJ10">
-        <v>0.2191740010928241</v>
+        <v>0.0927588138623292</v>
       </c>
       <c r="AK10">
-        <v>-7.750000000083214</v>
+        <v>-7.749999994467486</v>
       </c>
       <c r="AL10">
-        <v>-2.749999999999658</v>
+        <v>-2.749999999999631</v>
       </c>
       <c r="AM10">
-        <v>6806.357286280958</v>
+        <v>6810.417993695752</v>
       </c>
       <c r="AN10">
-        <v>6814.477492614566</v>
+        <v>6818.575264352581</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.311616901843893</v>
+        <v>0.3119006762177121</v>
       </c>
       <c r="AQ10">
-        <v>181.973949268104</v>
+        <v>182.130731550329</v>
       </c>
       <c r="AR10">
-        <v>197.8103501138293</v>
+        <v>198.0016434715907</v>
       </c>
       <c r="AS10">
-        <v>-363.9797891164268</v>
+        <v>-262.5833597450953</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -2038,7 +2038,2287 @@
         <v>4</v>
       </c>
       <c r="AX10">
+        <v>2092.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11" s="1">
+        <v>5984</v>
+      </c>
+      <c r="B11">
+        <v>20835</v>
+      </c>
+      <c r="C11">
+        <v>3.730182593697034</v>
+      </c>
+      <c r="D11">
+        <v>2.25054326796498</v>
+      </c>
+      <c r="E11">
+        <v>32.70950643873985</v>
+      </c>
+      <c r="F11">
+        <v>408.1259201145156</v>
+      </c>
+      <c r="G11">
+        <v>447.9657983609707</v>
+      </c>
+      <c r="H11">
+        <v>422.5441696481898</v>
+      </c>
+      <c r="I11">
+        <v>425.9111093033517</v>
+      </c>
+      <c r="J11">
+        <v>79.34311712301783</v>
+      </c>
+      <c r="K11">
+        <v>78.32623283155364</v>
+      </c>
+      <c r="L11">
+        <v>63.59068360283825</v>
+      </c>
+      <c r="M11">
+        <v>75.99646285666552</v>
+      </c>
+      <c r="N11">
+        <v>63.52076908624239</v>
+      </c>
+      <c r="O11">
+        <v>76.39187642268355</v>
+      </c>
+      <c r="P11">
+        <v>293.467203524791</v>
+      </c>
+      <c r="Q11">
+        <v>319.1751683379924</v>
+      </c>
+      <c r="R11">
+        <v>0.331007026380727</v>
+      </c>
+      <c r="S11">
+        <v>0.03441569198102949</v>
+      </c>
+      <c r="T11">
+        <v>-0.5088153709969389</v>
+      </c>
+      <c r="U11">
+        <v>120320</v>
+      </c>
+      <c r="V11">
+        <v>41653.70003554178</v>
+      </c>
+      <c r="W11">
+        <v>-1.391242700190972</v>
+      </c>
+      <c r="X11">
+        <v>2.133883025758631</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>51.81785889850771</v>
+      </c>
+      <c r="AA11">
+        <v>5.149055994673741</v>
+      </c>
+      <c r="AB11">
+        <v>-0.08033332809032746</v>
+      </c>
+      <c r="AC11">
+        <v>1.525546689286192</v>
+      </c>
+      <c r="AD11">
+        <v>-0.1163346633626213</v>
+      </c>
+      <c r="AE11">
+        <v>0.03507584398640506</v>
+      </c>
+      <c r="AF11">
+        <v>0.0007994219841589425</v>
+      </c>
+      <c r="AG11">
+        <v>0.1135423463731433</v>
+      </c>
+      <c r="AH11">
+        <v>-0.006601983449094588</v>
+      </c>
+      <c r="AI11">
+        <v>-0.02614546909539249</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1134695115576287</v>
+      </c>
+      <c r="AK11">
+        <v>-7.749999991430296</v>
+      </c>
+      <c r="AL11">
+        <v>-2.749999999999655</v>
+      </c>
+      <c r="AM11">
+        <v>6809.761013869556</v>
+      </c>
+      <c r="AN11">
+        <v>6817.870672818908</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0.3118929674070833</v>
+      </c>
+      <c r="AQ11">
+        <v>182.1273153695536</v>
+      </c>
+      <c r="AR11">
+        <v>197.9874675993343</v>
+      </c>
+      <c r="AS11">
+        <v>-276.598853161614</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>2092.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12" s="1">
+        <v>5985</v>
+      </c>
+      <c r="B12">
+        <v>20836</v>
+      </c>
+      <c r="C12">
+        <v>3.816115512409496</v>
+      </c>
+      <c r="D12">
+        <v>2.250384594093954</v>
+      </c>
+      <c r="E12">
+        <v>31.01731749260892</v>
+      </c>
+      <c r="F12">
+        <v>408.0965392773433</v>
+      </c>
+      <c r="G12">
+        <v>447.8091056267685</v>
+      </c>
+      <c r="H12">
+        <v>422.5507269011212</v>
+      </c>
+      <c r="I12">
+        <v>425.9076206296334</v>
+      </c>
+      <c r="J12">
+        <v>79.34389693893631</v>
+      </c>
+      <c r="K12">
+        <v>78.32623095401203</v>
+      </c>
+      <c r="L12">
+        <v>63.59056536338998</v>
+      </c>
+      <c r="M12">
+        <v>75.99658498637773</v>
+      </c>
+      <c r="N12">
+        <v>63.5181005724242</v>
+      </c>
+      <c r="O12">
+        <v>76.39086097140188</v>
+      </c>
+      <c r="P12">
+        <v>293.478539539771</v>
+      </c>
+      <c r="Q12">
+        <v>319.1876074798153</v>
+      </c>
+      <c r="R12">
+        <v>0.3414795027162397</v>
+      </c>
+      <c r="S12">
+        <v>0.008030628419242168</v>
+      </c>
+      <c r="T12">
+        <v>-0.5151603602720761</v>
+      </c>
+      <c r="U12">
+        <v>120320</v>
+      </c>
+      <c r="V12">
+        <v>41653.80003270307</v>
+      </c>
+      <c r="W12">
+        <v>-1.400475736697628</v>
+      </c>
+      <c r="X12">
+        <v>2.296175729429208</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>51.81786492194799</v>
+      </c>
+      <c r="AA12">
+        <v>5.148941178863618</v>
+      </c>
+      <c r="AB12">
+        <v>-0.09657815231943818</v>
+      </c>
+      <c r="AC12">
+        <v>1.699110865691477</v>
+      </c>
+      <c r="AD12">
+        <v>-0.0994075456033286</v>
+      </c>
+      <c r="AE12">
+        <v>0.03692905472732282</v>
+      </c>
+      <c r="AF12">
+        <v>0.0008395470426146144</v>
+      </c>
+      <c r="AG12">
+        <v>0.1343414409147206</v>
+      </c>
+      <c r="AH12">
+        <v>-0.008751435765451164</v>
+      </c>
+      <c r="AI12">
+        <v>-0.02677456126167656</v>
+      </c>
+      <c r="AJ12">
+        <v>0.1342877497915426</v>
+      </c>
+      <c r="AK12">
+        <v>-7.749999996193645</v>
+      </c>
+      <c r="AL12">
+        <v>-2.749999999999654</v>
+      </c>
+      <c r="AM12">
+        <v>6809.080710410578</v>
+      </c>
+      <c r="AN12">
+        <v>6817.1527347136</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0.3118566588867093</v>
+      </c>
+      <c r="AQ12">
+        <v>182.1075316803747</v>
+      </c>
+      <c r="AR12">
+        <v>197.9561007937619</v>
+      </c>
+      <c r="AS12">
+        <v>-293.2413963670135</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>6</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>4</v>
+      </c>
+      <c r="AX12">
+        <v>2092.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13" s="1">
+        <v>5986</v>
+      </c>
+      <c r="B13">
+        <v>20837</v>
+      </c>
+      <c r="C13">
+        <v>3.913711334614367</v>
+      </c>
+      <c r="D13">
+        <v>2.250228358952769</v>
+      </c>
+      <c r="E13">
+        <v>30.22589535109768</v>
+      </c>
+      <c r="F13">
+        <v>408.0495453384437</v>
+      </c>
+      <c r="G13">
+        <v>447.6713806523237</v>
+      </c>
+      <c r="H13">
+        <v>422.5553222872127</v>
+      </c>
+      <c r="I13">
+        <v>425.9149864041715</v>
+      </c>
+      <c r="J13">
+        <v>79.34443324954842</v>
+      </c>
+      <c r="K13">
+        <v>78.32609593920996</v>
+      </c>
+      <c r="L13">
+        <v>63.58977403015722</v>
+      </c>
+      <c r="M13">
+        <v>75.99634513717999</v>
+      </c>
+      <c r="N13">
+        <v>63.51706911808577</v>
+      </c>
+      <c r="O13">
+        <v>76.39095137102308</v>
+      </c>
+      <c r="P13">
+        <v>293.4898742493637</v>
+      </c>
+      <c r="Q13">
+        <v>319.2000427959446</v>
+      </c>
+      <c r="R13">
+        <v>0.3528797898820305</v>
+      </c>
+      <c r="S13">
+        <v>-0.008775573657967169</v>
+      </c>
+      <c r="T13">
+        <v>-0.521117178796573</v>
+      </c>
+      <c r="U13">
+        <v>120320</v>
+      </c>
+      <c r="V13">
+        <v>41653.90002986436</v>
+      </c>
+      <c r="W13">
+        <v>-1.412814455646074</v>
+      </c>
+      <c r="X13">
+        <v>2.473081695472521</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>51.81787090027278</v>
+      </c>
+      <c r="AA13">
+        <v>5.148826396188851</v>
+      </c>
+      <c r="AB13">
+        <v>-0.1425463085017536</v>
+      </c>
+      <c r="AC13">
+        <v>1.829078617209751</v>
+      </c>
+      <c r="AD13">
+        <v>-0.08939068778012321</v>
+      </c>
+      <c r="AE13">
+        <v>0.03894459806292331</v>
+      </c>
+      <c r="AF13">
+        <v>0.0006936955087377194</v>
+      </c>
+      <c r="AG13">
+        <v>0.1557161587227028</v>
+      </c>
+      <c r="AH13">
+        <v>-0.01117691571711745</v>
+      </c>
+      <c r="AI13">
+        <v>-0.02769361185207093</v>
+      </c>
+      <c r="AJ13">
+        <v>0.1556677455789376</v>
+      </c>
+      <c r="AK13">
+        <v>-7.750000000397698</v>
+      </c>
+      <c r="AL13">
+        <v>-2.749999999999629</v>
+      </c>
+      <c r="AM13">
+        <v>6808.385090055973</v>
+      </c>
+      <c r="AN13">
+        <v>6816.441673057046</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0.3117987728746148</v>
+      </c>
+      <c r="AQ13">
+        <v>182.0756121920004</v>
+      </c>
+      <c r="AR13">
+        <v>197.9158153521034</v>
+      </c>
+      <c r="AS13">
+        <v>-311.3408639724473</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>6</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>2092.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" s="1">
+        <v>5987</v>
+      </c>
+      <c r="B14">
+        <v>20838</v>
+      </c>
+      <c r="C14">
+        <v>4.020835390943246</v>
+      </c>
+      <c r="D14">
+        <v>2.250097626249536</v>
+      </c>
+      <c r="E14">
+        <v>30.06891813960051</v>
+      </c>
+      <c r="F14">
+        <v>408.0001813590555</v>
+      </c>
+      <c r="G14">
+        <v>447.5494248803895</v>
+      </c>
+      <c r="H14">
+        <v>422.5596851558579</v>
+      </c>
+      <c r="I14">
+        <v>425.9317668775535</v>
+      </c>
+      <c r="J14">
+        <v>79.34460659018833</v>
+      </c>
+      <c r="K14">
+        <v>78.32599296076056</v>
+      </c>
+      <c r="L14">
+        <v>63.58801914562469</v>
+      </c>
+      <c r="M14">
+        <v>75.99543574908489</v>
+      </c>
+      <c r="N14">
+        <v>63.51750337166045</v>
+      </c>
+      <c r="O14">
+        <v>76.39218188690992</v>
+      </c>
+      <c r="P14">
+        <v>293.5012075877348</v>
+      </c>
+      <c r="Q14">
+        <v>319.2124747244135</v>
+      </c>
+      <c r="R14">
+        <v>0.364424876970074</v>
+      </c>
+      <c r="S14">
+        <v>-0.01879673897139424</v>
+      </c>
+      <c r="T14">
+        <v>-0.5256404816782847</v>
+      </c>
+      <c r="U14">
+        <v>120320</v>
+      </c>
+      <c r="V14">
+        <v>41654.00002702326</v>
+      </c>
+      <c r="W14">
+        <v>-1.430416378256571</v>
+      </c>
+      <c r="X14">
+        <v>2.660009188463718</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>51.81787682418146</v>
+      </c>
+      <c r="AA14">
+        <v>5.148711654037111</v>
+      </c>
+      <c r="AB14">
+        <v>-0.2014465518700942</v>
+      </c>
+      <c r="AC14">
+        <v>1.911979133519265</v>
+      </c>
+      <c r="AD14">
+        <v>-0.08731864658900966</v>
+      </c>
+      <c r="AE14">
+        <v>0.04110227723123812</v>
+      </c>
+      <c r="AF14">
+        <v>0.0004578592063142478</v>
+      </c>
+      <c r="AG14">
+        <v>0.177614702396799</v>
+      </c>
+      <c r="AH14">
+        <v>-0.01381388397417794</v>
+      </c>
+      <c r="AI14">
+        <v>-0.02885347016230087</v>
+      </c>
+      <c r="AJ14">
+        <v>0.1775662048116623</v>
+      </c>
+      <c r="AK14">
+        <v>-7.750000001571914</v>
+      </c>
+      <c r="AL14">
+        <v>-2.749999999999623</v>
+      </c>
+      <c r="AM14">
+        <v>6807.681471730623</v>
+      </c>
+      <c r="AN14">
+        <v>6815.747523014139</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0.3117346775847415</v>
+      </c>
+      <c r="AQ14">
+        <v>182.0403160195193</v>
+      </c>
+      <c r="AR14">
+        <v>197.8771636181653</v>
+      </c>
+      <c r="AS14">
+        <v>-329.8795753214237</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>2092.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15" s="1">
+        <v>5988</v>
+      </c>
+      <c r="B15">
+        <v>20839</v>
+      </c>
+      <c r="C15">
+        <v>4.133902920140685</v>
+      </c>
+      <c r="D15">
+        <v>2.249999302995835</v>
+      </c>
+      <c r="E15">
+        <v>30.30485125651247</v>
+      </c>
+      <c r="F15">
+        <v>407.9584374769208</v>
+      </c>
+      <c r="G15">
+        <v>447.4064460451121</v>
+      </c>
+      <c r="H15">
+        <v>422.5667825802349</v>
+      </c>
+      <c r="I15">
+        <v>425.9469925817417</v>
+      </c>
+      <c r="J15">
+        <v>79.34439711895457</v>
+      </c>
+      <c r="K15">
+        <v>78.3262894145311</v>
+      </c>
+      <c r="L15">
+        <v>63.58509030718125</v>
+      </c>
+      <c r="M15">
+        <v>75.99352278930922</v>
+      </c>
+      <c r="N15">
+        <v>63.51862132144809</v>
+      </c>
+      <c r="O15">
+        <v>76.39398064346508</v>
+      </c>
+      <c r="P15">
+        <v>293.5125397665536</v>
+      </c>
+      <c r="Q15">
+        <v>319.2249026812481</v>
+      </c>
+      <c r="R15">
+        <v>0.3754614200271711</v>
+      </c>
+      <c r="S15">
+        <v>-0.02452084716800442</v>
+      </c>
+      <c r="T15">
+        <v>-0.5284280626603622</v>
+      </c>
+      <c r="U15">
+        <v>120320</v>
+      </c>
+      <c r="V15">
+        <v>41654.10001538543</v>
+      </c>
+      <c r="W15">
+        <v>-1.453063304731022</v>
+      </c>
+      <c r="X15">
+        <v>2.852187023472376</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>51.81788269483064</v>
+      </c>
+      <c r="AA15">
+        <v>5.148596952072163</v>
+      </c>
+      <c r="AB15">
+        <v>-0.2459238452640597</v>
+      </c>
+      <c r="AC15">
+        <v>1.947669547823494</v>
+      </c>
+      <c r="AD15">
+        <v>-0.09184310639400747</v>
+      </c>
+      <c r="AE15">
+        <v>0.04330473692792395</v>
+      </c>
+      <c r="AF15">
+        <v>0.0002544732789479184</v>
+      </c>
+      <c r="AG15">
+        <v>0.1992065177338967</v>
+      </c>
+      <c r="AH15">
+        <v>-0.01662684997395902</v>
+      </c>
+      <c r="AI15">
+        <v>-0.03010542213293792</v>
+      </c>
+      <c r="AJ15">
+        <v>0.1991601663154036</v>
+      </c>
+      <c r="AK15">
+        <v>-7.75000000091927</v>
+      </c>
+      <c r="AL15">
+        <v>-2.749999999999646</v>
+      </c>
+      <c r="AM15">
+        <v>6806.991648224965</v>
+      </c>
+      <c r="AN15">
+        <v>6815.084255545746</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0.3116749932976294</v>
+      </c>
+      <c r="AQ15">
+        <v>182.0072043816937</v>
+      </c>
+      <c r="AR15">
+        <v>197.844042989052</v>
+      </c>
+      <c r="AS15">
+        <v>-347.8866781672771</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>6</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>4</v>
+      </c>
+      <c r="AX15">
+        <v>2092.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="A16" s="1">
+        <v>5989</v>
+      </c>
+      <c r="B16">
+        <v>20840</v>
+      </c>
+      <c r="C16">
+        <v>4.247980229715052</v>
+      </c>
+      <c r="D16">
+        <v>2.249927351957011</v>
+      </c>
+      <c r="E16">
+        <v>30.68189006281279</v>
+      </c>
+      <c r="F16">
+        <v>407.9226592523494</v>
+      </c>
+      <c r="G16">
+        <v>447.1984434405713</v>
+      </c>
+      <c r="H16">
+        <v>422.5771824638235</v>
+      </c>
+      <c r="I16">
+        <v>425.9484174248378</v>
+      </c>
+      <c r="J16">
+        <v>79.34386637420467</v>
+      </c>
+      <c r="K16">
+        <v>78.32736676044019</v>
+      </c>
+      <c r="L16">
+        <v>63.5808260360923</v>
+      </c>
+      <c r="M16">
+        <v>75.99039660441231</v>
+      </c>
+      <c r="N16">
+        <v>63.51930391820254</v>
+      </c>
+      <c r="O16">
+        <v>76.39540601640279</v>
+      </c>
+      <c r="P16">
+        <v>293.5238709515328</v>
+      </c>
+      <c r="Q16">
+        <v>319.2373248602325</v>
+      </c>
+      <c r="R16">
+        <v>0.3855427033820255</v>
+      </c>
+      <c r="S16">
+        <v>-0.02822259204170836</v>
+      </c>
+      <c r="T16">
+        <v>-0.5299919204191792</v>
+      </c>
+      <c r="U16">
+        <v>120320</v>
+      </c>
+      <c r="V16">
+        <v>41654.2000037476</v>
+      </c>
+      <c r="W16">
+        <v>-1.478201649223939</v>
+      </c>
+      <c r="X16">
+        <v>3.045074368995902</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>51.81788852327079</v>
+      </c>
+      <c r="AA16">
+        <v>5.148482282314093</v>
+      </c>
+      <c r="AB16">
+        <v>-0.256572669487288</v>
+      </c>
+      <c r="AC16">
+        <v>1.940723442978626</v>
+      </c>
+      <c r="AD16">
+        <v>-0.1005365965020022</v>
+      </c>
+      <c r="AE16">
+        <v>0.04540903845250277</v>
+      </c>
+      <c r="AF16">
+        <v>0.0001440255539342985</v>
+      </c>
+      <c r="AG16">
+        <v>0.219214769278096</v>
+      </c>
+      <c r="AH16">
+        <v>-0.01959726007301807</v>
+      </c>
+      <c r="AI16">
+        <v>-0.03129779790310634</v>
+      </c>
+      <c r="AJ16">
+        <v>0.2191740010928241</v>
+      </c>
+      <c r="AK16">
+        <v>-7.750000000083214</v>
+      </c>
+      <c r="AL16">
+        <v>-2.749999999999658</v>
+      </c>
+      <c r="AM16">
+        <v>6806.357286280958</v>
+      </c>
+      <c r="AN16">
+        <v>6814.477492614566</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0.311616901843893</v>
+      </c>
+      <c r="AQ16">
+        <v>181.973949268104</v>
+      </c>
+      <c r="AR16">
+        <v>197.8103501138293</v>
+      </c>
+      <c r="AS16">
+        <v>-363.9797891164268</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>6</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>4</v>
+      </c>
+      <c r="AX16">
         <v>2093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="A17" s="1">
+        <v>5990</v>
+      </c>
+      <c r="B17">
+        <v>20841</v>
+      </c>
+      <c r="C17">
+        <v>4.357613912186324</v>
+      </c>
+      <c r="D17">
+        <v>2.249879630210324</v>
+      </c>
+      <c r="E17">
+        <v>30.89660895646738</v>
+      </c>
+      <c r="F17">
+        <v>407.8805215970172</v>
+      </c>
+      <c r="G17">
+        <v>446.9089322869758</v>
+      </c>
+      <c r="H17">
+        <v>422.5868852878535</v>
+      </c>
+      <c r="I17">
+        <v>425.9323403128983</v>
+      </c>
+      <c r="J17">
+        <v>79.3431724162735</v>
+      </c>
+      <c r="K17">
+        <v>78.32920676180571</v>
+      </c>
+      <c r="L17">
+        <v>63.5751014449147</v>
+      </c>
+      <c r="M17">
+        <v>75.98609783538163</v>
+      </c>
+      <c r="N17">
+        <v>63.5186029800638</v>
+      </c>
+      <c r="O17">
+        <v>76.3956170776904</v>
+      </c>
+      <c r="P17">
+        <v>293.5352009660216</v>
+      </c>
+      <c r="Q17">
+        <v>319.2497389972405</v>
+      </c>
+      <c r="R17">
+        <v>0.3944889093136169</v>
+      </c>
+      <c r="S17">
+        <v>-0.03214779914634658</v>
+      </c>
+      <c r="T17">
+        <v>-0.5310511414685104</v>
+      </c>
+      <c r="U17">
+        <v>120320</v>
+      </c>
+      <c r="V17">
+        <v>41654.29999210977</v>
+      </c>
+      <c r="W17">
+        <v>-1.502347829406782</v>
+      </c>
+      <c r="X17">
+        <v>3.234865622682655</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>51.81789432495642</v>
+      </c>
+      <c r="AA17">
+        <v>5.148367633037367</v>
+      </c>
+      <c r="AB17">
+        <v>-0.2308887742004328</v>
+      </c>
+      <c r="AC17">
+        <v>1.900367711200077</v>
+      </c>
+      <c r="AD17">
+        <v>-0.1117174942527937</v>
+      </c>
+      <c r="AE17">
+        <v>0.04727387980895101</v>
+      </c>
+      <c r="AF17">
+        <v>8.732775379334269e-05</v>
+      </c>
+      <c r="AG17">
+        <v>0.2364541330209933</v>
+      </c>
+      <c r="AH17">
+        <v>-0.02270838346173842</v>
+      </c>
+      <c r="AI17">
+        <v>-0.03235483294854011</v>
+      </c>
+      <c r="AJ17">
+        <v>0.2364193666459433</v>
+      </c>
+      <c r="AK17">
+        <v>-7.74999999974317</v>
+      </c>
+      <c r="AL17">
+        <v>-2.749999999999642</v>
+      </c>
+      <c r="AM17">
+        <v>6805.827926628161</v>
+      </c>
+      <c r="AN17">
+        <v>6813.959674377754</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0.3115469630038293</v>
+      </c>
+      <c r="AQ17">
+        <v>181.9324727931671</v>
+      </c>
+      <c r="AR17">
+        <v>197.7650054252975</v>
+      </c>
+      <c r="AS17">
+        <v>-376.0630250760335</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>6</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>4</v>
+      </c>
+      <c r="AX17">
+        <v>2093.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50">
+      <c r="A18" s="1">
+        <v>5991</v>
+      </c>
+      <c r="B18">
+        <v>20842</v>
+      </c>
+      <c r="C18">
+        <v>4.457775050185765</v>
+      </c>
+      <c r="D18">
+        <v>2.249873642693616</v>
+      </c>
+      <c r="E18">
+        <v>30.64436040015816</v>
+      </c>
+      <c r="F18">
+        <v>407.8165457621462</v>
+      </c>
+      <c r="G18">
+        <v>446.5633796817817</v>
+      </c>
+      <c r="H18">
+        <v>422.5886258379215</v>
+      </c>
+      <c r="I18">
+        <v>425.906429546328</v>
+      </c>
+      <c r="J18">
+        <v>79.34258722849687</v>
+      </c>
+      <c r="K18">
+        <v>78.33117124369247</v>
+      </c>
+      <c r="L18">
+        <v>63.56791530572707</v>
+      </c>
+      <c r="M18">
+        <v>75.9809115567506</v>
+      </c>
+      <c r="N18">
+        <v>63.51612724203731</v>
+      </c>
+      <c r="O18">
+        <v>76.39424665917075</v>
+      </c>
+      <c r="P18">
+        <v>293.5465292034038</v>
+      </c>
+      <c r="Q18">
+        <v>319.262143535565</v>
+      </c>
+      <c r="R18">
+        <v>0.402348438630988</v>
+      </c>
+      <c r="S18">
+        <v>-0.03838669651954966</v>
+      </c>
+      <c r="T18">
+        <v>-0.5319447283365958</v>
+      </c>
+      <c r="U18">
+        <v>120320</v>
+      </c>
+      <c r="V18">
+        <v>41654.39998047194</v>
+      </c>
+      <c r="W18">
+        <v>-1.522514904978677</v>
+      </c>
+      <c r="X18">
+        <v>3.418912474257967</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>51.8179001133586</v>
+      </c>
+      <c r="AA18">
+        <v>5.148252994023392</v>
+      </c>
+      <c r="AB18">
+        <v>-0.1781047381520471</v>
+      </c>
+      <c r="AC18">
+        <v>1.838785444614112</v>
+      </c>
+      <c r="AD18">
+        <v>-0.1252442238399678</v>
+      </c>
+      <c r="AE18">
+        <v>0.04879534746689977</v>
+      </c>
+      <c r="AF18">
+        <v>-1.111670670896866e-05</v>
+      </c>
+      <c r="AG18">
+        <v>0.25018136836118</v>
+      </c>
+      <c r="AH18">
+        <v>-0.02593686867064125</v>
+      </c>
+      <c r="AI18">
+        <v>-0.03327363407535145</v>
+      </c>
+      <c r="AJ18">
+        <v>0.2501491050172219</v>
+      </c>
+      <c r="AK18">
+        <v>-7.74999999978611</v>
+      </c>
+      <c r="AL18">
+        <v>-2.749999999999623</v>
+      </c>
+      <c r="AM18">
+        <v>6805.438938175444</v>
+      </c>
+      <c r="AN18">
+        <v>6813.55877543563</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0.3114522019595106</v>
+      </c>
+      <c r="AQ18">
+        <v>181.8755945609321</v>
+      </c>
+      <c r="AR18">
+        <v>197.7006930138641</v>
+      </c>
+      <c r="AS18">
+        <v>-381.5184244004346</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>6</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>4</v>
+      </c>
+      <c r="AX18">
+        <v>2093.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="A19" s="1">
+        <v>5992</v>
+      </c>
+      <c r="B19">
+        <v>20843</v>
+      </c>
+      <c r="C19">
+        <v>4.544476191025406</v>
+      </c>
+      <c r="D19">
+        <v>2.249939231061264</v>
+      </c>
+      <c r="E19">
+        <v>29.77578157423223</v>
+      </c>
+      <c r="F19">
+        <v>407.7199213097113</v>
+      </c>
+      <c r="G19">
+        <v>446.2167649337396</v>
+      </c>
+      <c r="H19">
+        <v>422.5762074940702</v>
+      </c>
+      <c r="I19">
+        <v>425.8833623588843</v>
+      </c>
+      <c r="J19">
+        <v>79.34239165957973</v>
+      </c>
+      <c r="K19">
+        <v>78.33234739453923</v>
+      </c>
+      <c r="L19">
+        <v>63.55951335585608</v>
+      </c>
+      <c r="M19">
+        <v>75.97525769808227</v>
+      </c>
+      <c r="N19">
+        <v>63.5120678621466</v>
+      </c>
+      <c r="O19">
+        <v>76.39150719796775</v>
+      </c>
+      <c r="P19">
+        <v>293.5578547567736</v>
+      </c>
+      <c r="Q19">
+        <v>319.2745384457021</v>
+      </c>
+      <c r="R19">
+        <v>0.4092309977451777</v>
+      </c>
+      <c r="S19">
+        <v>-0.0481794107240725</v>
+      </c>
+      <c r="T19">
+        <v>-0.5325905438584829</v>
+      </c>
+      <c r="U19">
+        <v>120320</v>
+      </c>
+      <c r="V19">
+        <v>41654.4999688341</v>
+      </c>
+      <c r="W19">
+        <v>-1.536801756691305</v>
+      </c>
+      <c r="X19">
+        <v>3.59591990336439</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>51.81790589580213</v>
+      </c>
+      <c r="AA19">
+        <v>5.148138361147551</v>
+      </c>
+      <c r="AB19">
+        <v>-0.1100269759965888</v>
+      </c>
+      <c r="AC19">
+        <v>1.768935439329413</v>
+      </c>
+      <c r="AD19">
+        <v>-0.1418664619460231</v>
+      </c>
+      <c r="AE19">
+        <v>0.04992732140048946</v>
+      </c>
+      <c r="AF19">
+        <v>-0.0002134824460940602</v>
+      </c>
+      <c r="AG19">
+        <v>0.2601899189025521</v>
+      </c>
+      <c r="AH19">
+        <v>-0.02925034573701367</v>
+      </c>
+      <c r="AI19">
+        <v>-0.03405675374475976</v>
+      </c>
+      <c r="AJ19">
+        <v>0.2601505921708147</v>
+      </c>
+      <c r="AK19">
+        <v>-7.749999999913835</v>
+      </c>
+      <c r="AL19">
+        <v>-2.749999999999631</v>
+      </c>
+      <c r="AM19">
+        <v>6805.196247475915</v>
+      </c>
+      <c r="AN19">
+        <v>6813.289196088635</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0.3113299833539486</v>
+      </c>
+      <c r="AQ19">
+        <v>181.8026066591089</v>
+      </c>
+      <c r="AR19">
+        <v>197.6191254701043</v>
+      </c>
+      <c r="AS19">
+        <v>-377.7841931281876</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>6</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>4</v>
+      </c>
+      <c r="AX19">
+        <v>2093.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50">
+      <c r="A20" s="1">
+        <v>5993</v>
+      </c>
+      <c r="B20">
+        <v>20844</v>
+      </c>
+      <c r="C20">
+        <v>4.615162284769173</v>
+      </c>
+      <c r="D20">
+        <v>2.250091892206632</v>
+      </c>
+      <c r="E20">
+        <v>28.4263274083957</v>
+      </c>
+      <c r="F20">
+        <v>407.5879514927614</v>
+      </c>
+      <c r="G20">
+        <v>445.9296127657478</v>
+      </c>
+      <c r="H20">
+        <v>422.5489012816188</v>
+      </c>
+      <c r="I20">
+        <v>425.8715995052493</v>
+      </c>
+      <c r="J20">
+        <v>79.34268631844695</v>
+      </c>
+      <c r="K20">
+        <v>78.33222438607849</v>
+      </c>
+      <c r="L20">
+        <v>63.55041931016115</v>
+      </c>
+      <c r="M20">
+        <v>75.96957934810756</v>
+      </c>
+      <c r="N20">
+        <v>63.50698762229612</v>
+      </c>
+      <c r="O20">
+        <v>76.38805512088044</v>
+      </c>
+      <c r="P20">
+        <v>293.569176644315</v>
+      </c>
+      <c r="Q20">
+        <v>319.28692537939</v>
+      </c>
+      <c r="R20">
+        <v>0.415103368417594</v>
+      </c>
+      <c r="S20">
+        <v>-0.06109375495991275</v>
+      </c>
+      <c r="T20">
+        <v>-0.5328572331387592</v>
+      </c>
+      <c r="U20">
+        <v>120320</v>
+      </c>
+      <c r="V20">
+        <v>41654.59995719627</v>
+      </c>
+      <c r="W20">
+        <v>-1.544385096907591</v>
+      </c>
+      <c r="X20">
+        <v>3.765872093628639</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>51.81791167199759</v>
+      </c>
+      <c r="AA20">
+        <v>5.148023739902834</v>
+      </c>
+      <c r="AB20">
+        <v>-0.03758809783135722</v>
+      </c>
+      <c r="AC20">
+        <v>1.702523920243821</v>
+      </c>
+      <c r="AD20">
+        <v>-0.1619133972210053</v>
+      </c>
+      <c r="AE20">
+        <v>0.05069285319881221</v>
+      </c>
+      <c r="AF20">
+        <v>-0.0004802487436207705</v>
+      </c>
+      <c r="AG20">
+        <v>0.2667750511877163</v>
+      </c>
+      <c r="AH20">
+        <v>-0.03260684116543704</v>
+      </c>
+      <c r="AI20">
+        <v>-0.03465119748253403</v>
+      </c>
+      <c r="AJ20">
+        <v>0.2667090607308624</v>
+      </c>
+      <c r="AK20">
+        <v>-7.749999999993679</v>
+      </c>
+      <c r="AL20">
+        <v>-2.749999999999655</v>
+      </c>
+      <c r="AM20">
+        <v>6805.080621700152</v>
+      </c>
+      <c r="AN20">
+        <v>6813.150206221842</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0.3111892809866197</v>
+      </c>
+      <c r="AQ20">
+        <v>181.7196252281827</v>
+      </c>
+      <c r="AR20">
+        <v>197.529150651553</v>
+      </c>
+      <c r="AS20">
+        <v>-362.9829990855168</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>6</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>2093.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="A21" s="1">
+        <v>5994</v>
+      </c>
+      <c r="B21">
+        <v>20845</v>
+      </c>
+      <c r="C21">
+        <v>4.669094390325051</v>
+      </c>
+      <c r="D21">
+        <v>2.250314483286356</v>
+      </c>
+      <c r="E21">
+        <v>26.96874467703999</v>
+      </c>
+      <c r="F21">
+        <v>407.4265300392249</v>
+      </c>
+      <c r="G21">
+        <v>445.7481465798781</v>
+      </c>
+      <c r="H21">
+        <v>422.5128695957634</v>
+      </c>
+      <c r="I21">
+        <v>425.8707369214391</v>
+      </c>
+      <c r="J21">
+        <v>79.34331329169287</v>
+      </c>
+      <c r="K21">
+        <v>78.33103930136443</v>
+      </c>
+      <c r="L21">
+        <v>63.54130817348913</v>
+      </c>
+      <c r="M21">
+        <v>75.9642363116708</v>
+      </c>
+      <c r="N21">
+        <v>63.50164015568177</v>
+      </c>
+      <c r="O21">
+        <v>76.38472963648732</v>
+      </c>
+      <c r="P21">
+        <v>293.5804940479272</v>
+      </c>
+      <c r="Q21">
+        <v>319.2993072723506</v>
+      </c>
+      <c r="R21">
+        <v>0.4197594044192522</v>
+      </c>
+      <c r="S21">
+        <v>-0.07498372737909419</v>
+      </c>
+      <c r="T21">
+        <v>-0.5329026139806712</v>
+      </c>
+      <c r="U21">
+        <v>120320</v>
+      </c>
+      <c r="V21">
+        <v>41654.69994555844</v>
+      </c>
+      <c r="W21">
+        <v>-1.545505673464971</v>
+      </c>
+      <c r="X21">
+        <v>3.929724999253302</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>51.81791743439876</v>
+      </c>
+      <c r="AA21">
+        <v>5.147909147367984</v>
+      </c>
+      <c r="AB21">
+        <v>0.02793777713315038</v>
+      </c>
+      <c r="AC21">
+        <v>1.648065116515907</v>
+      </c>
+      <c r="AD21">
+        <v>-0.1843509916054195</v>
+      </c>
+      <c r="AE21">
+        <v>0.05118210354544438</v>
+      </c>
+      <c r="AF21">
+        <v>-0.0006806288664233895</v>
+      </c>
+      <c r="AG21">
+        <v>0.2706380035808406</v>
+      </c>
+      <c r="AH21">
+        <v>-0.03595673462212445</v>
+      </c>
+      <c r="AI21">
+        <v>-0.034956640090783</v>
+      </c>
+      <c r="AJ21">
+        <v>0.2705176587913916</v>
+      </c>
+      <c r="AK21">
+        <v>-7.750000000070435</v>
+      </c>
+      <c r="AL21">
+        <v>-2.749999999999573</v>
+      </c>
+      <c r="AM21">
+        <v>6805.067926306486</v>
+      </c>
+      <c r="AN21">
+        <v>6813.132616614243</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0.3110430810298972</v>
+      </c>
+      <c r="AQ21">
+        <v>181.6347982373958</v>
+      </c>
+      <c r="AR21">
+        <v>197.4396748358069</v>
+      </c>
+      <c r="AS21">
+        <v>-336.3485909518053</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>2093.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50">
+      <c r="A22" s="1">
+        <v>5995</v>
+      </c>
+      <c r="B22">
+        <v>20846</v>
+      </c>
+      <c r="C22">
+        <v>4.707543229444679</v>
+      </c>
+      <c r="D22">
+        <v>2.2505620743351</v>
+      </c>
+      <c r="E22">
+        <v>25.80426966095989</v>
+      </c>
+      <c r="F22">
+        <v>407.2499802370378</v>
+      </c>
+      <c r="G22">
+        <v>445.6925458191433</v>
+      </c>
+      <c r="H22">
+        <v>422.4788408253339</v>
+      </c>
+      <c r="I22">
+        <v>425.8732716967861</v>
+      </c>
+      <c r="J22">
+        <v>79.34396492512012</v>
+      </c>
+      <c r="K22">
+        <v>78.32951014061675</v>
+      </c>
+      <c r="L22">
+        <v>63.53279390762164</v>
+      </c>
+      <c r="M22">
+        <v>75.95941735130626</v>
+      </c>
+      <c r="N22">
+        <v>63.49686625572104</v>
+      </c>
+      <c r="O22">
+        <v>76.38228546250561</v>
+      </c>
+      <c r="P22">
+        <v>293.5918065473783</v>
+      </c>
+      <c r="Q22">
+        <v>319.3116876208455</v>
+      </c>
+      <c r="R22">
+        <v>0.423026944638727</v>
+      </c>
+      <c r="S22">
+        <v>-0.08707214713785896</v>
+      </c>
+      <c r="T22">
+        <v>-0.5331580114606496</v>
+      </c>
+      <c r="U22">
+        <v>120320</v>
+      </c>
+      <c r="V22">
+        <v>41654.79993392061</v>
+      </c>
+      <c r="W22">
+        <v>-1.541528505773653</v>
+      </c>
+      <c r="X22">
+        <v>4.088946752843718</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>51.81792317034279</v>
+      </c>
+      <c r="AA22">
+        <v>5.147794610449127</v>
+      </c>
+      <c r="AB22">
+        <v>0.07543038936798857</v>
+      </c>
+      <c r="AC22">
+        <v>1.609325036079452</v>
+      </c>
+      <c r="AD22">
+        <v>-0.2068048128170714</v>
+      </c>
+      <c r="AE22">
+        <v>0.05152412995308969</v>
+      </c>
+      <c r="AF22">
+        <v>-0.0006871365164187221</v>
+      </c>
+      <c r="AG22">
+        <v>0.2726926645114129</v>
+      </c>
+      <c r="AH22">
+        <v>-0.03925297277626458</v>
+      </c>
+      <c r="AI22">
+        <v>-0.03490784890000535</v>
+      </c>
+      <c r="AJ22">
+        <v>0.272494778020872</v>
+      </c>
+      <c r="AK22">
+        <v>-7.750000000197893</v>
+      </c>
+      <c r="AL22">
+        <v>-2.749999999999418</v>
+      </c>
+      <c r="AM22">
+        <v>6805.148506058684</v>
+      </c>
+      <c r="AN22">
+        <v>6813.227741504025</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0.3108984418204289</v>
+      </c>
+      <c r="AQ22">
+        <v>181.5523069034055</v>
+      </c>
+      <c r="AR22">
+        <v>197.3532091686874</v>
+      </c>
+      <c r="AS22">
+        <v>-298.3132278726005</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>4</v>
+      </c>
+      <c r="AX22">
+        <v>2093.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50">
+      <c r="A23" s="1">
+        <v>5996</v>
+      </c>
+      <c r="B23">
+        <v>20847</v>
+      </c>
+      <c r="C23">
+        <v>4.733365410207784</v>
+      </c>
+      <c r="D23">
+        <v>2.250779825693216</v>
+      </c>
+      <c r="E23">
+        <v>25.16925586752751</v>
+      </c>
+      <c r="F23">
+        <v>407.0794881026486</v>
+      </c>
+      <c r="G23">
+        <v>445.7507707644968</v>
+      </c>
+      <c r="H23">
+        <v>422.4572845049782</v>
+      </c>
+      <c r="I23">
+        <v>425.8705638262314</v>
+      </c>
+      <c r="J23">
+        <v>79.34436861411564</v>
+      </c>
+      <c r="K23">
+        <v>78.32838387619465</v>
+      </c>
+      <c r="L23">
+        <v>63.52530044799545</v>
+      </c>
+      <c r="M23">
+        <v>75.95518130976494</v>
+      </c>
+      <c r="N23">
+        <v>63.4934351186003</v>
+      </c>
+      <c r="O23">
+        <v>76.38118107244587</v>
+      </c>
+      <c r="P23">
+        <v>293.6031143109367</v>
+      </c>
+      <c r="Q23">
+        <v>319.3240695867001</v>
+      </c>
+      <c r="R23">
+        <v>0.4249555421843097</v>
+      </c>
+      <c r="S23">
+        <v>-0.09536549230276865</v>
+      </c>
+      <c r="T23">
+        <v>-0.5339935612702609</v>
+      </c>
+      <c r="U23">
+        <v>120320</v>
+      </c>
+      <c r="V23">
+        <v>41654.89992228278</v>
+      </c>
+      <c r="W23">
+        <v>-1.534739946263403</v>
+      </c>
+      <c r="X23">
+        <v>4.245027088262862</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>51.81792886646188</v>
+      </c>
+      <c r="AA23">
+        <v>5.147680158093454</v>
+      </c>
+      <c r="AB23">
+        <v>0.09764408023252909</v>
+      </c>
+      <c r="AC23">
+        <v>1.584971373517887</v>
+      </c>
+      <c r="AD23">
+        <v>-0.2265013505458537</v>
+      </c>
+      <c r="AE23">
+        <v>0.0518340271602749</v>
+      </c>
+      <c r="AF23">
+        <v>-0.0004859447406909272</v>
+      </c>
+      <c r="AG23">
+        <v>0.2737693886285282</v>
+      </c>
+      <c r="AH23">
+        <v>-0.04246846790504838</v>
+      </c>
+      <c r="AI23">
+        <v>-0.0345642086126214</v>
+      </c>
+      <c r="AJ23">
+        <v>0.2734894684012565</v>
+      </c>
+      <c r="AK23">
+        <v>-7.750000000260822</v>
+      </c>
+      <c r="AL23">
+        <v>-2.749999999999373</v>
+      </c>
+      <c r="AM23">
+        <v>6805.331493269295</v>
+      </c>
+      <c r="AN23">
+        <v>6813.431215456142</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0.3107521349565501</v>
+      </c>
+      <c r="AQ23">
+        <v>181.4697363278481</v>
+      </c>
+      <c r="AR23">
+        <v>197.2649297581581</v>
+      </c>
+      <c r="AS23">
+        <v>-250.2330621752103</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>4</v>
+      </c>
+      <c r="AX23">
+        <v>2093.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50">
+      <c r="A24" s="1">
+        <v>5997</v>
+      </c>
+      <c r="B24">
+        <v>20848</v>
+      </c>
+      <c r="C24">
+        <v>4.74987558049346</v>
+      </c>
+      <c r="D24">
+        <v>2.250921538360386</v>
+      </c>
+      <c r="E24">
+        <v>25.1064966826481</v>
+      </c>
+      <c r="F24">
+        <v>406.9391471297645</v>
+      </c>
+      <c r="G24">
+        <v>445.879442894721</v>
+      </c>
+      <c r="H24">
+        <v>422.4536859658089</v>
+      </c>
+      <c r="I24">
+        <v>425.8592362625385</v>
+      </c>
+      <c r="J24">
+        <v>79.34442620312849</v>
+      </c>
+      <c r="K24">
+        <v>78.32821810019402</v>
+      </c>
+      <c r="L24">
+        <v>63.51909407305987</v>
+      </c>
+      <c r="M24">
+        <v>75.95165376933357</v>
+      </c>
+      <c r="N24">
+        <v>63.49181774592005</v>
+      </c>
+      <c r="O24">
+        <v>76.38147065827698</v>
+      </c>
+      <c r="P24">
+        <v>293.6144181761347</v>
+      </c>
+      <c r="Q24">
+        <v>319.3364551267805</v>
+      </c>
+      <c r="R24">
+        <v>0.4257316267898129</v>
+      </c>
+      <c r="S24">
+        <v>-0.09923812160753125</v>
+      </c>
+      <c r="T24">
+        <v>-0.5354506629068483</v>
+      </c>
+      <c r="U24">
+        <v>120320</v>
+      </c>
+      <c r="V24">
+        <v>41654.99991064495</v>
+      </c>
+      <c r="W24">
+        <v>-1.52776085813925</v>
+      </c>
+      <c r="X24">
+        <v>4.399100809565279</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>51.81793451449791</v>
+      </c>
+      <c r="AA24">
+        <v>5.147565809104389</v>
+      </c>
+      <c r="AB24">
+        <v>0.09414140970210753</v>
+      </c>
+      <c r="AC24">
+        <v>1.569924482393013</v>
+      </c>
+      <c r="AD24">
+        <v>-0.2413870385679086</v>
+      </c>
+      <c r="AE24">
+        <v>0.05216298365350239</v>
+      </c>
+      <c r="AF24">
+        <v>-0.0001999427578577326</v>
+      </c>
+      <c r="AG24">
+        <v>0.2743126841009538</v>
+      </c>
+      <c r="AH24">
+        <v>-0.04560523341319981</v>
+      </c>
+      <c r="AI24">
+        <v>-0.03411031304907387</v>
+      </c>
+      <c r="AJ24">
+        <v>0.2739659281884765</v>
+      </c>
+      <c r="AK24">
+        <v>-7.749999999970659</v>
+      </c>
+      <c r="AL24">
+        <v>-2.749999999999841</v>
+      </c>
+      <c r="AM24">
+        <v>6805.633818891319</v>
+      </c>
+      <c r="AN24">
+        <v>6813.741491097963</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0.310594425950775</v>
+      </c>
+      <c r="AQ24">
+        <v>181.3803634704045</v>
+      </c>
+      <c r="AR24">
+        <v>197.167075893604</v>
+      </c>
+      <c r="AS24">
+        <v>-193.9362813116243</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>2093.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50">
+      <c r="A25" s="1">
+        <v>5998</v>
+      </c>
+      <c r="B25">
+        <v>20849</v>
+      </c>
+      <c r="C25">
+        <v>4.759612683088073</v>
+      </c>
+      <c r="D25">
+        <v>2.250964710853363</v>
+      </c>
+      <c r="E25">
+        <v>25.58025137040256</v>
+      </c>
+      <c r="F25">
+        <v>406.8506369540547</v>
+      </c>
+      <c r="G25">
+        <v>446.0192753797564</v>
+      </c>
+      <c r="H25">
+        <v>422.4666797075415</v>
+      </c>
+      <c r="I25">
+        <v>425.8438101609019</v>
+      </c>
+      <c r="J25">
+        <v>79.34425366824556</v>
+      </c>
+      <c r="K25">
+        <v>78.32927732309287</v>
+      </c>
+      <c r="L25">
+        <v>63.5143723604394</v>
+      </c>
+      <c r="M25">
+        <v>75.94917142723787</v>
+      </c>
+      <c r="N25">
+        <v>63.49201994291565</v>
+      </c>
+      <c r="O25">
+        <v>76.38287989033763</v>
+      </c>
+      <c r="P25">
+        <v>293.6257195827168</v>
+      </c>
+      <c r="Q25">
+        <v>319.3488445510966</v>
+      </c>
+      <c r="R25">
+        <v>0.4253854473783975</v>
+      </c>
+      <c r="S25">
+        <v>-0.09889720463295469</v>
+      </c>
+      <c r="T25">
+        <v>-0.537328029010344</v>
+      </c>
+      <c r="U25">
+        <v>120320</v>
+      </c>
+      <c r="V25">
+        <v>41655.09990699909</v>
+      </c>
+      <c r="W25">
+        <v>-1.522866813734621</v>
+      </c>
+      <c r="X25">
+        <v>4.55177921298802</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>51.81794011547478</v>
+      </c>
+      <c r="AA25">
+        <v>5.147451562604657</v>
+      </c>
+      <c r="AB25">
+        <v>0.07042846334674754</v>
+      </c>
+      <c r="AC25">
+        <v>1.557888394018</v>
+      </c>
+      <c r="AD25">
+        <v>-0.2503837905965313</v>
+      </c>
+      <c r="AE25">
+        <v>0.05248733304471166</v>
+      </c>
+      <c r="AF25">
+        <v>1.685238821052815e-05</v>
+      </c>
+      <c r="AG25">
+        <v>0.2742463800129953</v>
+      </c>
+      <c r="AH25">
+        <v>-0.04868173919347916</v>
+      </c>
+      <c r="AI25">
+        <v>-0.03373776120759039</v>
+      </c>
+      <c r="AJ25">
+        <v>0.2738524571785911</v>
+      </c>
+      <c r="AK25">
+        <v>-7.749999999174988</v>
+      </c>
+      <c r="AL25">
+        <v>-2.750000000000621</v>
+      </c>
+      <c r="AM25">
+        <v>6806.065663182868</v>
+      </c>
+      <c r="AN25">
+        <v>6814.158560482305</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0.3104163989349474</v>
+      </c>
+      <c r="AQ25">
+        <v>181.2778134636847</v>
+      </c>
+      <c r="AR25">
+        <v>197.054142330541</v>
+      </c>
+      <c r="AS25">
+        <v>-131.3557252450244</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>2093.9</v>
       </c>
     </row>
   </sheetData>

--- a/reading flight data/short_period.xlsx
+++ b/reading flight data/short_period.xlsx
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX25"/>
+  <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,139 +675,139 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="1">
-        <v>5975</v>
+        <v>5970</v>
       </c>
       <c r="B2">
-        <v>20826</v>
+        <v>20821</v>
       </c>
       <c r="C2">
-        <v>3.527756829449954</v>
+        <v>3.51286623101834</v>
       </c>
       <c r="D2">
-        <v>2.250145283035336</v>
+        <v>2.250406770463041</v>
       </c>
       <c r="E2">
-        <v>84.17095996688037</v>
+        <v>89.26833796767859</v>
       </c>
       <c r="F2">
-        <v>408.0747764693992</v>
+        <v>408.1675018288938</v>
       </c>
       <c r="G2">
-        <v>448.5694764139914</v>
+        <v>448.0226338387275</v>
       </c>
       <c r="H2">
-        <v>422.4626592069886</v>
+        <v>422.4213227185797</v>
       </c>
       <c r="I2">
-        <v>425.9340761307061</v>
+        <v>425.9646311422447</v>
       </c>
       <c r="J2">
-        <v>79.34174744866658</v>
+        <v>79.34135756027125</v>
       </c>
       <c r="K2">
-        <v>78.32515714311435</v>
+        <v>78.3277950112558</v>
       </c>
       <c r="L2">
-        <v>63.58267987518866</v>
+        <v>63.57211614050705</v>
       </c>
       <c r="M2">
-        <v>75.98808448157347</v>
+        <v>75.98163602434489</v>
       </c>
       <c r="N2">
-        <v>63.55217522858614</v>
+        <v>63.54223088022606</v>
       </c>
       <c r="O2">
-        <v>76.41265150221993</v>
+        <v>76.40793583069573</v>
       </c>
       <c r="P2">
-        <v>293.3651921451608</v>
+        <v>293.3084986685253</v>
       </c>
       <c r="Q2">
-        <v>319.0630850902618</v>
+        <v>319.0008092728398</v>
       </c>
       <c r="R2">
-        <v>0.311788710186465</v>
+        <v>0.3102793519290006</v>
       </c>
       <c r="S2">
-        <v>0.6478623275251016</v>
+        <v>0.6868229211735667</v>
       </c>
       <c r="T2">
-        <v>-0.4890992430858298</v>
+        <v>-0.4871226023643125</v>
       </c>
       <c r="U2">
         <v>120320</v>
       </c>
       <c r="V2">
-        <v>41652.80006588872</v>
+        <v>41652.30009208186</v>
       </c>
       <c r="W2">
-        <v>-1.302098919433836</v>
+        <v>-1.151199515539682</v>
       </c>
       <c r="X2">
-        <v>1.607044271127901</v>
+        <v>1.626176929731002</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>51.81780398617077</v>
+        <v>51.81777288949653</v>
       </c>
       <c r="AA2">
-        <v>5.150089884871628</v>
+        <v>5.150664775876104</v>
       </c>
       <c r="AB2">
-        <v>-0.1738296485291461</v>
+        <v>-0.3213799044780711</v>
       </c>
       <c r="AC2">
-        <v>-0.0348919894511925</v>
+        <v>-0.04149973785311937</v>
       </c>
       <c r="AD2">
-        <v>-0.1582277764979267</v>
+        <v>-0.1265845806618371</v>
       </c>
       <c r="AE2">
-        <v>0.02625278721148649</v>
+        <v>0.02618768334570771</v>
       </c>
       <c r="AF2">
-        <v>-0.0004091108002046506</v>
+        <v>-0.000280003080978963</v>
       </c>
       <c r="AG2">
-        <v>-0.0004480936681966132</v>
+        <v>-0.004646021363300228</v>
       </c>
       <c r="AH2">
-        <v>-0.001864201390559902</v>
+        <v>-0.002155963757933664</v>
       </c>
       <c r="AI2">
-        <v>-0.02314605355483603</v>
+        <v>-0.02027122559130731</v>
       </c>
       <c r="AJ2">
-        <v>-0.0004003026552911457</v>
+        <v>-0.004568468710339721</v>
       </c>
       <c r="AK2">
-        <v>-7.750001007877583</v>
+        <v>-7.749991677061969</v>
       </c>
       <c r="AL2">
-        <v>-2.749999999999655</v>
+        <v>-2.749999999999646</v>
       </c>
       <c r="AM2">
-        <v>6814.077397642616</v>
+        <v>6816.029463508403</v>
       </c>
       <c r="AN2">
-        <v>6822.100342523137</v>
+        <v>6824.159294385819</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.3119151049881299</v>
+        <v>0.3118097472024909</v>
       </c>
       <c r="AQ2">
-        <v>182.1067437898487</v>
+        <v>182.0497517245329</v>
       </c>
       <c r="AR2">
-        <v>198.003340515381</v>
+        <v>197.9380218950868</v>
       </c>
       <c r="AS2">
-        <v>-219.4291901920966</v>
+        <v>-211.3075065312753</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -822,144 +822,144 @@
         <v>4</v>
       </c>
       <c r="AX2">
-        <v>2091.6</v>
+        <v>2091.1</v>
       </c>
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="1">
-        <v>5976</v>
+        <v>5971</v>
       </c>
       <c r="B3">
-        <v>20827</v>
+        <v>20822</v>
       </c>
       <c r="C3">
-        <v>3.523217804186687</v>
+        <v>3.515843660779645</v>
       </c>
       <c r="D3">
-        <v>2.250048683570752</v>
+        <v>2.250522682804677</v>
       </c>
       <c r="E3">
-        <v>79.94367163388551</v>
+        <v>89.23319009822642</v>
       </c>
       <c r="F3">
-        <v>408.0156949812375</v>
+        <v>408.2461196348317</v>
       </c>
       <c r="G3">
-        <v>448.5716895355825</v>
+        <v>448.1413714588116</v>
       </c>
       <c r="H3">
-        <v>422.4787214858884</v>
+        <v>422.4406521160896</v>
       </c>
       <c r="I3">
-        <v>425.9192356682809</v>
+        <v>425.9532751966009</v>
       </c>
       <c r="J3">
-        <v>79.34177370804603</v>
+        <v>79.34129146287792</v>
       </c>
       <c r="K3">
-        <v>78.32547460322441</v>
+        <v>78.32583029767252</v>
       </c>
       <c r="L3">
-        <v>63.58370701130657</v>
+        <v>63.57529260763911</v>
       </c>
       <c r="M3">
-        <v>75.98926425501863</v>
+        <v>75.98355169509389</v>
       </c>
       <c r="N3">
-        <v>63.55214169959188</v>
+        <v>63.54401267184102</v>
       </c>
       <c r="O3">
-        <v>76.41171454100787</v>
+        <v>76.40844831109607</v>
       </c>
       <c r="P3">
-        <v>293.3765259144659</v>
+        <v>293.3198388385151</v>
       </c>
       <c r="Q3">
-        <v>319.0755454149711</v>
+        <v>319.0132576442692</v>
       </c>
       <c r="R3">
-        <v>0.3121706079395886</v>
+        <v>0.3112604359735778</v>
       </c>
       <c r="S3">
-        <v>0.6058986914353869</v>
+        <v>0.6873083623911654</v>
       </c>
       <c r="T3">
-        <v>-0.4886899812779331</v>
+        <v>-0.4889196397654784</v>
       </c>
       <c r="U3">
         <v>120320</v>
       </c>
       <c r="V3">
-        <v>41652.90006065009</v>
+        <v>41652.40008684323</v>
       </c>
       <c r="W3">
-        <v>-1.315639023373822</v>
+        <v>-1.185168939785619</v>
       </c>
       <c r="X3">
-        <v>1.605542941601359</v>
+        <v>1.622676813924382</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>51.81781016316509</v>
+        <v>51.81777911978415</v>
       </c>
       <c r="AA3">
-        <v>5.149974942229786</v>
+        <v>5.150549789967595</v>
       </c>
       <c r="AB3">
-        <v>-0.1108938591634253</v>
+        <v>-0.3534978401783016</v>
       </c>
       <c r="AC3">
-        <v>-0.0006602438347840195</v>
+        <v>-0.04059365111554258</v>
       </c>
       <c r="AD3">
-        <v>-0.1741200586872941</v>
+        <v>-0.1316839459785311</v>
       </c>
       <c r="AE3">
-        <v>0.02618665559999275</v>
+        <v>0.0263441549681822</v>
       </c>
       <c r="AF3">
-        <v>-0.0008181900575273413</v>
+        <v>2.899477750526423e-05</v>
       </c>
       <c r="AG3">
-        <v>-0.0001998260779169374</v>
+        <v>-0.002900231464734032</v>
       </c>
       <c r="AH3">
-        <v>-0.001905974879328848</v>
+        <v>-0.001990161320607934</v>
       </c>
       <c r="AI3">
-        <v>-0.02376835796489632</v>
+        <v>-0.02062556045443844</v>
       </c>
       <c r="AJ3">
-        <v>-0.0001667746118794894</v>
+        <v>-0.002851596085730442</v>
       </c>
       <c r="AK3">
-        <v>-7.750000026079681</v>
+        <v>-7.749991346970943</v>
       </c>
       <c r="AL3">
-        <v>-2.749999999999654</v>
+        <v>-2.749999999999658</v>
       </c>
       <c r="AM3">
-        <v>6813.658636025646</v>
+        <v>6815.687005562379</v>
       </c>
       <c r="AN3">
-        <v>6821.700202737739</v>
+        <v>6823.775306376492</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.3119192700222314</v>
+        <v>0.3118250251422919</v>
       </c>
       <c r="AQ3">
-        <v>182.1150826348822</v>
+        <v>182.0530817162669</v>
       </c>
       <c r="AR3">
-        <v>198.0071358039581</v>
+        <v>197.9471010194771</v>
       </c>
       <c r="AS3">
-        <v>-224.9032610535915</v>
+        <v>-210.169445019334</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -974,144 +974,144 @@
         <v>4</v>
       </c>
       <c r="AX3">
-        <v>2091.7</v>
+        <v>2091.2</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="1">
-        <v>5977</v>
+        <v>5972</v>
       </c>
       <c r="B4">
-        <v>20828</v>
+        <v>20823</v>
       </c>
       <c r="C4">
-        <v>3.517282763046361</v>
+        <v>3.520956777932076</v>
       </c>
       <c r="D4">
-        <v>2.250074075306396</v>
+        <v>2.250560797131638</v>
       </c>
       <c r="E4">
-        <v>74.16969406205222</v>
+        <v>89.00666458851002</v>
       </c>
       <c r="F4">
-        <v>407.9847766261686</v>
+        <v>408.264740873957</v>
       </c>
       <c r="G4">
-        <v>448.5363824485759</v>
+        <v>448.2826634937741</v>
       </c>
       <c r="H4">
-        <v>422.5014738421434</v>
+        <v>422.4520611031136</v>
       </c>
       <c r="I4">
-        <v>425.8988191654914</v>
+        <v>425.9449543422503</v>
       </c>
       <c r="J4">
-        <v>79.34166916171756</v>
+        <v>79.34132925430691</v>
       </c>
       <c r="K4">
-        <v>78.32571356836083</v>
+        <v>78.32489431890387</v>
       </c>
       <c r="L4">
-        <v>63.58489366602407</v>
+        <v>63.57809988775445</v>
       </c>
       <c r="M4">
-        <v>75.99057328938592</v>
+        <v>75.98494652555608</v>
       </c>
       <c r="N4">
-        <v>63.55067771722495</v>
+        <v>63.54642544297284</v>
       </c>
       <c r="O4">
-        <v>76.40939784012855</v>
+        <v>76.40953287983265</v>
       </c>
       <c r="P4">
-        <v>293.3878588249277</v>
+        <v>293.3311795257616</v>
       </c>
       <c r="Q4">
-        <v>319.088004758928</v>
+        <v>319.0257099404774</v>
       </c>
       <c r="R4">
-        <v>0.3124323505720582</v>
+        <v>0.3116014558099546</v>
       </c>
       <c r="S4">
-        <v>0.5435221106056316</v>
+        <v>0.6867671516555029</v>
       </c>
       <c r="T4">
-        <v>-0.4887404655535004</v>
+        <v>-0.4900022723391583</v>
       </c>
       <c r="U4">
         <v>120320</v>
       </c>
       <c r="V4">
-        <v>41653.00005541279</v>
+        <v>41652.50008160461</v>
       </c>
       <c r="W4">
-        <v>-1.324512777100506</v>
+        <v>-1.220683935274582</v>
       </c>
       <c r="X4">
-        <v>1.60949433146024</v>
+        <v>1.619064550055157</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>51.81781631221506</v>
+        <v>51.81778534692718</v>
       </c>
       <c r="AA4">
-        <v>5.149860023792722</v>
+        <v>5.150434805073979</v>
       </c>
       <c r="AB4">
-        <v>-0.07370057066360139</v>
+        <v>-0.3544239625272012</v>
       </c>
       <c r="AC4">
-        <v>0.07086262809572476</v>
+        <v>-0.04184107088847046</v>
       </c>
       <c r="AD4">
-        <v>-0.1889729426963955</v>
+        <v>-0.1345066211410609</v>
       </c>
       <c r="AE4">
-        <v>0.02632450693753494</v>
+        <v>0.02646701470857117</v>
       </c>
       <c r="AF4">
-        <v>-0.001047216948462042</v>
+        <v>0.0002652122007180703</v>
       </c>
       <c r="AG4">
-        <v>0.002314184829838296</v>
+        <v>-0.001025927838145986</v>
       </c>
       <c r="AH4">
-        <v>-0.001905996265708547</v>
+        <v>-0.001856573819222005</v>
       </c>
       <c r="AI4">
-        <v>-0.02419306297568091</v>
+        <v>-0.02107542616950842</v>
       </c>
       <c r="AJ4">
-        <v>0.002312308450229845</v>
+        <v>-0.0009909274351567179</v>
       </c>
       <c r="AK4">
-        <v>-7.749999675210126</v>
+        <v>-7.74999702402805</v>
       </c>
       <c r="AL4">
-        <v>-2.749999999999629</v>
+        <v>-2.749999999999642</v>
       </c>
       <c r="AM4">
-        <v>6813.261901833818</v>
+        <v>6815.320437991642</v>
       </c>
       <c r="AN4">
-        <v>6821.337726114444</v>
+        <v>6823.372874093658</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.3119117622054263</v>
+        <v>0.3118501340695095</v>
       </c>
       <c r="AQ4">
-        <v>182.1173886431504</v>
+        <v>182.0639154377959</v>
       </c>
       <c r="AR4">
-        <v>198.0036656777643</v>
+        <v>197.9619769119876</v>
       </c>
       <c r="AS4">
-        <v>-230.2020011774273</v>
+        <v>-210.0686758338136</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1126,144 +1126,144 @@
         <v>4</v>
       </c>
       <c r="AX4">
-        <v>2091.8</v>
+        <v>2091.3</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="1">
-        <v>5978</v>
+        <v>5973</v>
       </c>
       <c r="B5">
-        <v>20829</v>
+        <v>20824</v>
       </c>
       <c r="C5">
-        <v>3.513357070070647</v>
+        <v>3.526096436251613</v>
       </c>
       <c r="D5">
-        <v>2.250213387977409</v>
+        <v>2.250483265418923</v>
       </c>
       <c r="E5">
-        <v>67.18433382985476</v>
+        <v>88.34190220467568</v>
       </c>
       <c r="F5">
-        <v>407.9790651832996</v>
+        <v>408.2264782496965</v>
       </c>
       <c r="G5">
-        <v>448.4804755172232</v>
+        <v>448.4176389938557</v>
       </c>
       <c r="H5">
-        <v>422.5230001035997</v>
+        <v>422.4552530108</v>
       </c>
       <c r="I5">
-        <v>425.8818408596601</v>
+        <v>425.9419189040399</v>
       </c>
       <c r="J5">
-        <v>79.34145542012952</v>
+        <v>79.34145700247355</v>
       </c>
       <c r="K5">
-        <v>78.32577194177918</v>
+        <v>78.32469853849649</v>
       </c>
       <c r="L5">
-        <v>63.5862042732157</v>
+        <v>63.58020591178398</v>
       </c>
       <c r="M5">
-        <v>75.99194455494228</v>
+        <v>75.98603237573643</v>
       </c>
       <c r="N5">
-        <v>63.54780229626221</v>
+        <v>63.54892664747707</v>
       </c>
       <c r="O5">
-        <v>76.40616456543849</v>
+        <v>76.41098650889899</v>
       </c>
       <c r="P5">
-        <v>293.3991915767384</v>
+        <v>293.3425191501574</v>
       </c>
       <c r="Q5">
-        <v>319.1004625499146</v>
+        <v>319.038165986005</v>
       </c>
       <c r="R5">
-        <v>0.3122809427149192</v>
+        <v>0.3115977137266908</v>
       </c>
       <c r="S5">
-        <v>0.4632330811981735</v>
+        <v>0.682939615406149</v>
       </c>
       <c r="T5">
-        <v>-0.4893681640727435</v>
+        <v>-0.4901881261362753</v>
       </c>
       <c r="U5">
         <v>120320</v>
       </c>
       <c r="V5">
-        <v>41653.10005257407</v>
+        <v>41652.60007636597</v>
       </c>
       <c r="W5">
-        <v>-1.331542807941602</v>
+        <v>-1.254010225008344</v>
       </c>
       <c r="X5">
-        <v>1.623271271146769</v>
+        <v>1.615105155738468</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>51.8178224338966</v>
+        <v>51.81779157049605</v>
       </c>
       <c r="AA5">
-        <v>5.149745129349991</v>
+        <v>5.150319822827296</v>
       </c>
       <c r="AB5">
-        <v>-0.06420128929268548</v>
+        <v>-0.3165259577876375</v>
       </c>
       <c r="AC5">
-        <v>0.1905077849633189</v>
+        <v>-0.0448504265586591</v>
       </c>
       <c r="AD5">
-        <v>-0.1981736593742917</v>
+        <v>-0.1380656412867644</v>
       </c>
       <c r="AE5">
-        <v>0.02676904893161649</v>
+        <v>0.02648613317359476</v>
       </c>
       <c r="AF5">
-        <v>-0.001033796220895462</v>
+        <v>0.0002706535454793764</v>
       </c>
       <c r="AG5">
-        <v>0.008413286408302443</v>
+        <v>6.559494979873898e-05</v>
       </c>
       <c r="AH5">
-        <v>-0.001881270330264672</v>
+        <v>-0.001796148193823573</v>
       </c>
       <c r="AI5">
-        <v>-0.02444046550233165</v>
+        <v>-0.02168289866241388</v>
       </c>
       <c r="AJ5">
-        <v>0.0083619460371934</v>
+        <v>0.0001024211225847185</v>
       </c>
       <c r="AK5">
-        <v>-7.749999768407235</v>
+        <v>-7.750001180318245</v>
       </c>
       <c r="AL5">
         <v>-2.749999999999623</v>
       </c>
       <c r="AM5">
-        <v>6812.882077129657</v>
+        <v>6814.925186195315</v>
       </c>
       <c r="AN5">
-        <v>6821.004403741083</v>
+        <v>6822.953982951622</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.3118946953837345</v>
+        <v>0.311877482373923</v>
       </c>
       <c r="AQ5">
-        <v>182.1138430606312</v>
+        <v>182.0788144436434</v>
       </c>
       <c r="AR5">
-        <v>197.9949104274482</v>
+        <v>197.9784936762605</v>
       </c>
       <c r="AS5">
-        <v>-234.5712014865054</v>
+        <v>-211.5266364772971</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -1278,144 +1278,144 @@
         <v>4</v>
       </c>
       <c r="AX5">
-        <v>2091.9</v>
+        <v>2091.4</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="1">
-        <v>5979</v>
+        <v>5974</v>
       </c>
       <c r="B6">
-        <v>20830</v>
+        <v>20825</v>
       </c>
       <c r="C6">
-        <v>3.515702234954087</v>
+        <v>3.528832249025007</v>
       </c>
       <c r="D6">
-        <v>2.250412872101082</v>
+        <v>2.25031811995113</v>
       </c>
       <c r="E6">
-        <v>59.59499357390286</v>
+        <v>86.86929351396209</v>
       </c>
       <c r="F6">
-        <v>407.9926780152949</v>
+        <v>408.1530436524395</v>
       </c>
       <c r="G6">
-        <v>448.4207042295664</v>
+        <v>448.5182768314393</v>
       </c>
       <c r="H6">
-        <v>422.5358120601742</v>
+        <v>422.4561674241233</v>
       </c>
       <c r="I6">
-        <v>425.8774459610557</v>
+        <v>425.9404049748771</v>
       </c>
       <c r="J6">
-        <v>79.34121292073445</v>
+        <v>79.34162052171399</v>
       </c>
       <c r="K6">
-        <v>78.32567531501276</v>
+        <v>78.32486311694451</v>
       </c>
       <c r="L6">
-        <v>63.58748370420383</v>
+        <v>63.58163056687974</v>
       </c>
       <c r="M6">
-        <v>75.99324900384043</v>
+        <v>75.98703040544146</v>
       </c>
       <c r="N6">
-        <v>63.54382235885245</v>
+        <v>63.55099031103709</v>
       </c>
       <c r="O6">
-        <v>76.40275684478222</v>
+        <v>76.41224925956278</v>
       </c>
       <c r="P6">
-        <v>293.4105247066832</v>
+        <v>293.3538567347034</v>
       </c>
       <c r="Q6">
-        <v>319.1129186805877</v>
+        <v>319.0506248270281</v>
       </c>
       <c r="R6">
-        <v>0.3117810329578377</v>
+        <v>0.3115841630833076</v>
       </c>
       <c r="S6">
-        <v>0.3723240151247669</v>
+        <v>0.6717965887923616</v>
       </c>
       <c r="T6">
-        <v>-0.4906440528057783</v>
+        <v>-0.4897334326399335</v>
       </c>
       <c r="U6">
         <v>120320</v>
       </c>
       <c r="V6">
-        <v>41653.20004973537</v>
+        <v>41652.70007112734</v>
       </c>
       <c r="W6">
-        <v>-1.339165171993864</v>
+        <v>-1.281717928176948</v>
       </c>
       <c r="X6">
-        <v>1.651950048560611</v>
+        <v>1.610846621815418</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>51.81782853391114</v>
+        <v>51.81779778602883</v>
       </c>
       <c r="AA6">
-        <v>5.149630254155539</v>
+        <v>5.150204847325667</v>
       </c>
       <c r="AB6">
-        <v>-0.07523521788042059</v>
+        <v>-0.2494428641901209</v>
       </c>
       <c r="AC6">
-        <v>0.3618011860794038</v>
+        <v>-0.04546322751760202</v>
       </c>
       <c r="AD6">
-        <v>-0.1990071736646635</v>
+        <v>-0.1455813737096026</v>
       </c>
       <c r="AE6">
-        <v>0.0275692705674364</v>
+        <v>0.02639240687713412</v>
       </c>
       <c r="AF6">
-        <v>-0.0008293730938887013</v>
+        <v>1.341306442485469e-05</v>
       </c>
       <c r="AG6">
-        <v>0.01887573587927225</v>
+        <v>6.281967582675157e-05</v>
       </c>
       <c r="AH6">
-        <v>-0.001904496350237977</v>
+        <v>-0.00181084902930019</v>
       </c>
       <c r="AI6">
-        <v>-0.02461935138835389</v>
+        <v>-0.02240865755932951</v>
       </c>
       <c r="AJ6">
-        <v>0.01877281612371182</v>
+        <v>0.0001082897515884106</v>
       </c>
       <c r="AK6">
-        <v>-7.74999995079079</v>
+        <v>-7.750001979991644</v>
       </c>
       <c r="AL6">
-        <v>-2.749999999999646</v>
+        <v>-2.749999999999631</v>
       </c>
       <c r="AM6">
-        <v>6812.496201120909</v>
+        <v>6814.505964271711</v>
       </c>
       <c r="AN6">
-        <v>6820.666743388778</v>
+        <v>6822.524973561793</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.3118756159859171</v>
+        <v>0.3119004210424032</v>
       </c>
       <c r="AQ6">
-        <v>182.1079562145667</v>
+        <v>182.093980105307</v>
       </c>
       <c r="AR6">
-        <v>197.9862432205034</v>
+        <v>197.993125263721</v>
       </c>
       <c r="AS6">
-        <v>-237.9106566505643</v>
+        <v>-214.7323618436964</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -1430,144 +1430,144 @@
         <v>4</v>
       </c>
       <c r="AX6">
-        <v>2092</v>
+        <v>2091.5</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="1">
-        <v>5980</v>
+        <v>5975</v>
       </c>
       <c r="B7">
-        <v>20831</v>
+        <v>20826</v>
       </c>
       <c r="C7">
-        <v>3.528703363067127</v>
+        <v>3.527756829449954</v>
       </c>
       <c r="D7">
-        <v>2.25059971316775</v>
+        <v>2.250145283035336</v>
       </c>
       <c r="E7">
-        <v>52.10765948758721</v>
+        <v>84.17095996688037</v>
       </c>
       <c r="F7">
-        <v>408.0216544530243</v>
+        <v>408.0747764693992</v>
       </c>
       <c r="G7">
-        <v>448.3657659262699</v>
+        <v>448.5694764139914</v>
       </c>
       <c r="H7">
-        <v>422.5381857556893</v>
+        <v>422.4626592069886</v>
       </c>
       <c r="I7">
-        <v>425.8874789731333</v>
+        <v>425.9340761307061</v>
       </c>
       <c r="J7">
-        <v>79.3410735527216</v>
+        <v>79.34174744866658</v>
       </c>
       <c r="K7">
-        <v>78.32559429853914</v>
+        <v>78.32515714311435</v>
       </c>
       <c r="L7">
-        <v>63.58857780001325</v>
+        <v>63.58267987518866</v>
       </c>
       <c r="M7">
-        <v>75.99434803346227</v>
+        <v>75.98808448157347</v>
       </c>
       <c r="N7">
-        <v>63.53919380734054</v>
+        <v>63.55217522858614</v>
       </c>
       <c r="O7">
-        <v>76.39978332173406</v>
+        <v>76.41265150221993</v>
       </c>
       <c r="P7">
-        <v>293.4218586415292</v>
+        <v>293.3651921451608</v>
       </c>
       <c r="Q7">
-        <v>319.1253732851967</v>
+        <v>319.0630850902618</v>
       </c>
       <c r="R7">
-        <v>0.31155843132962</v>
+        <v>0.311788710186465</v>
       </c>
       <c r="S7">
-        <v>0.2805419556360809</v>
+        <v>0.6478623275251016</v>
       </c>
       <c r="T7">
-        <v>-0.4925903480110223</v>
+        <v>-0.4890992430858298</v>
       </c>
       <c r="U7">
         <v>120320</v>
       </c>
       <c r="V7">
-        <v>41653.30004689665</v>
+        <v>41652.80006588872</v>
       </c>
       <c r="W7">
-        <v>-1.348694315907259</v>
+        <v>-1.302098919433836</v>
       </c>
       <c r="X7">
-        <v>1.700393278941788</v>
+        <v>1.607044271127901</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>51.81783462029731</v>
+        <v>51.81780398617077</v>
       </c>
       <c r="AA7">
-        <v>5.149515391267527</v>
+        <v>5.150089884871628</v>
       </c>
       <c r="AB7">
-        <v>-0.09403969519412882</v>
+        <v>-0.1738296485291461</v>
       </c>
       <c r="AC7">
-        <v>0.5780137703072906</v>
+        <v>-0.0348919894511925</v>
       </c>
       <c r="AD7">
-        <v>-0.1914416782149373</v>
+        <v>-0.1582277764979267</v>
       </c>
       <c r="AE7">
-        <v>0.0287095590715666</v>
+        <v>0.02625278721148649</v>
       </c>
       <c r="AF7">
-        <v>-0.0005213824930486706</v>
+        <v>-0.0004091108002046506</v>
       </c>
       <c r="AG7">
-        <v>0.03367562526675957</v>
+        <v>-0.0004480936681966132</v>
       </c>
       <c r="AH7">
-        <v>-0.002091809942548395</v>
+        <v>-0.001864201390559902</v>
       </c>
       <c r="AI7">
-        <v>-0.02483448006275144</v>
+        <v>-0.02314605355483603</v>
       </c>
       <c r="AJ7">
-        <v>0.03353439449707483</v>
+        <v>-0.0004003026552911457</v>
       </c>
       <c r="AK7">
-        <v>-7.750000043014141</v>
+        <v>-7.750001007877583</v>
       </c>
       <c r="AL7">
-        <v>-2.749999999999658</v>
+        <v>-2.749999999999655</v>
       </c>
       <c r="AM7">
-        <v>6812.073625213539</v>
+        <v>6814.077397642616</v>
       </c>
       <c r="AN7">
-        <v>6820.279361083215</v>
+        <v>6822.100342523137</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.311865324557282</v>
+        <v>0.3119151049881299</v>
       </c>
       <c r="AQ7">
-        <v>182.1055977378694</v>
+        <v>182.1067437898487</v>
       </c>
       <c r="AR7">
-        <v>197.9838728611807</v>
+        <v>198.003340515381</v>
       </c>
       <c r="AS7">
-        <v>-240.981493803309</v>
+        <v>-219.4291901920966</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -1582,144 +1582,144 @@
         <v>4</v>
       </c>
       <c r="AX7">
-        <v>2092.1</v>
+        <v>2091.6</v>
       </c>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="1">
-        <v>5981</v>
+        <v>5976</v>
       </c>
       <c r="B8">
-        <v>20832</v>
+        <v>20827</v>
       </c>
       <c r="C8">
-        <v>3.555830197106339</v>
+        <v>3.523217804186687</v>
       </c>
       <c r="D8">
-        <v>2.250716034080121</v>
+        <v>2.250048683570752</v>
       </c>
       <c r="E8">
-        <v>45.35368825962827</v>
+        <v>79.94367163388551</v>
       </c>
       <c r="F8">
-        <v>408.0613020699468</v>
+        <v>408.0156949812375</v>
       </c>
       <c r="G8">
-        <v>448.3091822788161</v>
+        <v>448.5716895355825</v>
       </c>
       <c r="H8">
-        <v>422.5351122615363</v>
+        <v>422.4787214858884</v>
       </c>
       <c r="I8">
-        <v>425.9042346721888</v>
+        <v>425.9192356682809</v>
       </c>
       <c r="J8">
-        <v>79.34117650510856</v>
+        <v>79.34177370804603</v>
       </c>
       <c r="K8">
-        <v>78.32566424759443</v>
+        <v>78.32547460322441</v>
       </c>
       <c r="L8">
-        <v>63.58941030000624</v>
+        <v>63.58370701130657</v>
       </c>
       <c r="M8">
-        <v>75.99517276776052</v>
+        <v>75.98926425501863</v>
       </c>
       <c r="N8">
-        <v>63.53429746036882</v>
+        <v>63.55214169959188</v>
       </c>
       <c r="O8">
-        <v>76.39741215623859</v>
+        <v>76.41171454100787</v>
       </c>
       <c r="P8">
-        <v>293.4331936776978</v>
+        <v>293.3765259144659</v>
       </c>
       <c r="Q8">
-        <v>319.1378263180378</v>
+        <v>319.0755454149711</v>
       </c>
       <c r="R8">
-        <v>0.3126645960549898</v>
+        <v>0.3121706079395886</v>
       </c>
       <c r="S8">
-        <v>0.1968736065297137</v>
+        <v>0.6058986914353869</v>
       </c>
       <c r="T8">
-        <v>-0.495217267373477</v>
+        <v>-0.4886899812779331</v>
       </c>
       <c r="U8">
         <v>120320</v>
       </c>
       <c r="V8">
-        <v>41653.40004405793</v>
+        <v>41652.90006065009</v>
       </c>
       <c r="W8">
-        <v>-1.359983473751673</v>
+        <v>-1.315639023373822</v>
       </c>
       <c r="X8">
-        <v>1.772214979226027</v>
+        <v>1.605542941601359</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>51.81784069992486</v>
+        <v>51.81781016316509</v>
       </c>
       <c r="AA8">
-        <v>5.149400534561835</v>
+        <v>5.149974942229786</v>
       </c>
       <c r="AB8">
-        <v>-0.1064262948451893</v>
+        <v>-0.1108938591634253</v>
       </c>
       <c r="AC8">
-        <v>0.8228655082507226</v>
+        <v>-0.0006602438347840195</v>
       </c>
       <c r="AD8">
-        <v>-0.1771839375040454</v>
+        <v>-0.1741200586872941</v>
       </c>
       <c r="AE8">
-        <v>0.03011567019371718</v>
+        <v>0.02618665559999275</v>
       </c>
       <c r="AF8">
-        <v>-0.0001633773503747431</v>
+        <v>-0.0008181900575273413</v>
       </c>
       <c r="AG8">
-        <v>0.05191221270555266</v>
+        <v>-0.0001998260779169374</v>
       </c>
       <c r="AH8">
-        <v>-0.002575335799235449</v>
+        <v>-0.001905974879328848</v>
       </c>
       <c r="AI8">
-        <v>-0.0251107127764388</v>
+        <v>-0.02376835796489632</v>
       </c>
       <c r="AJ8">
-        <v>0.05175836772780094</v>
+        <v>-0.0001667746118794894</v>
       </c>
       <c r="AK8">
-        <v>-7.75000004413988</v>
+        <v>-7.750000026079681</v>
       </c>
       <c r="AL8">
-        <v>-2.749999999999642</v>
+        <v>-2.749999999999654</v>
       </c>
       <c r="AM8">
-        <v>6811.589350931804</v>
+        <v>6813.658636025646</v>
       </c>
       <c r="AN8">
-        <v>6819.805336159759</v>
+        <v>6821.700202737739</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.3118706622104871</v>
+        <v>0.3119192700222314</v>
       </c>
       <c r="AQ8">
-        <v>182.1109090250916</v>
+        <v>182.1150826348822</v>
       </c>
       <c r="AR8">
-        <v>197.9899849476699</v>
+        <v>198.0071358039581</v>
       </c>
       <c r="AS8">
-        <v>-245.2049460856153</v>
+        <v>-224.9032610535915</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -1734,144 +1734,144 @@
         <v>4</v>
       </c>
       <c r="AX8">
-        <v>2092.2</v>
+        <v>2091.7</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="1">
-        <v>5982</v>
+        <v>5977</v>
       </c>
       <c r="B9">
-        <v>20833</v>
+        <v>20828</v>
       </c>
       <c r="C9">
-        <v>3.598754234670888</v>
+        <v>3.517282763046361</v>
       </c>
       <c r="D9">
-        <v>2.250737933477879</v>
+        <v>2.250074075306396</v>
       </c>
       <c r="E9">
-        <v>39.7729694060559</v>
+        <v>74.16969406205222</v>
       </c>
       <c r="F9">
-        <v>408.1014650021791</v>
+        <v>407.9847766261686</v>
       </c>
       <c r="G9">
-        <v>448.2314104765383</v>
+        <v>448.5363824485759</v>
       </c>
       <c r="H9">
-        <v>422.5336732176117</v>
+        <v>422.5014738421434</v>
       </c>
       <c r="I9">
-        <v>425.9162729947194</v>
+        <v>425.8988191654914</v>
       </c>
       <c r="J9">
-        <v>79.34159345867116</v>
+        <v>79.34166916171756</v>
       </c>
       <c r="K9">
-        <v>78.32586541006253</v>
+        <v>78.32571356836083</v>
       </c>
       <c r="L9">
-        <v>63.59000594506698</v>
+        <v>63.58489366602407</v>
       </c>
       <c r="M9">
-        <v>75.99575351640459</v>
+        <v>75.99057328938592</v>
       </c>
       <c r="N9">
-        <v>63.52938100725046</v>
+        <v>63.55067771722495</v>
       </c>
       <c r="O9">
-        <v>76.39541548471942</v>
+        <v>76.40939784012855</v>
       </c>
       <c r="P9">
-        <v>293.4445298295034</v>
+        <v>293.3878588249277</v>
       </c>
       <c r="Q9">
-        <v>319.150277190551</v>
+        <v>319.088004758928</v>
       </c>
       <c r="R9">
-        <v>0.3161005790751183</v>
+        <v>0.3124323505720582</v>
       </c>
       <c r="S9">
-        <v>0.1271295873574101</v>
+        <v>0.5435221106056316</v>
       </c>
       <c r="T9">
-        <v>-0.4986518350522783</v>
+        <v>-0.4887404655535004</v>
       </c>
       <c r="U9">
         <v>120320</v>
       </c>
       <c r="V9">
-        <v>41653.50004121922</v>
+        <v>41653.00005541279</v>
       </c>
       <c r="W9">
-        <v>-1.37167173317914</v>
+        <v>-1.324512777100506</v>
       </c>
       <c r="X9">
-        <v>1.869041648701965</v>
+        <v>1.60949433146024</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>51.81784677574164</v>
+        <v>51.81781631221506</v>
       </c>
       <c r="AA9">
-        <v>5.149285681048999</v>
+        <v>5.149860023792722</v>
       </c>
       <c r="AB9">
-        <v>-0.1035075878148336</v>
+        <v>-0.07370057066360139</v>
       </c>
       <c r="AC9">
-        <v>1.075063047923051</v>
+        <v>0.07086262809572476</v>
       </c>
       <c r="AD9">
-        <v>-0.1583534952364042</v>
+        <v>-0.1889729426963955</v>
       </c>
       <c r="AE9">
-        <v>0.03168578980738818</v>
+        <v>0.02632450693753494</v>
       </c>
       <c r="AF9">
-        <v>0.0002168458412892053</v>
+        <v>-0.001047216948462042</v>
       </c>
       <c r="AG9">
-        <v>0.07210570385209839</v>
+        <v>0.002314184829838296</v>
       </c>
       <c r="AH9">
-        <v>-0.003465681030740723</v>
+        <v>-0.001905996265708547</v>
       </c>
       <c r="AI9">
-        <v>-0.02541301438619037</v>
+        <v>-0.02419306297568091</v>
       </c>
       <c r="AJ9">
-        <v>0.07196735349371072</v>
+        <v>0.002312308450229845</v>
       </c>
       <c r="AK9">
-        <v>-7.750000014366842</v>
+        <v>-7.749999675210126</v>
       </c>
       <c r="AL9">
-        <v>-2.749999999999623</v>
+        <v>-2.749999999999629</v>
       </c>
       <c r="AM9">
-        <v>6811.034256683792</v>
+        <v>6813.261901833818</v>
       </c>
       <c r="AN9">
-        <v>6819.231920923661</v>
+        <v>6821.337726114444</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.311887484970122</v>
+        <v>0.3119117622054263</v>
       </c>
       <c r="AQ9">
-        <v>182.1220307608606</v>
+        <v>182.1173886431504</v>
       </c>
       <c r="AR9">
-        <v>197.9994359685132</v>
+        <v>198.0036656777643</v>
       </c>
       <c r="AS9">
-        <v>-252.0964388952711</v>
+        <v>-230.2020011774273</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -1886,144 +1886,144 @@
         <v>4</v>
       </c>
       <c r="AX9">
-        <v>2092.3</v>
+        <v>2091.8</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="1">
-        <v>5983</v>
+        <v>5978</v>
       </c>
       <c r="B10">
-        <v>20834</v>
+        <v>20829</v>
       </c>
       <c r="C10">
-        <v>3.657281465961899</v>
+        <v>3.513357070070647</v>
       </c>
       <c r="D10">
-        <v>2.250672014070421</v>
+        <v>2.250213387977409</v>
       </c>
       <c r="E10">
-        <v>35.56610913587942</v>
+        <v>67.18433382985476</v>
       </c>
       <c r="F10">
-        <v>408.1271102403441</v>
+        <v>407.9790651832996</v>
       </c>
       <c r="G10">
-        <v>448.1155095300725</v>
+        <v>448.4804755172232</v>
       </c>
       <c r="H10">
-        <v>422.5372666908817</v>
+        <v>422.5230001035997</v>
       </c>
       <c r="I10">
-        <v>425.9173712245981</v>
+        <v>425.8818408596601</v>
       </c>
       <c r="J10">
-        <v>79.34228532945924</v>
+        <v>79.34145542012952</v>
       </c>
       <c r="K10">
-        <v>78.326089857276</v>
+        <v>78.32577194177918</v>
       </c>
       <c r="L10">
-        <v>63.59043480777244</v>
+        <v>63.5862042732157</v>
       </c>
       <c r="M10">
-        <v>75.99616805078588</v>
+        <v>75.99194455494228</v>
       </c>
       <c r="N10">
-        <v>63.52471810524237</v>
+        <v>63.54780229626221</v>
       </c>
       <c r="O10">
-        <v>76.39354169787683</v>
+        <v>76.40616456543849</v>
       </c>
       <c r="P10">
-        <v>293.4558666936767</v>
+        <v>293.3991915767384</v>
       </c>
       <c r="Q10">
-        <v>319.1627248435935</v>
+        <v>319.1004625499146</v>
       </c>
       <c r="R10">
-        <v>0.3223053151020213</v>
+        <v>0.3122809427149192</v>
       </c>
       <c r="S10">
-        <v>0.07329273142194251</v>
+        <v>0.4632330811981735</v>
       </c>
       <c r="T10">
-        <v>-0.5031525783204654</v>
+        <v>-0.4893681640727435</v>
       </c>
       <c r="U10">
         <v>120320</v>
       </c>
       <c r="V10">
-        <v>41653.6000383805</v>
+        <v>41653.10005257407</v>
       </c>
       <c r="W10">
-        <v>-1.382201453542426</v>
+        <v>-1.331542807941602</v>
       </c>
       <c r="X10">
-        <v>1.990356444462309</v>
+        <v>1.623271271146769</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>51.81785284499735</v>
+        <v>51.8178224338966</v>
       </c>
       <c r="AA10">
-        <v>5.149170832249135</v>
+        <v>5.149745129349991</v>
       </c>
       <c r="AB10">
-        <v>-0.08908744919214699</v>
+        <v>-0.06420128929268548</v>
       </c>
       <c r="AC10">
-        <v>1.314333881663653</v>
+        <v>0.1905077849633189</v>
       </c>
       <c r="AD10">
-        <v>-0.1371416126139512</v>
+        <v>-0.1981736593742917</v>
       </c>
       <c r="AE10">
-        <v>0.0333429642606652</v>
+        <v>0.02676904893161649</v>
       </c>
       <c r="AF10">
-        <v>0.0005672967769142263</v>
+        <v>-0.001033796220895462</v>
       </c>
       <c r="AG10">
-        <v>0.09286420919802874</v>
+        <v>0.008413286408302443</v>
       </c>
       <c r="AH10">
-        <v>-0.004815049304500031</v>
+        <v>-0.001881270330264672</v>
       </c>
       <c r="AI10">
-        <v>-0.02573288129208335</v>
+        <v>-0.02444046550233165</v>
       </c>
       <c r="AJ10">
-        <v>0.0927588138623292</v>
+        <v>0.0083619460371934</v>
       </c>
       <c r="AK10">
-        <v>-7.749999994467486</v>
+        <v>-7.749999768407235</v>
       </c>
       <c r="AL10">
-        <v>-2.749999999999631</v>
+        <v>-2.749999999999623</v>
       </c>
       <c r="AM10">
-        <v>6810.417993695752</v>
+        <v>6812.882077129657</v>
       </c>
       <c r="AN10">
-        <v>6818.575264352581</v>
+        <v>6821.004403741083</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.3119006762177121</v>
+        <v>0.3118946953837345</v>
       </c>
       <c r="AQ10">
-        <v>182.130731550329</v>
+        <v>182.1138430606312</v>
       </c>
       <c r="AR10">
-        <v>198.0016434715907</v>
+        <v>197.9949104274482</v>
       </c>
       <c r="AS10">
-        <v>-262.5833597450953</v>
+        <v>-234.5712014865054</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -2038,144 +2038,144 @@
         <v>4</v>
       </c>
       <c r="AX10">
-        <v>2092.4</v>
+        <v>2091.9</v>
       </c>
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="1">
-        <v>5984</v>
+        <v>5979</v>
       </c>
       <c r="B11">
-        <v>20835</v>
+        <v>20830</v>
       </c>
       <c r="C11">
-        <v>3.730182593697034</v>
+        <v>3.515702234954087</v>
       </c>
       <c r="D11">
-        <v>2.25054326796498</v>
+        <v>2.250412872101082</v>
       </c>
       <c r="E11">
-        <v>32.70950643873985</v>
+        <v>59.59499357390286</v>
       </c>
       <c r="F11">
-        <v>408.1259201145156</v>
+        <v>407.9926780152949</v>
       </c>
       <c r="G11">
-        <v>447.9657983609707</v>
+        <v>448.4207042295664</v>
       </c>
       <c r="H11">
-        <v>422.5441696481898</v>
+        <v>422.5358120601742</v>
       </c>
       <c r="I11">
-        <v>425.9111093033517</v>
+        <v>425.8774459610557</v>
       </c>
       <c r="J11">
-        <v>79.34311712301783</v>
+        <v>79.34121292073445</v>
       </c>
       <c r="K11">
-        <v>78.32623283155364</v>
+        <v>78.32567531501276</v>
       </c>
       <c r="L11">
-        <v>63.59068360283825</v>
+        <v>63.58748370420383</v>
       </c>
       <c r="M11">
-        <v>75.99646285666552</v>
+        <v>75.99324900384043</v>
       </c>
       <c r="N11">
-        <v>63.52076908624239</v>
+        <v>63.54382235885245</v>
       </c>
       <c r="O11">
-        <v>76.39187642268355</v>
+        <v>76.40275684478222</v>
       </c>
       <c r="P11">
-        <v>293.467203524791</v>
+        <v>293.4105247066832</v>
       </c>
       <c r="Q11">
-        <v>319.1751683379924</v>
+        <v>319.1129186805877</v>
       </c>
       <c r="R11">
-        <v>0.331007026380727</v>
+        <v>0.3117810329578377</v>
       </c>
       <c r="S11">
-        <v>0.03441569198102949</v>
+        <v>0.3723240151247669</v>
       </c>
       <c r="T11">
-        <v>-0.5088153709969389</v>
+        <v>-0.4906440528057783</v>
       </c>
       <c r="U11">
         <v>120320</v>
       </c>
       <c r="V11">
-        <v>41653.70003554178</v>
+        <v>41653.20004973537</v>
       </c>
       <c r="W11">
-        <v>-1.391242700190972</v>
+        <v>-1.339165171993864</v>
       </c>
       <c r="X11">
-        <v>2.133883025758631</v>
+        <v>1.651950048560611</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>51.81785889850771</v>
+        <v>51.81782853391114</v>
       </c>
       <c r="AA11">
-        <v>5.149055994673741</v>
+        <v>5.149630254155539</v>
       </c>
       <c r="AB11">
-        <v>-0.08033332809032746</v>
+        <v>-0.07523521788042059</v>
       </c>
       <c r="AC11">
-        <v>1.525546689286192</v>
+        <v>0.3618011860794038</v>
       </c>
       <c r="AD11">
-        <v>-0.1163346633626213</v>
+        <v>-0.1990071736646635</v>
       </c>
       <c r="AE11">
-        <v>0.03507584398640506</v>
+        <v>0.0275692705674364</v>
       </c>
       <c r="AF11">
-        <v>0.0007994219841589425</v>
+        <v>-0.0008293730938887013</v>
       </c>
       <c r="AG11">
-        <v>0.1135423463731433</v>
+        <v>0.01887573587927225</v>
       </c>
       <c r="AH11">
-        <v>-0.006601983449094588</v>
+        <v>-0.001904496350237977</v>
       </c>
       <c r="AI11">
-        <v>-0.02614546909539249</v>
+        <v>-0.02461935138835389</v>
       </c>
       <c r="AJ11">
-        <v>0.1134695115576287</v>
+        <v>0.01877281612371182</v>
       </c>
       <c r="AK11">
-        <v>-7.749999991430296</v>
+        <v>-7.74999995079079</v>
       </c>
       <c r="AL11">
-        <v>-2.749999999999655</v>
+        <v>-2.749999999999646</v>
       </c>
       <c r="AM11">
-        <v>6809.761013869556</v>
+        <v>6812.496201120909</v>
       </c>
       <c r="AN11">
-        <v>6817.870672818908</v>
+        <v>6820.666743388778</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.3118929674070833</v>
+        <v>0.3118756159859171</v>
       </c>
       <c r="AQ11">
-        <v>182.1273153695536</v>
+        <v>182.1079562145667</v>
       </c>
       <c r="AR11">
-        <v>197.9874675993343</v>
+        <v>197.9862432205034</v>
       </c>
       <c r="AS11">
-        <v>-276.598853161614</v>
+        <v>-237.9106566505643</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -2190,144 +2190,144 @@
         <v>4</v>
       </c>
       <c r="AX11">
-        <v>2092.5</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="1">
-        <v>5985</v>
+        <v>5980</v>
       </c>
       <c r="B12">
-        <v>20836</v>
+        <v>20831</v>
       </c>
       <c r="C12">
-        <v>3.816115512409496</v>
+        <v>3.528703363067127</v>
       </c>
       <c r="D12">
-        <v>2.250384594093954</v>
+        <v>2.25059971316775</v>
       </c>
       <c r="E12">
-        <v>31.01731749260892</v>
+        <v>52.10765948758721</v>
       </c>
       <c r="F12">
-        <v>408.0965392773433</v>
+        <v>408.0216544530243</v>
       </c>
       <c r="G12">
-        <v>447.8091056267685</v>
+        <v>448.3657659262699</v>
       </c>
       <c r="H12">
-        <v>422.5507269011212</v>
+        <v>422.5381857556893</v>
       </c>
       <c r="I12">
-        <v>425.9076206296334</v>
+        <v>425.8874789731333</v>
       </c>
       <c r="J12">
-        <v>79.34389693893631</v>
+        <v>79.3410735527216</v>
       </c>
       <c r="K12">
-        <v>78.32623095401203</v>
+        <v>78.32559429853914</v>
       </c>
       <c r="L12">
-        <v>63.59056536338998</v>
+        <v>63.58857780001325</v>
       </c>
       <c r="M12">
-        <v>75.99658498637773</v>
+        <v>75.99434803346227</v>
       </c>
       <c r="N12">
-        <v>63.5181005724242</v>
+        <v>63.53919380734054</v>
       </c>
       <c r="O12">
-        <v>76.39086097140188</v>
+        <v>76.39978332173406</v>
       </c>
       <c r="P12">
-        <v>293.478539539771</v>
+        <v>293.4218586415292</v>
       </c>
       <c r="Q12">
-        <v>319.1876074798153</v>
+        <v>319.1253732851967</v>
       </c>
       <c r="R12">
-        <v>0.3414795027162397</v>
+        <v>0.31155843132962</v>
       </c>
       <c r="S12">
-        <v>0.008030628419242168</v>
+        <v>0.2805419556360809</v>
       </c>
       <c r="T12">
-        <v>-0.5151603602720761</v>
+        <v>-0.4925903480110223</v>
       </c>
       <c r="U12">
         <v>120320</v>
       </c>
       <c r="V12">
-        <v>41653.80003270307</v>
+        <v>41653.30004689665</v>
       </c>
       <c r="W12">
-        <v>-1.400475736697628</v>
+        <v>-1.348694315907259</v>
       </c>
       <c r="X12">
-        <v>2.296175729429208</v>
+        <v>1.700393278941788</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>51.81786492194799</v>
+        <v>51.81783462029731</v>
       </c>
       <c r="AA12">
-        <v>5.148941178863618</v>
+        <v>5.149515391267527</v>
       </c>
       <c r="AB12">
-        <v>-0.09657815231943818</v>
+        <v>-0.09403969519412882</v>
       </c>
       <c r="AC12">
-        <v>1.699110865691477</v>
+        <v>0.5780137703072906</v>
       </c>
       <c r="AD12">
-        <v>-0.0994075456033286</v>
+        <v>-0.1914416782149373</v>
       </c>
       <c r="AE12">
-        <v>0.03692905472732282</v>
+        <v>0.0287095590715666</v>
       </c>
       <c r="AF12">
-        <v>0.0008395470426146144</v>
+        <v>-0.0005213824930486706</v>
       </c>
       <c r="AG12">
-        <v>0.1343414409147206</v>
+        <v>0.03367562526675957</v>
       </c>
       <c r="AH12">
-        <v>-0.008751435765451164</v>
+        <v>-0.002091809942548395</v>
       </c>
       <c r="AI12">
-        <v>-0.02677456126167656</v>
+        <v>-0.02483448006275144</v>
       </c>
       <c r="AJ12">
-        <v>0.1342877497915426</v>
+        <v>0.03353439449707483</v>
       </c>
       <c r="AK12">
-        <v>-7.749999996193645</v>
+        <v>-7.750000043014141</v>
       </c>
       <c r="AL12">
-        <v>-2.749999999999654</v>
+        <v>-2.749999999999658</v>
       </c>
       <c r="AM12">
-        <v>6809.080710410578</v>
+        <v>6812.073625213539</v>
       </c>
       <c r="AN12">
-        <v>6817.1527347136</v>
+        <v>6820.279361083215</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.3118566588867093</v>
+        <v>0.311865324557282</v>
       </c>
       <c r="AQ12">
-        <v>182.1075316803747</v>
+        <v>182.1055977378694</v>
       </c>
       <c r="AR12">
-        <v>197.9561007937619</v>
+        <v>197.9838728611807</v>
       </c>
       <c r="AS12">
-        <v>-293.2413963670135</v>
+        <v>-240.981493803309</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -2342,144 +2342,144 @@
         <v>4</v>
       </c>
       <c r="AX12">
-        <v>2092.6</v>
+        <v>2092.1</v>
       </c>
     </row>
     <row r="13" spans="1:50">
       <c r="A13" s="1">
-        <v>5986</v>
+        <v>5981</v>
       </c>
       <c r="B13">
-        <v>20837</v>
+        <v>20832</v>
       </c>
       <c r="C13">
-        <v>3.913711334614367</v>
+        <v>3.555830197106339</v>
       </c>
       <c r="D13">
-        <v>2.250228358952769</v>
+        <v>2.250716034080121</v>
       </c>
       <c r="E13">
-        <v>30.22589535109768</v>
+        <v>45.35368825962827</v>
       </c>
       <c r="F13">
-        <v>408.0495453384437</v>
+        <v>408.0613020699468</v>
       </c>
       <c r="G13">
-        <v>447.6713806523237</v>
+        <v>448.3091822788161</v>
       </c>
       <c r="H13">
-        <v>422.5553222872127</v>
+        <v>422.5351122615363</v>
       </c>
       <c r="I13">
-        <v>425.9149864041715</v>
+        <v>425.9042346721888</v>
       </c>
       <c r="J13">
-        <v>79.34443324954842</v>
+        <v>79.34117650510856</v>
       </c>
       <c r="K13">
-        <v>78.32609593920996</v>
+        <v>78.32566424759443</v>
       </c>
       <c r="L13">
-        <v>63.58977403015722</v>
+        <v>63.58941030000624</v>
       </c>
       <c r="M13">
-        <v>75.99634513717999</v>
+        <v>75.99517276776052</v>
       </c>
       <c r="N13">
-        <v>63.51706911808577</v>
+        <v>63.53429746036882</v>
       </c>
       <c r="O13">
-        <v>76.39095137102308</v>
+        <v>76.39741215623859</v>
       </c>
       <c r="P13">
-        <v>293.4898742493637</v>
+        <v>293.4331936776978</v>
       </c>
       <c r="Q13">
-        <v>319.2000427959446</v>
+        <v>319.1378263180378</v>
       </c>
       <c r="R13">
-        <v>0.3528797898820305</v>
+        <v>0.3126645960549898</v>
       </c>
       <c r="S13">
-        <v>-0.008775573657967169</v>
+        <v>0.1968736065297137</v>
       </c>
       <c r="T13">
-        <v>-0.521117178796573</v>
+        <v>-0.495217267373477</v>
       </c>
       <c r="U13">
         <v>120320</v>
       </c>
       <c r="V13">
-        <v>41653.90002986436</v>
+        <v>41653.40004405793</v>
       </c>
       <c r="W13">
-        <v>-1.412814455646074</v>
+        <v>-1.359983473751673</v>
       </c>
       <c r="X13">
-        <v>2.473081695472521</v>
+        <v>1.772214979226027</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>51.81787090027278</v>
+        <v>51.81784069992486</v>
       </c>
       <c r="AA13">
-        <v>5.148826396188851</v>
+        <v>5.149400534561835</v>
       </c>
       <c r="AB13">
-        <v>-0.1425463085017536</v>
+        <v>-0.1064262948451893</v>
       </c>
       <c r="AC13">
-        <v>1.829078617209751</v>
+        <v>0.8228655082507226</v>
       </c>
       <c r="AD13">
-        <v>-0.08939068778012321</v>
+        <v>-0.1771839375040454</v>
       </c>
       <c r="AE13">
-        <v>0.03894459806292331</v>
+        <v>0.03011567019371718</v>
       </c>
       <c r="AF13">
-        <v>0.0006936955087377194</v>
+        <v>-0.0001633773503747431</v>
       </c>
       <c r="AG13">
-        <v>0.1557161587227028</v>
+        <v>0.05191221270555266</v>
       </c>
       <c r="AH13">
-        <v>-0.01117691571711745</v>
+        <v>-0.002575335799235449</v>
       </c>
       <c r="AI13">
-        <v>-0.02769361185207093</v>
+        <v>-0.0251107127764388</v>
       </c>
       <c r="AJ13">
-        <v>0.1556677455789376</v>
+        <v>0.05175836772780094</v>
       </c>
       <c r="AK13">
-        <v>-7.750000000397698</v>
+        <v>-7.75000004413988</v>
       </c>
       <c r="AL13">
-        <v>-2.749999999999629</v>
+        <v>-2.749999999999642</v>
       </c>
       <c r="AM13">
-        <v>6808.385090055973</v>
+        <v>6811.589350931804</v>
       </c>
       <c r="AN13">
-        <v>6816.441673057046</v>
+        <v>6819.805336159759</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.3117987728746148</v>
+        <v>0.3118706622104871</v>
       </c>
       <c r="AQ13">
-        <v>182.0756121920004</v>
+        <v>182.1109090250916</v>
       </c>
       <c r="AR13">
-        <v>197.9158153521034</v>
+        <v>197.9899849476699</v>
       </c>
       <c r="AS13">
-        <v>-311.3408639724473</v>
+        <v>-245.2049460856153</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -2494,144 +2494,144 @@
         <v>4</v>
       </c>
       <c r="AX13">
-        <v>2092.7</v>
+        <v>2092.2</v>
       </c>
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="1">
-        <v>5987</v>
+        <v>5982</v>
       </c>
       <c r="B14">
-        <v>20838</v>
+        <v>20833</v>
       </c>
       <c r="C14">
-        <v>4.020835390943246</v>
+        <v>3.598754234670888</v>
       </c>
       <c r="D14">
-        <v>2.250097626249536</v>
+        <v>2.250737933477879</v>
       </c>
       <c r="E14">
-        <v>30.06891813960051</v>
+        <v>39.7729694060559</v>
       </c>
       <c r="F14">
-        <v>408.0001813590555</v>
+        <v>408.1014650021791</v>
       </c>
       <c r="G14">
-        <v>447.5494248803895</v>
+        <v>448.2314104765383</v>
       </c>
       <c r="H14">
-        <v>422.5596851558579</v>
+        <v>422.5336732176117</v>
       </c>
       <c r="I14">
-        <v>425.9317668775535</v>
+        <v>425.9162729947194</v>
       </c>
       <c r="J14">
-        <v>79.34460659018833</v>
+        <v>79.34159345867116</v>
       </c>
       <c r="K14">
-        <v>78.32599296076056</v>
+        <v>78.32586541006253</v>
       </c>
       <c r="L14">
-        <v>63.58801914562469</v>
+        <v>63.59000594506698</v>
       </c>
       <c r="M14">
-        <v>75.99543574908489</v>
+        <v>75.99575351640459</v>
       </c>
       <c r="N14">
-        <v>63.51750337166045</v>
+        <v>63.52938100725046</v>
       </c>
       <c r="O14">
-        <v>76.39218188690992</v>
+        <v>76.39541548471942</v>
       </c>
       <c r="P14">
-        <v>293.5012075877348</v>
+        <v>293.4445298295034</v>
       </c>
       <c r="Q14">
-        <v>319.2124747244135</v>
+        <v>319.150277190551</v>
       </c>
       <c r="R14">
-        <v>0.364424876970074</v>
+        <v>0.3161005790751183</v>
       </c>
       <c r="S14">
-        <v>-0.01879673897139424</v>
+        <v>0.1271295873574101</v>
       </c>
       <c r="T14">
-        <v>-0.5256404816782847</v>
+        <v>-0.4986518350522783</v>
       </c>
       <c r="U14">
         <v>120320</v>
       </c>
       <c r="V14">
-        <v>41654.00002702326</v>
+        <v>41653.50004121922</v>
       </c>
       <c r="W14">
-        <v>-1.430416378256571</v>
+        <v>-1.37167173317914</v>
       </c>
       <c r="X14">
-        <v>2.660009188463718</v>
+        <v>1.869041648701965</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>51.81787682418146</v>
+        <v>51.81784677574164</v>
       </c>
       <c r="AA14">
-        <v>5.148711654037111</v>
+        <v>5.149285681048999</v>
       </c>
       <c r="AB14">
-        <v>-0.2014465518700942</v>
+        <v>-0.1035075878148336</v>
       </c>
       <c r="AC14">
-        <v>1.911979133519265</v>
+        <v>1.075063047923051</v>
       </c>
       <c r="AD14">
-        <v>-0.08731864658900966</v>
+        <v>-0.1583534952364042</v>
       </c>
       <c r="AE14">
-        <v>0.04110227723123812</v>
+        <v>0.03168578980738818</v>
       </c>
       <c r="AF14">
-        <v>0.0004578592063142478</v>
+        <v>0.0002168458412892053</v>
       </c>
       <c r="AG14">
-        <v>0.177614702396799</v>
+        <v>0.07210570385209839</v>
       </c>
       <c r="AH14">
-        <v>-0.01381388397417794</v>
+        <v>-0.003465681030740723</v>
       </c>
       <c r="AI14">
-        <v>-0.02885347016230087</v>
+        <v>-0.02541301438619037</v>
       </c>
       <c r="AJ14">
-        <v>0.1775662048116623</v>
+        <v>0.07196735349371072</v>
       </c>
       <c r="AK14">
-        <v>-7.750000001571914</v>
+        <v>-7.750000014366842</v>
       </c>
       <c r="AL14">
         <v>-2.749999999999623</v>
       </c>
       <c r="AM14">
-        <v>6807.681471730623</v>
+        <v>6811.034256683792</v>
       </c>
       <c r="AN14">
-        <v>6815.747523014139</v>
+        <v>6819.231920923661</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.3117346775847415</v>
+        <v>0.311887484970122</v>
       </c>
       <c r="AQ14">
-        <v>182.0403160195193</v>
+        <v>182.1220307608606</v>
       </c>
       <c r="AR14">
-        <v>197.8771636181653</v>
+        <v>197.9994359685132</v>
       </c>
       <c r="AS14">
-        <v>-329.8795753214237</v>
+        <v>-252.0964388952711</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -2646,144 +2646,144 @@
         <v>4</v>
       </c>
       <c r="AX14">
-        <v>2092.8</v>
+        <v>2092.3</v>
       </c>
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="1">
-        <v>5988</v>
+        <v>5983</v>
       </c>
       <c r="B15">
-        <v>20839</v>
+        <v>20834</v>
       </c>
       <c r="C15">
-        <v>4.133902920140685</v>
+        <v>3.657281465961899</v>
       </c>
       <c r="D15">
-        <v>2.249999302995835</v>
+        <v>2.250672014070421</v>
       </c>
       <c r="E15">
-        <v>30.30485125651247</v>
+        <v>35.56610913587942</v>
       </c>
       <c r="F15">
-        <v>407.9584374769208</v>
+        <v>408.1271102403441</v>
       </c>
       <c r="G15">
-        <v>447.4064460451121</v>
+        <v>448.1155095300725</v>
       </c>
       <c r="H15">
-        <v>422.5667825802349</v>
+        <v>422.5372666908817</v>
       </c>
       <c r="I15">
-        <v>425.9469925817417</v>
+        <v>425.9173712245981</v>
       </c>
       <c r="J15">
-        <v>79.34439711895457</v>
+        <v>79.34228532945924</v>
       </c>
       <c r="K15">
-        <v>78.3262894145311</v>
+        <v>78.326089857276</v>
       </c>
       <c r="L15">
-        <v>63.58509030718125</v>
+        <v>63.59043480777244</v>
       </c>
       <c r="M15">
-        <v>75.99352278930922</v>
+        <v>75.99616805078588</v>
       </c>
       <c r="N15">
-        <v>63.51862132144809</v>
+        <v>63.52471810524237</v>
       </c>
       <c r="O15">
-        <v>76.39398064346508</v>
+        <v>76.39354169787683</v>
       </c>
       <c r="P15">
-        <v>293.5125397665536</v>
+        <v>293.4558666936767</v>
       </c>
       <c r="Q15">
-        <v>319.2249026812481</v>
+        <v>319.1627248435935</v>
       </c>
       <c r="R15">
-        <v>0.3754614200271711</v>
+        <v>0.3223053151020213</v>
       </c>
       <c r="S15">
-        <v>-0.02452084716800442</v>
+        <v>0.07329273142194251</v>
       </c>
       <c r="T15">
-        <v>-0.5284280626603622</v>
+        <v>-0.5031525783204654</v>
       </c>
       <c r="U15">
         <v>120320</v>
       </c>
       <c r="V15">
-        <v>41654.10001538543</v>
+        <v>41653.6000383805</v>
       </c>
       <c r="W15">
-        <v>-1.453063304731022</v>
+        <v>-1.382201453542426</v>
       </c>
       <c r="X15">
-        <v>2.852187023472376</v>
+        <v>1.990356444462309</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>51.81788269483064</v>
+        <v>51.81785284499735</v>
       </c>
       <c r="AA15">
-        <v>5.148596952072163</v>
+        <v>5.149170832249135</v>
       </c>
       <c r="AB15">
-        <v>-0.2459238452640597</v>
+        <v>-0.08908744919214699</v>
       </c>
       <c r="AC15">
-        <v>1.947669547823494</v>
+        <v>1.314333881663653</v>
       </c>
       <c r="AD15">
-        <v>-0.09184310639400747</v>
+        <v>-0.1371416126139512</v>
       </c>
       <c r="AE15">
-        <v>0.04330473692792395</v>
+        <v>0.0333429642606652</v>
       </c>
       <c r="AF15">
-        <v>0.0002544732789479184</v>
+        <v>0.0005672967769142263</v>
       </c>
       <c r="AG15">
-        <v>0.1992065177338967</v>
+        <v>0.09286420919802874</v>
       </c>
       <c r="AH15">
-        <v>-0.01662684997395902</v>
+        <v>-0.004815049304500031</v>
       </c>
       <c r="AI15">
-        <v>-0.03010542213293792</v>
+        <v>-0.02573288129208335</v>
       </c>
       <c r="AJ15">
-        <v>0.1991601663154036</v>
+        <v>0.0927588138623292</v>
       </c>
       <c r="AK15">
-        <v>-7.75000000091927</v>
+        <v>-7.749999994467486</v>
       </c>
       <c r="AL15">
-        <v>-2.749999999999646</v>
+        <v>-2.749999999999631</v>
       </c>
       <c r="AM15">
-        <v>6806.991648224965</v>
+        <v>6810.417993695752</v>
       </c>
       <c r="AN15">
-        <v>6815.084255545746</v>
+        <v>6818.575264352581</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.3116749932976294</v>
+        <v>0.3119006762177121</v>
       </c>
       <c r="AQ15">
-        <v>182.0072043816937</v>
+        <v>182.130731550329</v>
       </c>
       <c r="AR15">
-        <v>197.844042989052</v>
+        <v>198.0016434715907</v>
       </c>
       <c r="AS15">
-        <v>-347.8866781672771</v>
+        <v>-262.5833597450953</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -2798,144 +2798,144 @@
         <v>4</v>
       </c>
       <c r="AX15">
-        <v>2092.9</v>
+        <v>2092.4</v>
       </c>
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="1">
-        <v>5989</v>
+        <v>5984</v>
       </c>
       <c r="B16">
-        <v>20840</v>
+        <v>20835</v>
       </c>
       <c r="C16">
-        <v>4.247980229715052</v>
+        <v>3.730182593697034</v>
       </c>
       <c r="D16">
-        <v>2.249927351957011</v>
+        <v>2.25054326796498</v>
       </c>
       <c r="E16">
-        <v>30.68189006281279</v>
+        <v>32.70950643873985</v>
       </c>
       <c r="F16">
-        <v>407.9226592523494</v>
+        <v>408.1259201145156</v>
       </c>
       <c r="G16">
-        <v>447.1984434405713</v>
+        <v>447.9657983609707</v>
       </c>
       <c r="H16">
-        <v>422.5771824638235</v>
+        <v>422.5441696481898</v>
       </c>
       <c r="I16">
-        <v>425.9484174248378</v>
+        <v>425.9111093033517</v>
       </c>
       <c r="J16">
-        <v>79.34386637420467</v>
+        <v>79.34311712301783</v>
       </c>
       <c r="K16">
-        <v>78.32736676044019</v>
+        <v>78.32623283155364</v>
       </c>
       <c r="L16">
-        <v>63.5808260360923</v>
+        <v>63.59068360283825</v>
       </c>
       <c r="M16">
-        <v>75.99039660441231</v>
+        <v>75.99646285666552</v>
       </c>
       <c r="N16">
-        <v>63.51930391820254</v>
+        <v>63.52076908624239</v>
       </c>
       <c r="O16">
-        <v>76.39540601640279</v>
+        <v>76.39187642268355</v>
       </c>
       <c r="P16">
-        <v>293.5238709515328</v>
+        <v>293.467203524791</v>
       </c>
       <c r="Q16">
-        <v>319.2373248602325</v>
+        <v>319.1751683379924</v>
       </c>
       <c r="R16">
-        <v>0.3855427033820255</v>
+        <v>0.331007026380727</v>
       </c>
       <c r="S16">
-        <v>-0.02822259204170836</v>
+        <v>0.03441569198102949</v>
       </c>
       <c r="T16">
-        <v>-0.5299919204191792</v>
+        <v>-0.5088153709969389</v>
       </c>
       <c r="U16">
         <v>120320</v>
       </c>
       <c r="V16">
-        <v>41654.2000037476</v>
+        <v>41653.70003554178</v>
       </c>
       <c r="W16">
-        <v>-1.478201649223939</v>
+        <v>-1.391242700190972</v>
       </c>
       <c r="X16">
-        <v>3.045074368995902</v>
+        <v>2.133883025758631</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>51.81788852327079</v>
+        <v>51.81785889850771</v>
       </c>
       <c r="AA16">
-        <v>5.148482282314093</v>
+        <v>5.149055994673741</v>
       </c>
       <c r="AB16">
-        <v>-0.256572669487288</v>
+        <v>-0.08033332809032746</v>
       </c>
       <c r="AC16">
-        <v>1.940723442978626</v>
+        <v>1.525546689286192</v>
       </c>
       <c r="AD16">
-        <v>-0.1005365965020022</v>
+        <v>-0.1163346633626213</v>
       </c>
       <c r="AE16">
-        <v>0.04540903845250277</v>
+        <v>0.03507584398640506</v>
       </c>
       <c r="AF16">
-        <v>0.0001440255539342985</v>
+        <v>0.0007994219841589425</v>
       </c>
       <c r="AG16">
-        <v>0.219214769278096</v>
+        <v>0.1135423463731433</v>
       </c>
       <c r="AH16">
-        <v>-0.01959726007301807</v>
+        <v>-0.006601983449094588</v>
       </c>
       <c r="AI16">
-        <v>-0.03129779790310634</v>
+        <v>-0.02614546909539249</v>
       </c>
       <c r="AJ16">
-        <v>0.2191740010928241</v>
+        <v>0.1134695115576287</v>
       </c>
       <c r="AK16">
-        <v>-7.750000000083214</v>
+        <v>-7.749999991430296</v>
       </c>
       <c r="AL16">
-        <v>-2.749999999999658</v>
+        <v>-2.749999999999655</v>
       </c>
       <c r="AM16">
-        <v>6806.357286280958</v>
+        <v>6809.761013869556</v>
       </c>
       <c r="AN16">
-        <v>6814.477492614566</v>
+        <v>6817.870672818908</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.311616901843893</v>
+        <v>0.3118929674070833</v>
       </c>
       <c r="AQ16">
-        <v>181.973949268104</v>
+        <v>182.1273153695536</v>
       </c>
       <c r="AR16">
-        <v>197.8103501138293</v>
+        <v>197.9874675993343</v>
       </c>
       <c r="AS16">
-        <v>-363.9797891164268</v>
+        <v>-276.598853161614</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -2950,144 +2950,144 @@
         <v>4</v>
       </c>
       <c r="AX16">
-        <v>2093</v>
+        <v>2092.5</v>
       </c>
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="1">
-        <v>5990</v>
+        <v>5985</v>
       </c>
       <c r="B17">
-        <v>20841</v>
+        <v>20836</v>
       </c>
       <c r="C17">
-        <v>4.357613912186324</v>
+        <v>3.816115512409496</v>
       </c>
       <c r="D17">
-        <v>2.249879630210324</v>
+        <v>2.250384594093954</v>
       </c>
       <c r="E17">
-        <v>30.89660895646738</v>
+        <v>31.01731749260892</v>
       </c>
       <c r="F17">
-        <v>407.8805215970172</v>
+        <v>408.0965392773433</v>
       </c>
       <c r="G17">
-        <v>446.9089322869758</v>
+        <v>447.8091056267685</v>
       </c>
       <c r="H17">
-        <v>422.5868852878535</v>
+        <v>422.5507269011212</v>
       </c>
       <c r="I17">
-        <v>425.9323403128983</v>
+        <v>425.9076206296334</v>
       </c>
       <c r="J17">
-        <v>79.3431724162735</v>
+        <v>79.34389693893631</v>
       </c>
       <c r="K17">
-        <v>78.32920676180571</v>
+        <v>78.32623095401203</v>
       </c>
       <c r="L17">
-        <v>63.5751014449147</v>
+        <v>63.59056536338998</v>
       </c>
       <c r="M17">
-        <v>75.98609783538163</v>
+        <v>75.99658498637773</v>
       </c>
       <c r="N17">
-        <v>63.5186029800638</v>
+        <v>63.5181005724242</v>
       </c>
       <c r="O17">
-        <v>76.3956170776904</v>
+        <v>76.39086097140188</v>
       </c>
       <c r="P17">
-        <v>293.5352009660216</v>
+        <v>293.478539539771</v>
       </c>
       <c r="Q17">
-        <v>319.2497389972405</v>
+        <v>319.1876074798153</v>
       </c>
       <c r="R17">
-        <v>0.3944889093136169</v>
+        <v>0.3414795027162397</v>
       </c>
       <c r="S17">
-        <v>-0.03214779914634658</v>
+        <v>0.008030628419242168</v>
       </c>
       <c r="T17">
-        <v>-0.5310511414685104</v>
+        <v>-0.5151603602720761</v>
       </c>
       <c r="U17">
         <v>120320</v>
       </c>
       <c r="V17">
-        <v>41654.29999210977</v>
+        <v>41653.80003270307</v>
       </c>
       <c r="W17">
-        <v>-1.502347829406782</v>
+        <v>-1.400475736697628</v>
       </c>
       <c r="X17">
-        <v>3.234865622682655</v>
+        <v>2.296175729429208</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>51.81789432495642</v>
+        <v>51.81786492194799</v>
       </c>
       <c r="AA17">
-        <v>5.148367633037367</v>
+        <v>5.148941178863618</v>
       </c>
       <c r="AB17">
-        <v>-0.2308887742004328</v>
+        <v>-0.09657815231943818</v>
       </c>
       <c r="AC17">
-        <v>1.900367711200077</v>
+        <v>1.699110865691477</v>
       </c>
       <c r="AD17">
-        <v>-0.1117174942527937</v>
+        <v>-0.0994075456033286</v>
       </c>
       <c r="AE17">
-        <v>0.04727387980895101</v>
+        <v>0.03692905472732282</v>
       </c>
       <c r="AF17">
-        <v>8.732775379334269e-05</v>
+        <v>0.0008395470426146144</v>
       </c>
       <c r="AG17">
-        <v>0.2364541330209933</v>
+        <v>0.1343414409147206</v>
       </c>
       <c r="AH17">
-        <v>-0.02270838346173842</v>
+        <v>-0.008751435765451164</v>
       </c>
       <c r="AI17">
-        <v>-0.03235483294854011</v>
+        <v>-0.02677456126167656</v>
       </c>
       <c r="AJ17">
-        <v>0.2364193666459433</v>
+        <v>0.1342877497915426</v>
       </c>
       <c r="AK17">
-        <v>-7.74999999974317</v>
+        <v>-7.749999996193645</v>
       </c>
       <c r="AL17">
-        <v>-2.749999999999642</v>
+        <v>-2.749999999999654</v>
       </c>
       <c r="AM17">
-        <v>6805.827926628161</v>
+        <v>6809.080710410578</v>
       </c>
       <c r="AN17">
-        <v>6813.959674377754</v>
+        <v>6817.1527347136</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.3115469630038293</v>
+        <v>0.3118566588867093</v>
       </c>
       <c r="AQ17">
-        <v>181.9324727931671</v>
+        <v>182.1075316803747</v>
       </c>
       <c r="AR17">
-        <v>197.7650054252975</v>
+        <v>197.9561007937619</v>
       </c>
       <c r="AS17">
-        <v>-376.0630250760335</v>
+        <v>-293.2413963670135</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -3102,144 +3102,144 @@
         <v>4</v>
       </c>
       <c r="AX17">
-        <v>2093.1</v>
+        <v>2092.6</v>
       </c>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="1">
-        <v>5991</v>
+        <v>5986</v>
       </c>
       <c r="B18">
-        <v>20842</v>
+        <v>20837</v>
       </c>
       <c r="C18">
-        <v>4.457775050185765</v>
+        <v>3.913711334614367</v>
       </c>
       <c r="D18">
-        <v>2.249873642693616</v>
+        <v>2.250228358952769</v>
       </c>
       <c r="E18">
-        <v>30.64436040015816</v>
+        <v>30.22589535109768</v>
       </c>
       <c r="F18">
-        <v>407.8165457621462</v>
+        <v>408.0495453384437</v>
       </c>
       <c r="G18">
-        <v>446.5633796817817</v>
+        <v>447.6713806523237</v>
       </c>
       <c r="H18">
-        <v>422.5886258379215</v>
+        <v>422.5553222872127</v>
       </c>
       <c r="I18">
-        <v>425.906429546328</v>
+        <v>425.9149864041715</v>
       </c>
       <c r="J18">
-        <v>79.34258722849687</v>
+        <v>79.34443324954842</v>
       </c>
       <c r="K18">
-        <v>78.33117124369247</v>
+        <v>78.32609593920996</v>
       </c>
       <c r="L18">
-        <v>63.56791530572707</v>
+        <v>63.58977403015722</v>
       </c>
       <c r="M18">
-        <v>75.9809115567506</v>
+        <v>75.99634513717999</v>
       </c>
       <c r="N18">
-        <v>63.51612724203731</v>
+        <v>63.51706911808577</v>
       </c>
       <c r="O18">
-        <v>76.39424665917075</v>
+        <v>76.39095137102308</v>
       </c>
       <c r="P18">
-        <v>293.5465292034038</v>
+        <v>293.4898742493637</v>
       </c>
       <c r="Q18">
-        <v>319.262143535565</v>
+        <v>319.2000427959446</v>
       </c>
       <c r="R18">
-        <v>0.402348438630988</v>
+        <v>0.3528797898820305</v>
       </c>
       <c r="S18">
-        <v>-0.03838669651954966</v>
+        <v>-0.008775573657967169</v>
       </c>
       <c r="T18">
-        <v>-0.5319447283365958</v>
+        <v>-0.521117178796573</v>
       </c>
       <c r="U18">
         <v>120320</v>
       </c>
       <c r="V18">
-        <v>41654.39998047194</v>
+        <v>41653.90002986436</v>
       </c>
       <c r="W18">
-        <v>-1.522514904978677</v>
+        <v>-1.412814455646074</v>
       </c>
       <c r="X18">
-        <v>3.418912474257967</v>
+        <v>2.473081695472521</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>51.8179001133586</v>
+        <v>51.81787090027278</v>
       </c>
       <c r="AA18">
-        <v>5.148252994023392</v>
+        <v>5.148826396188851</v>
       </c>
       <c r="AB18">
-        <v>-0.1781047381520471</v>
+        <v>-0.1425463085017536</v>
       </c>
       <c r="AC18">
-        <v>1.838785444614112</v>
+        <v>1.829078617209751</v>
       </c>
       <c r="AD18">
-        <v>-0.1252442238399678</v>
+        <v>-0.08939068778012321</v>
       </c>
       <c r="AE18">
-        <v>0.04879534746689977</v>
+        <v>0.03894459806292331</v>
       </c>
       <c r="AF18">
-        <v>-1.111670670896866e-05</v>
+        <v>0.0006936955087377194</v>
       </c>
       <c r="AG18">
-        <v>0.25018136836118</v>
+        <v>0.1557161587227028</v>
       </c>
       <c r="AH18">
-        <v>-0.02593686867064125</v>
+        <v>-0.01117691571711745</v>
       </c>
       <c r="AI18">
-        <v>-0.03327363407535145</v>
+        <v>-0.02769361185207093</v>
       </c>
       <c r="AJ18">
-        <v>0.2501491050172219</v>
+        <v>0.1556677455789376</v>
       </c>
       <c r="AK18">
-        <v>-7.74999999978611</v>
+        <v>-7.750000000397698</v>
       </c>
       <c r="AL18">
-        <v>-2.749999999999623</v>
+        <v>-2.749999999999629</v>
       </c>
       <c r="AM18">
-        <v>6805.438938175444</v>
+        <v>6808.385090055973</v>
       </c>
       <c r="AN18">
-        <v>6813.55877543563</v>
+        <v>6816.441673057046</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.3114522019595106</v>
+        <v>0.3117987728746148</v>
       </c>
       <c r="AQ18">
-        <v>181.8755945609321</v>
+        <v>182.0756121920004</v>
       </c>
       <c r="AR18">
-        <v>197.7006930138641</v>
+        <v>197.9158153521034</v>
       </c>
       <c r="AS18">
-        <v>-381.5184244004346</v>
+        <v>-311.3408639724473</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -3254,144 +3254,144 @@
         <v>4</v>
       </c>
       <c r="AX18">
-        <v>2093.2</v>
+        <v>2092.7</v>
       </c>
     </row>
     <row r="19" spans="1:50">
       <c r="A19" s="1">
-        <v>5992</v>
+        <v>5987</v>
       </c>
       <c r="B19">
-        <v>20843</v>
+        <v>20838</v>
       </c>
       <c r="C19">
-        <v>4.544476191025406</v>
+        <v>4.020835390943246</v>
       </c>
       <c r="D19">
-        <v>2.249939231061264</v>
+        <v>2.250097626249536</v>
       </c>
       <c r="E19">
-        <v>29.77578157423223</v>
+        <v>30.06891813960051</v>
       </c>
       <c r="F19">
-        <v>407.7199213097113</v>
+        <v>408.0001813590555</v>
       </c>
       <c r="G19">
-        <v>446.2167649337396</v>
+        <v>447.5494248803895</v>
       </c>
       <c r="H19">
-        <v>422.5762074940702</v>
+        <v>422.5596851558579</v>
       </c>
       <c r="I19">
-        <v>425.8833623588843</v>
+        <v>425.9317668775535</v>
       </c>
       <c r="J19">
-        <v>79.34239165957973</v>
+        <v>79.34460659018833</v>
       </c>
       <c r="K19">
-        <v>78.33234739453923</v>
+        <v>78.32599296076056</v>
       </c>
       <c r="L19">
-        <v>63.55951335585608</v>
+        <v>63.58801914562469</v>
       </c>
       <c r="M19">
-        <v>75.97525769808227</v>
+        <v>75.99543574908489</v>
       </c>
       <c r="N19">
-        <v>63.5120678621466</v>
+        <v>63.51750337166045</v>
       </c>
       <c r="O19">
-        <v>76.39150719796775</v>
+        <v>76.39218188690992</v>
       </c>
       <c r="P19">
-        <v>293.5578547567736</v>
+        <v>293.5012075877348</v>
       </c>
       <c r="Q19">
-        <v>319.2745384457021</v>
+        <v>319.2124747244135</v>
       </c>
       <c r="R19">
-        <v>0.4092309977451777</v>
+        <v>0.364424876970074</v>
       </c>
       <c r="S19">
-        <v>-0.0481794107240725</v>
+        <v>-0.01879673897139424</v>
       </c>
       <c r="T19">
-        <v>-0.5325905438584829</v>
+        <v>-0.5256404816782847</v>
       </c>
       <c r="U19">
         <v>120320</v>
       </c>
       <c r="V19">
-        <v>41654.4999688341</v>
+        <v>41654.00002702326</v>
       </c>
       <c r="W19">
-        <v>-1.536801756691305</v>
+        <v>-1.430416378256571</v>
       </c>
       <c r="X19">
-        <v>3.59591990336439</v>
+        <v>2.660009188463718</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>51.81790589580213</v>
+        <v>51.81787682418146</v>
       </c>
       <c r="AA19">
-        <v>5.148138361147551</v>
+        <v>5.148711654037111</v>
       </c>
       <c r="AB19">
-        <v>-0.1100269759965888</v>
+        <v>-0.2014465518700942</v>
       </c>
       <c r="AC19">
-        <v>1.768935439329413</v>
+        <v>1.911979133519265</v>
       </c>
       <c r="AD19">
-        <v>-0.1418664619460231</v>
+        <v>-0.08731864658900966</v>
       </c>
       <c r="AE19">
-        <v>0.04992732140048946</v>
+        <v>0.04110227723123812</v>
       </c>
       <c r="AF19">
-        <v>-0.0002134824460940602</v>
+        <v>0.0004578592063142478</v>
       </c>
       <c r="AG19">
-        <v>0.2601899189025521</v>
+        <v>0.177614702396799</v>
       </c>
       <c r="AH19">
-        <v>-0.02925034573701367</v>
+        <v>-0.01381388397417794</v>
       </c>
       <c r="AI19">
-        <v>-0.03405675374475976</v>
+        <v>-0.02885347016230087</v>
       </c>
       <c r="AJ19">
-        <v>0.2601505921708147</v>
+        <v>0.1775662048116623</v>
       </c>
       <c r="AK19">
-        <v>-7.749999999913835</v>
+        <v>-7.750000001571914</v>
       </c>
       <c r="AL19">
-        <v>-2.749999999999631</v>
+        <v>-2.749999999999623</v>
       </c>
       <c r="AM19">
-        <v>6805.196247475915</v>
+        <v>6807.681471730623</v>
       </c>
       <c r="AN19">
-        <v>6813.289196088635</v>
+        <v>6815.747523014139</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.3113299833539486</v>
+        <v>0.3117346775847415</v>
       </c>
       <c r="AQ19">
-        <v>181.8026066591089</v>
+        <v>182.0403160195193</v>
       </c>
       <c r="AR19">
-        <v>197.6191254701043</v>
+        <v>197.8771636181653</v>
       </c>
       <c r="AS19">
-        <v>-377.7841931281876</v>
+        <v>-329.8795753214237</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -3406,144 +3406,144 @@
         <v>4</v>
       </c>
       <c r="AX19">
-        <v>2093.3</v>
+        <v>2092.8</v>
       </c>
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="1">
-        <v>5993</v>
+        <v>5988</v>
       </c>
       <c r="B20">
-        <v>20844</v>
+        <v>20839</v>
       </c>
       <c r="C20">
-        <v>4.615162284769173</v>
+        <v>4.133902920140685</v>
       </c>
       <c r="D20">
-        <v>2.250091892206632</v>
+        <v>2.249999302995835</v>
       </c>
       <c r="E20">
-        <v>28.4263274083957</v>
+        <v>30.30485125651247</v>
       </c>
       <c r="F20">
-        <v>407.5879514927614</v>
+        <v>407.9584374769208</v>
       </c>
       <c r="G20">
-        <v>445.9296127657478</v>
+        <v>447.4064460451121</v>
       </c>
       <c r="H20">
-        <v>422.5489012816188</v>
+        <v>422.5667825802349</v>
       </c>
       <c r="I20">
-        <v>425.8715995052493</v>
+        <v>425.9469925817417</v>
       </c>
       <c r="J20">
-        <v>79.34268631844695</v>
+        <v>79.34439711895457</v>
       </c>
       <c r="K20">
-        <v>78.33222438607849</v>
+        <v>78.3262894145311</v>
       </c>
       <c r="L20">
-        <v>63.55041931016115</v>
+        <v>63.58509030718125</v>
       </c>
       <c r="M20">
-        <v>75.96957934810756</v>
+        <v>75.99352278930922</v>
       </c>
       <c r="N20">
-        <v>63.50698762229612</v>
+        <v>63.51862132144809</v>
       </c>
       <c r="O20">
-        <v>76.38805512088044</v>
+        <v>76.39398064346508</v>
       </c>
       <c r="P20">
-        <v>293.569176644315</v>
+        <v>293.5125397665536</v>
       </c>
       <c r="Q20">
-        <v>319.28692537939</v>
+        <v>319.2249026812481</v>
       </c>
       <c r="R20">
-        <v>0.415103368417594</v>
+        <v>0.3754614200271711</v>
       </c>
       <c r="S20">
-        <v>-0.06109375495991275</v>
+        <v>-0.02452084716800442</v>
       </c>
       <c r="T20">
-        <v>-0.5328572331387592</v>
+        <v>-0.5284280626603622</v>
       </c>
       <c r="U20">
         <v>120320</v>
       </c>
       <c r="V20">
-        <v>41654.59995719627</v>
+        <v>41654.10001538543</v>
       </c>
       <c r="W20">
-        <v>-1.544385096907591</v>
+        <v>-1.453063304731022</v>
       </c>
       <c r="X20">
-        <v>3.765872093628639</v>
+        <v>2.852187023472376</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>51.81791167199759</v>
+        <v>51.81788269483064</v>
       </c>
       <c r="AA20">
-        <v>5.148023739902834</v>
+        <v>5.148596952072163</v>
       </c>
       <c r="AB20">
-        <v>-0.03758809783135722</v>
+        <v>-0.2459238452640597</v>
       </c>
       <c r="AC20">
-        <v>1.702523920243821</v>
+        <v>1.947669547823494</v>
       </c>
       <c r="AD20">
-        <v>-0.1619133972210053</v>
+        <v>-0.09184310639400747</v>
       </c>
       <c r="AE20">
-        <v>0.05069285319881221</v>
+        <v>0.04330473692792395</v>
       </c>
       <c r="AF20">
-        <v>-0.0004802487436207705</v>
+        <v>0.0002544732789479184</v>
       </c>
       <c r="AG20">
-        <v>0.2667750511877163</v>
+        <v>0.1992065177338967</v>
       </c>
       <c r="AH20">
-        <v>-0.03260684116543704</v>
+        <v>-0.01662684997395902</v>
       </c>
       <c r="AI20">
-        <v>-0.03465119748253403</v>
+        <v>-0.03010542213293792</v>
       </c>
       <c r="AJ20">
-        <v>0.2667090607308624</v>
+        <v>0.1991601663154036</v>
       </c>
       <c r="AK20">
-        <v>-7.749999999993679</v>
+        <v>-7.75000000091927</v>
       </c>
       <c r="AL20">
-        <v>-2.749999999999655</v>
+        <v>-2.749999999999646</v>
       </c>
       <c r="AM20">
-        <v>6805.080621700152</v>
+        <v>6806.991648224965</v>
       </c>
       <c r="AN20">
-        <v>6813.150206221842</v>
+        <v>6815.084255545746</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.3111892809866197</v>
+        <v>0.3116749932976294</v>
       </c>
       <c r="AQ20">
-        <v>181.7196252281827</v>
+        <v>182.0072043816937</v>
       </c>
       <c r="AR20">
-        <v>197.529150651553</v>
+        <v>197.844042989052</v>
       </c>
       <c r="AS20">
-        <v>-362.9829990855168</v>
+        <v>-347.8866781672771</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -3558,144 +3558,144 @@
         <v>4</v>
       </c>
       <c r="AX20">
-        <v>2093.4</v>
+        <v>2092.9</v>
       </c>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="1">
-        <v>5994</v>
+        <v>5989</v>
       </c>
       <c r="B21">
-        <v>20845</v>
+        <v>20840</v>
       </c>
       <c r="C21">
-        <v>4.669094390325051</v>
+        <v>4.247980229715052</v>
       </c>
       <c r="D21">
-        <v>2.250314483286356</v>
+        <v>2.249927351957011</v>
       </c>
       <c r="E21">
-        <v>26.96874467703999</v>
+        <v>30.68189006281279</v>
       </c>
       <c r="F21">
-        <v>407.4265300392249</v>
+        <v>407.9226592523494</v>
       </c>
       <c r="G21">
-        <v>445.7481465798781</v>
+        <v>447.1984434405713</v>
       </c>
       <c r="H21">
-        <v>422.5128695957634</v>
+        <v>422.5771824638235</v>
       </c>
       <c r="I21">
-        <v>425.8707369214391</v>
+        <v>425.9484174248378</v>
       </c>
       <c r="J21">
-        <v>79.34331329169287</v>
+        <v>79.34386637420467</v>
       </c>
       <c r="K21">
-        <v>78.33103930136443</v>
+        <v>78.32736676044019</v>
       </c>
       <c r="L21">
-        <v>63.54130817348913</v>
+        <v>63.5808260360923</v>
       </c>
       <c r="M21">
-        <v>75.9642363116708</v>
+        <v>75.99039660441231</v>
       </c>
       <c r="N21">
-        <v>63.50164015568177</v>
+        <v>63.51930391820254</v>
       </c>
       <c r="O21">
-        <v>76.38472963648732</v>
+        <v>76.39540601640279</v>
       </c>
       <c r="P21">
-        <v>293.5804940479272</v>
+        <v>293.5238709515328</v>
       </c>
       <c r="Q21">
-        <v>319.2993072723506</v>
+        <v>319.2373248602325</v>
       </c>
       <c r="R21">
-        <v>0.4197594044192522</v>
+        <v>0.3855427033820255</v>
       </c>
       <c r="S21">
-        <v>-0.07498372737909419</v>
+        <v>-0.02822259204170836</v>
       </c>
       <c r="T21">
-        <v>-0.5329026139806712</v>
+        <v>-0.5299919204191792</v>
       </c>
       <c r="U21">
         <v>120320</v>
       </c>
       <c r="V21">
-        <v>41654.69994555844</v>
+        <v>41654.2000037476</v>
       </c>
       <c r="W21">
-        <v>-1.545505673464971</v>
+        <v>-1.478201649223939</v>
       </c>
       <c r="X21">
-        <v>3.929724999253302</v>
+        <v>3.045074368995902</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>51.81791743439876</v>
+        <v>51.81788852327079</v>
       </c>
       <c r="AA21">
-        <v>5.147909147367984</v>
+        <v>5.148482282314093</v>
       </c>
       <c r="AB21">
-        <v>0.02793777713315038</v>
+        <v>-0.256572669487288</v>
       </c>
       <c r="AC21">
-        <v>1.648065116515907</v>
+        <v>1.940723442978626</v>
       </c>
       <c r="AD21">
-        <v>-0.1843509916054195</v>
+        <v>-0.1005365965020022</v>
       </c>
       <c r="AE21">
-        <v>0.05118210354544438</v>
+        <v>0.04540903845250277</v>
       </c>
       <c r="AF21">
-        <v>-0.0006806288664233895</v>
+        <v>0.0001440255539342985</v>
       </c>
       <c r="AG21">
-        <v>0.2706380035808406</v>
+        <v>0.219214769278096</v>
       </c>
       <c r="AH21">
-        <v>-0.03595673462212445</v>
+        <v>-0.01959726007301807</v>
       </c>
       <c r="AI21">
-        <v>-0.034956640090783</v>
+        <v>-0.03129779790310634</v>
       </c>
       <c r="AJ21">
-        <v>0.2705176587913916</v>
+        <v>0.2191740010928241</v>
       </c>
       <c r="AK21">
-        <v>-7.750000000070435</v>
+        <v>-7.750000000083214</v>
       </c>
       <c r="AL21">
-        <v>-2.749999999999573</v>
+        <v>-2.749999999999658</v>
       </c>
       <c r="AM21">
-        <v>6805.067926306486</v>
+        <v>6806.357286280958</v>
       </c>
       <c r="AN21">
-        <v>6813.132616614243</v>
+        <v>6814.477492614566</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.3110430810298972</v>
+        <v>0.311616901843893</v>
       </c>
       <c r="AQ21">
-        <v>181.6347982373958</v>
+        <v>181.973949268104</v>
       </c>
       <c r="AR21">
-        <v>197.4396748358069</v>
+        <v>197.8103501138293</v>
       </c>
       <c r="AS21">
-        <v>-336.3485909518053</v>
+        <v>-363.9797891164268</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -3710,150 +3710,150 @@
         <v>4</v>
       </c>
       <c r="AX21">
-        <v>2093.5</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="1">
-        <v>5995</v>
+        <v>5990</v>
       </c>
       <c r="B22">
-        <v>20846</v>
+        <v>20841</v>
       </c>
       <c r="C22">
-        <v>4.707543229444679</v>
+        <v>4.357613912186324</v>
       </c>
       <c r="D22">
-        <v>2.2505620743351</v>
+        <v>2.249879630210324</v>
       </c>
       <c r="E22">
-        <v>25.80426966095989</v>
+        <v>30.89660895646738</v>
       </c>
       <c r="F22">
-        <v>407.2499802370378</v>
+        <v>407.8805215970172</v>
       </c>
       <c r="G22">
-        <v>445.6925458191433</v>
+        <v>446.9089322869758</v>
       </c>
       <c r="H22">
-        <v>422.4788408253339</v>
+        <v>422.5868852878535</v>
       </c>
       <c r="I22">
-        <v>425.8732716967861</v>
+        <v>425.9323403128983</v>
       </c>
       <c r="J22">
-        <v>79.34396492512012</v>
+        <v>79.3431724162735</v>
       </c>
       <c r="K22">
-        <v>78.32951014061675</v>
+        <v>78.32920676180571</v>
       </c>
       <c r="L22">
-        <v>63.53279390762164</v>
+        <v>63.5751014449147</v>
       </c>
       <c r="M22">
-        <v>75.95941735130626</v>
+        <v>75.98609783538163</v>
       </c>
       <c r="N22">
-        <v>63.49686625572104</v>
+        <v>63.5186029800638</v>
       </c>
       <c r="O22">
-        <v>76.38228546250561</v>
+        <v>76.3956170776904</v>
       </c>
       <c r="P22">
-        <v>293.5918065473783</v>
+        <v>293.5352009660216</v>
       </c>
       <c r="Q22">
-        <v>319.3116876208455</v>
+        <v>319.2497389972405</v>
       </c>
       <c r="R22">
-        <v>0.423026944638727</v>
+        <v>0.3944889093136169</v>
       </c>
       <c r="S22">
-        <v>-0.08707214713785896</v>
+        <v>-0.03214779914634658</v>
       </c>
       <c r="T22">
-        <v>-0.5331580114606496</v>
+        <v>-0.5310511414685104</v>
       </c>
       <c r="U22">
         <v>120320</v>
       </c>
       <c r="V22">
-        <v>41654.79993392061</v>
+        <v>41654.29999210977</v>
       </c>
       <c r="W22">
-        <v>-1.541528505773653</v>
+        <v>-1.502347829406782</v>
       </c>
       <c r="X22">
-        <v>4.088946752843718</v>
+        <v>3.234865622682655</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>51.81792317034279</v>
+        <v>51.81789432495642</v>
       </c>
       <c r="AA22">
-        <v>5.147794610449127</v>
+        <v>5.148367633037367</v>
       </c>
       <c r="AB22">
-        <v>0.07543038936798857</v>
+        <v>-0.2308887742004328</v>
       </c>
       <c r="AC22">
-        <v>1.609325036079452</v>
+        <v>1.900367711200077</v>
       </c>
       <c r="AD22">
-        <v>-0.2068048128170714</v>
+        <v>-0.1117174942527937</v>
       </c>
       <c r="AE22">
-        <v>0.05152412995308969</v>
+        <v>0.04727387980895101</v>
       </c>
       <c r="AF22">
-        <v>-0.0006871365164187221</v>
+        <v>8.732775379334269e-05</v>
       </c>
       <c r="AG22">
-        <v>0.2726926645114129</v>
+        <v>0.2364541330209933</v>
       </c>
       <c r="AH22">
-        <v>-0.03925297277626458</v>
+        <v>-0.02270838346173842</v>
       </c>
       <c r="AI22">
-        <v>-0.03490784890000535</v>
+        <v>-0.03235483294854011</v>
       </c>
       <c r="AJ22">
-        <v>0.272494778020872</v>
+        <v>0.2364193666459433</v>
       </c>
       <c r="AK22">
-        <v>-7.750000000197893</v>
+        <v>-7.74999999974317</v>
       </c>
       <c r="AL22">
-        <v>-2.749999999999418</v>
+        <v>-2.749999999999642</v>
       </c>
       <c r="AM22">
-        <v>6805.148506058684</v>
+        <v>6805.827926628161</v>
       </c>
       <c r="AN22">
-        <v>6813.227741504025</v>
+        <v>6813.959674377754</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.3108984418204289</v>
+        <v>0.3115469630038293</v>
       </c>
       <c r="AQ22">
-        <v>181.5523069034055</v>
+        <v>181.9324727931671</v>
       </c>
       <c r="AR22">
-        <v>197.3532091686874</v>
+        <v>197.7650054252975</v>
       </c>
       <c r="AS22">
-        <v>-298.3132278726005</v>
+        <v>-376.0630250760335</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV22">
         <v>0</v>
@@ -3862,150 +3862,150 @@
         <v>4</v>
       </c>
       <c r="AX22">
-        <v>2093.6</v>
+        <v>2093.1</v>
       </c>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="1">
-        <v>5996</v>
+        <v>5991</v>
       </c>
       <c r="B23">
-        <v>20847</v>
+        <v>20842</v>
       </c>
       <c r="C23">
-        <v>4.733365410207784</v>
+        <v>4.457775050185765</v>
       </c>
       <c r="D23">
-        <v>2.250779825693216</v>
+        <v>2.249873642693616</v>
       </c>
       <c r="E23">
-        <v>25.16925586752751</v>
+        <v>30.64436040015816</v>
       </c>
       <c r="F23">
-        <v>407.0794881026486</v>
+        <v>407.8165457621462</v>
       </c>
       <c r="G23">
-        <v>445.7507707644968</v>
+        <v>446.5633796817817</v>
       </c>
       <c r="H23">
-        <v>422.4572845049782</v>
+        <v>422.5886258379215</v>
       </c>
       <c r="I23">
-        <v>425.8705638262314</v>
+        <v>425.906429546328</v>
       </c>
       <c r="J23">
-        <v>79.34436861411564</v>
+        <v>79.34258722849687</v>
       </c>
       <c r="K23">
-        <v>78.32838387619465</v>
+        <v>78.33117124369247</v>
       </c>
       <c r="L23">
-        <v>63.52530044799545</v>
+        <v>63.56791530572707</v>
       </c>
       <c r="M23">
-        <v>75.95518130976494</v>
+        <v>75.9809115567506</v>
       </c>
       <c r="N23">
-        <v>63.4934351186003</v>
+        <v>63.51612724203731</v>
       </c>
       <c r="O23">
-        <v>76.38118107244587</v>
+        <v>76.39424665917075</v>
       </c>
       <c r="P23">
-        <v>293.6031143109367</v>
+        <v>293.5465292034038</v>
       </c>
       <c r="Q23">
-        <v>319.3240695867001</v>
+        <v>319.262143535565</v>
       </c>
       <c r="R23">
-        <v>0.4249555421843097</v>
+        <v>0.402348438630988</v>
       </c>
       <c r="S23">
-        <v>-0.09536549230276865</v>
+        <v>-0.03838669651954966</v>
       </c>
       <c r="T23">
-        <v>-0.5339935612702609</v>
+        <v>-0.5319447283365958</v>
       </c>
       <c r="U23">
         <v>120320</v>
       </c>
       <c r="V23">
-        <v>41654.89992228278</v>
+        <v>41654.39998047194</v>
       </c>
       <c r="W23">
-        <v>-1.534739946263403</v>
+        <v>-1.522514904978677</v>
       </c>
       <c r="X23">
-        <v>4.245027088262862</v>
+        <v>3.418912474257967</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>51.81792886646188</v>
+        <v>51.8179001133586</v>
       </c>
       <c r="AA23">
-        <v>5.147680158093454</v>
+        <v>5.148252994023392</v>
       </c>
       <c r="AB23">
-        <v>0.09764408023252909</v>
+        <v>-0.1781047381520471</v>
       </c>
       <c r="AC23">
-        <v>1.584971373517887</v>
+        <v>1.838785444614112</v>
       </c>
       <c r="AD23">
-        <v>-0.2265013505458537</v>
+        <v>-0.1252442238399678</v>
       </c>
       <c r="AE23">
-        <v>0.0518340271602749</v>
+        <v>0.04879534746689977</v>
       </c>
       <c r="AF23">
-        <v>-0.0004859447406909272</v>
+        <v>-1.111670670896866e-05</v>
       </c>
       <c r="AG23">
-        <v>0.2737693886285282</v>
+        <v>0.25018136836118</v>
       </c>
       <c r="AH23">
-        <v>-0.04246846790504838</v>
+        <v>-0.02593686867064125</v>
       </c>
       <c r="AI23">
-        <v>-0.0345642086126214</v>
+        <v>-0.03327363407535145</v>
       </c>
       <c r="AJ23">
-        <v>0.2734894684012565</v>
+        <v>0.2501491050172219</v>
       </c>
       <c r="AK23">
-        <v>-7.750000000260822</v>
+        <v>-7.74999999978611</v>
       </c>
       <c r="AL23">
-        <v>-2.749999999999373</v>
+        <v>-2.749999999999623</v>
       </c>
       <c r="AM23">
-        <v>6805.331493269295</v>
+        <v>6805.438938175444</v>
       </c>
       <c r="AN23">
-        <v>6813.431215456142</v>
+        <v>6813.55877543563</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.3107521349565501</v>
+        <v>0.3114522019595106</v>
       </c>
       <c r="AQ23">
-        <v>181.4697363278481</v>
+        <v>181.8755945609321</v>
       </c>
       <c r="AR23">
-        <v>197.2649297581581</v>
+        <v>197.7006930138641</v>
       </c>
       <c r="AS23">
-        <v>-250.2330621752103</v>
+        <v>-381.5184244004346</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV23">
         <v>0</v>
@@ -4014,150 +4014,150 @@
         <v>4</v>
       </c>
       <c r="AX23">
-        <v>2093.7</v>
+        <v>2093.2</v>
       </c>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="1">
-        <v>5997</v>
+        <v>5992</v>
       </c>
       <c r="B24">
-        <v>20848</v>
+        <v>20843</v>
       </c>
       <c r="C24">
-        <v>4.74987558049346</v>
+        <v>4.544476191025406</v>
       </c>
       <c r="D24">
-        <v>2.250921538360386</v>
+        <v>2.249939231061264</v>
       </c>
       <c r="E24">
-        <v>25.1064966826481</v>
+        <v>29.77578157423223</v>
       </c>
       <c r="F24">
-        <v>406.9391471297645</v>
+        <v>407.7199213097113</v>
       </c>
       <c r="G24">
-        <v>445.879442894721</v>
+        <v>446.2167649337396</v>
       </c>
       <c r="H24">
-        <v>422.4536859658089</v>
+        <v>422.5762074940702</v>
       </c>
       <c r="I24">
-        <v>425.8592362625385</v>
+        <v>425.8833623588843</v>
       </c>
       <c r="J24">
-        <v>79.34442620312849</v>
+        <v>79.34239165957973</v>
       </c>
       <c r="K24">
-        <v>78.32821810019402</v>
+        <v>78.33234739453923</v>
       </c>
       <c r="L24">
-        <v>63.51909407305987</v>
+        <v>63.55951335585608</v>
       </c>
       <c r="M24">
-        <v>75.95165376933357</v>
+        <v>75.97525769808227</v>
       </c>
       <c r="N24">
-        <v>63.49181774592005</v>
+        <v>63.5120678621466</v>
       </c>
       <c r="O24">
-        <v>76.38147065827698</v>
+        <v>76.39150719796775</v>
       </c>
       <c r="P24">
-        <v>293.6144181761347</v>
+        <v>293.5578547567736</v>
       </c>
       <c r="Q24">
-        <v>319.3364551267805</v>
+        <v>319.2745384457021</v>
       </c>
       <c r="R24">
-        <v>0.4257316267898129</v>
+        <v>0.4092309977451777</v>
       </c>
       <c r="S24">
-        <v>-0.09923812160753125</v>
+        <v>-0.0481794107240725</v>
       </c>
       <c r="T24">
-        <v>-0.5354506629068483</v>
+        <v>-0.5325905438584829</v>
       </c>
       <c r="U24">
         <v>120320</v>
       </c>
       <c r="V24">
-        <v>41654.99991064495</v>
+        <v>41654.4999688341</v>
       </c>
       <c r="W24">
-        <v>-1.52776085813925</v>
+        <v>-1.536801756691305</v>
       </c>
       <c r="X24">
-        <v>4.399100809565279</v>
+        <v>3.59591990336439</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>51.81793451449791</v>
+        <v>51.81790589580213</v>
       </c>
       <c r="AA24">
-        <v>5.147565809104389</v>
+        <v>5.148138361147551</v>
       </c>
       <c r="AB24">
-        <v>0.09414140970210753</v>
+        <v>-0.1100269759965888</v>
       </c>
       <c r="AC24">
-        <v>1.569924482393013</v>
+        <v>1.768935439329413</v>
       </c>
       <c r="AD24">
-        <v>-0.2413870385679086</v>
+        <v>-0.1418664619460231</v>
       </c>
       <c r="AE24">
-        <v>0.05216298365350239</v>
+        <v>0.04992732140048946</v>
       </c>
       <c r="AF24">
-        <v>-0.0001999427578577326</v>
+        <v>-0.0002134824460940602</v>
       </c>
       <c r="AG24">
-        <v>0.2743126841009538</v>
+        <v>0.2601899189025521</v>
       </c>
       <c r="AH24">
-        <v>-0.04560523341319981</v>
+        <v>-0.02925034573701367</v>
       </c>
       <c r="AI24">
-        <v>-0.03411031304907387</v>
+        <v>-0.03405675374475976</v>
       </c>
       <c r="AJ24">
-        <v>0.2739659281884765</v>
+        <v>0.2601505921708147</v>
       </c>
       <c r="AK24">
-        <v>-7.749999999970659</v>
+        <v>-7.749999999913835</v>
       </c>
       <c r="AL24">
-        <v>-2.749999999999841</v>
+        <v>-2.749999999999631</v>
       </c>
       <c r="AM24">
-        <v>6805.633818891319</v>
+        <v>6805.196247475915</v>
       </c>
       <c r="AN24">
-        <v>6813.741491097963</v>
+        <v>6813.289196088635</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.310594425950775</v>
+        <v>0.3113299833539486</v>
       </c>
       <c r="AQ24">
-        <v>181.3803634704045</v>
+        <v>181.8026066591089</v>
       </c>
       <c r="AR24">
-        <v>197.167075893604</v>
+        <v>197.6191254701043</v>
       </c>
       <c r="AS24">
-        <v>-193.9362813116243</v>
+        <v>-377.7841931281876</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV24">
         <v>0</v>
@@ -4166,150 +4166,150 @@
         <v>4</v>
       </c>
       <c r="AX24">
-        <v>2093.8</v>
+        <v>2093.3</v>
       </c>
     </row>
     <row r="25" spans="1:50">
       <c r="A25" s="1">
-        <v>5998</v>
+        <v>5993</v>
       </c>
       <c r="B25">
-        <v>20849</v>
+        <v>20844</v>
       </c>
       <c r="C25">
-        <v>4.759612683088073</v>
+        <v>4.615162284769173</v>
       </c>
       <c r="D25">
-        <v>2.250964710853363</v>
+        <v>2.250091892206632</v>
       </c>
       <c r="E25">
-        <v>25.58025137040256</v>
+        <v>28.4263274083957</v>
       </c>
       <c r="F25">
-        <v>406.8506369540547</v>
+        <v>407.5879514927614</v>
       </c>
       <c r="G25">
-        <v>446.0192753797564</v>
+        <v>445.9296127657478</v>
       </c>
       <c r="H25">
-        <v>422.4666797075415</v>
+        <v>422.5489012816188</v>
       </c>
       <c r="I25">
-        <v>425.8438101609019</v>
+        <v>425.8715995052493</v>
       </c>
       <c r="J25">
-        <v>79.34425366824556</v>
+        <v>79.34268631844695</v>
       </c>
       <c r="K25">
-        <v>78.32927732309287</v>
+        <v>78.33222438607849</v>
       </c>
       <c r="L25">
-        <v>63.5143723604394</v>
+        <v>63.55041931016115</v>
       </c>
       <c r="M25">
-        <v>75.94917142723787</v>
+        <v>75.96957934810756</v>
       </c>
       <c r="N25">
-        <v>63.49201994291565</v>
+        <v>63.50698762229612</v>
       </c>
       <c r="O25">
-        <v>76.38287989033763</v>
+        <v>76.38805512088044</v>
       </c>
       <c r="P25">
-        <v>293.6257195827168</v>
+        <v>293.569176644315</v>
       </c>
       <c r="Q25">
-        <v>319.3488445510966</v>
+        <v>319.28692537939</v>
       </c>
       <c r="R25">
-        <v>0.4253854473783975</v>
+        <v>0.415103368417594</v>
       </c>
       <c r="S25">
-        <v>-0.09889720463295469</v>
+        <v>-0.06109375495991275</v>
       </c>
       <c r="T25">
-        <v>-0.537328029010344</v>
+        <v>-0.5328572331387592</v>
       </c>
       <c r="U25">
         <v>120320</v>
       </c>
       <c r="V25">
-        <v>41655.09990699909</v>
+        <v>41654.59995719627</v>
       </c>
       <c r="W25">
-        <v>-1.522866813734621</v>
+        <v>-1.544385096907591</v>
       </c>
       <c r="X25">
-        <v>4.55177921298802</v>
+        <v>3.765872093628639</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>51.81794011547478</v>
+        <v>51.81791167199759</v>
       </c>
       <c r="AA25">
-        <v>5.147451562604657</v>
+        <v>5.148023739902834</v>
       </c>
       <c r="AB25">
-        <v>0.07042846334674754</v>
+        <v>-0.03758809783135722</v>
       </c>
       <c r="AC25">
-        <v>1.557888394018</v>
+        <v>1.702523920243821</v>
       </c>
       <c r="AD25">
-        <v>-0.2503837905965313</v>
+        <v>-0.1619133972210053</v>
       </c>
       <c r="AE25">
-        <v>0.05248733304471166</v>
+        <v>0.05069285319881221</v>
       </c>
       <c r="AF25">
-        <v>1.685238821052815e-05</v>
+        <v>-0.0004802487436207705</v>
       </c>
       <c r="AG25">
-        <v>0.2742463800129953</v>
+        <v>0.2667750511877163</v>
       </c>
       <c r="AH25">
-        <v>-0.04868173919347916</v>
+        <v>-0.03260684116543704</v>
       </c>
       <c r="AI25">
-        <v>-0.03373776120759039</v>
+        <v>-0.03465119748253403</v>
       </c>
       <c r="AJ25">
-        <v>0.2738524571785911</v>
+        <v>0.2667090607308624</v>
       </c>
       <c r="AK25">
-        <v>-7.749999999174988</v>
+        <v>-7.749999999993679</v>
       </c>
       <c r="AL25">
-        <v>-2.750000000000621</v>
+        <v>-2.749999999999655</v>
       </c>
       <c r="AM25">
-        <v>6806.065663182868</v>
+        <v>6805.080621700152</v>
       </c>
       <c r="AN25">
-        <v>6814.158560482305</v>
+        <v>6813.150206221842</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.3104163989349474</v>
+        <v>0.3111892809866197</v>
       </c>
       <c r="AQ25">
-        <v>181.2778134636847</v>
+        <v>181.7196252281827</v>
       </c>
       <c r="AR25">
-        <v>197.054142330541</v>
+        <v>197.529150651553</v>
       </c>
       <c r="AS25">
-        <v>-131.3557252450244</v>
+        <v>-362.9829990855168</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV25">
         <v>0</v>
@@ -4318,7 +4318,2287 @@
         <v>4</v>
       </c>
       <c r="AX25">
+        <v>2093.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50">
+      <c r="A26" s="1">
+        <v>5994</v>
+      </c>
+      <c r="B26">
+        <v>20845</v>
+      </c>
+      <c r="C26">
+        <v>4.669094390325051</v>
+      </c>
+      <c r="D26">
+        <v>2.250314483286356</v>
+      </c>
+      <c r="E26">
+        <v>26.96874467703999</v>
+      </c>
+      <c r="F26">
+        <v>407.4265300392249</v>
+      </c>
+      <c r="G26">
+        <v>445.7481465798781</v>
+      </c>
+      <c r="H26">
+        <v>422.5128695957634</v>
+      </c>
+      <c r="I26">
+        <v>425.8707369214391</v>
+      </c>
+      <c r="J26">
+        <v>79.34331329169287</v>
+      </c>
+      <c r="K26">
+        <v>78.33103930136443</v>
+      </c>
+      <c r="L26">
+        <v>63.54130817348913</v>
+      </c>
+      <c r="M26">
+        <v>75.9642363116708</v>
+      </c>
+      <c r="N26">
+        <v>63.50164015568177</v>
+      </c>
+      <c r="O26">
+        <v>76.38472963648732</v>
+      </c>
+      <c r="P26">
+        <v>293.5804940479272</v>
+      </c>
+      <c r="Q26">
+        <v>319.2993072723506</v>
+      </c>
+      <c r="R26">
+        <v>0.4197594044192522</v>
+      </c>
+      <c r="S26">
+        <v>-0.07498372737909419</v>
+      </c>
+      <c r="T26">
+        <v>-0.5329026139806712</v>
+      </c>
+      <c r="U26">
+        <v>120320</v>
+      </c>
+      <c r="V26">
+        <v>41654.69994555844</v>
+      </c>
+      <c r="W26">
+        <v>-1.545505673464971</v>
+      </c>
+      <c r="X26">
+        <v>3.929724999253302</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>51.81791743439876</v>
+      </c>
+      <c r="AA26">
+        <v>5.147909147367984</v>
+      </c>
+      <c r="AB26">
+        <v>0.02793777713315038</v>
+      </c>
+      <c r="AC26">
+        <v>1.648065116515907</v>
+      </c>
+      <c r="AD26">
+        <v>-0.1843509916054195</v>
+      </c>
+      <c r="AE26">
+        <v>0.05118210354544438</v>
+      </c>
+      <c r="AF26">
+        <v>-0.0006806288664233895</v>
+      </c>
+      <c r="AG26">
+        <v>0.2706380035808406</v>
+      </c>
+      <c r="AH26">
+        <v>-0.03595673462212445</v>
+      </c>
+      <c r="AI26">
+        <v>-0.034956640090783</v>
+      </c>
+      <c r="AJ26">
+        <v>0.2705176587913916</v>
+      </c>
+      <c r="AK26">
+        <v>-7.750000000070435</v>
+      </c>
+      <c r="AL26">
+        <v>-2.749999999999573</v>
+      </c>
+      <c r="AM26">
+        <v>6805.067926306486</v>
+      </c>
+      <c r="AN26">
+        <v>6813.132616614243</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0.3110430810298972</v>
+      </c>
+      <c r="AQ26">
+        <v>181.6347982373958</v>
+      </c>
+      <c r="AR26">
+        <v>197.4396748358069</v>
+      </c>
+      <c r="AS26">
+        <v>-336.3485909518053</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>6</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>2093.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50">
+      <c r="A27" s="1">
+        <v>5995</v>
+      </c>
+      <c r="B27">
+        <v>20846</v>
+      </c>
+      <c r="C27">
+        <v>4.707543229444679</v>
+      </c>
+      <c r="D27">
+        <v>2.2505620743351</v>
+      </c>
+      <c r="E27">
+        <v>25.80426966095989</v>
+      </c>
+      <c r="F27">
+        <v>407.2499802370378</v>
+      </c>
+      <c r="G27">
+        <v>445.6925458191433</v>
+      </c>
+      <c r="H27">
+        <v>422.4788408253339</v>
+      </c>
+      <c r="I27">
+        <v>425.8732716967861</v>
+      </c>
+      <c r="J27">
+        <v>79.34396492512012</v>
+      </c>
+      <c r="K27">
+        <v>78.32951014061675</v>
+      </c>
+      <c r="L27">
+        <v>63.53279390762164</v>
+      </c>
+      <c r="M27">
+        <v>75.95941735130626</v>
+      </c>
+      <c r="N27">
+        <v>63.49686625572104</v>
+      </c>
+      <c r="O27">
+        <v>76.38228546250561</v>
+      </c>
+      <c r="P27">
+        <v>293.5918065473783</v>
+      </c>
+      <c r="Q27">
+        <v>319.3116876208455</v>
+      </c>
+      <c r="R27">
+        <v>0.423026944638727</v>
+      </c>
+      <c r="S27">
+        <v>-0.08707214713785896</v>
+      </c>
+      <c r="T27">
+        <v>-0.5331580114606496</v>
+      </c>
+      <c r="U27">
+        <v>120320</v>
+      </c>
+      <c r="V27">
+        <v>41654.79993392061</v>
+      </c>
+      <c r="W27">
+        <v>-1.541528505773653</v>
+      </c>
+      <c r="X27">
+        <v>4.088946752843718</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>51.81792317034279</v>
+      </c>
+      <c r="AA27">
+        <v>5.147794610449127</v>
+      </c>
+      <c r="AB27">
+        <v>0.07543038936798857</v>
+      </c>
+      <c r="AC27">
+        <v>1.609325036079452</v>
+      </c>
+      <c r="AD27">
+        <v>-0.2068048128170714</v>
+      </c>
+      <c r="AE27">
+        <v>0.05152412995308969</v>
+      </c>
+      <c r="AF27">
+        <v>-0.0006871365164187221</v>
+      </c>
+      <c r="AG27">
+        <v>0.2726926645114129</v>
+      </c>
+      <c r="AH27">
+        <v>-0.03925297277626458</v>
+      </c>
+      <c r="AI27">
+        <v>-0.03490784890000535</v>
+      </c>
+      <c r="AJ27">
+        <v>0.272494778020872</v>
+      </c>
+      <c r="AK27">
+        <v>-7.750000000197893</v>
+      </c>
+      <c r="AL27">
+        <v>-2.749999999999418</v>
+      </c>
+      <c r="AM27">
+        <v>6805.148506058684</v>
+      </c>
+      <c r="AN27">
+        <v>6813.227741504025</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0.3108984418204289</v>
+      </c>
+      <c r="AQ27">
+        <v>181.5523069034055</v>
+      </c>
+      <c r="AR27">
+        <v>197.3532091686874</v>
+      </c>
+      <c r="AS27">
+        <v>-298.3132278726005</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>4</v>
+      </c>
+      <c r="AX27">
+        <v>2093.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50">
+      <c r="A28" s="1">
+        <v>5996</v>
+      </c>
+      <c r="B28">
+        <v>20847</v>
+      </c>
+      <c r="C28">
+        <v>4.733365410207784</v>
+      </c>
+      <c r="D28">
+        <v>2.250779825693216</v>
+      </c>
+      <c r="E28">
+        <v>25.16925586752751</v>
+      </c>
+      <c r="F28">
+        <v>407.0794881026486</v>
+      </c>
+      <c r="G28">
+        <v>445.7507707644968</v>
+      </c>
+      <c r="H28">
+        <v>422.4572845049782</v>
+      </c>
+      <c r="I28">
+        <v>425.8705638262314</v>
+      </c>
+      <c r="J28">
+        <v>79.34436861411564</v>
+      </c>
+      <c r="K28">
+        <v>78.32838387619465</v>
+      </c>
+      <c r="L28">
+        <v>63.52530044799545</v>
+      </c>
+      <c r="M28">
+        <v>75.95518130976494</v>
+      </c>
+      <c r="N28">
+        <v>63.4934351186003</v>
+      </c>
+      <c r="O28">
+        <v>76.38118107244587</v>
+      </c>
+      <c r="P28">
+        <v>293.6031143109367</v>
+      </c>
+      <c r="Q28">
+        <v>319.3240695867001</v>
+      </c>
+      <c r="R28">
+        <v>0.4249555421843097</v>
+      </c>
+      <c r="S28">
+        <v>-0.09536549230276865</v>
+      </c>
+      <c r="T28">
+        <v>-0.5339935612702609</v>
+      </c>
+      <c r="U28">
+        <v>120320</v>
+      </c>
+      <c r="V28">
+        <v>41654.89992228278</v>
+      </c>
+      <c r="W28">
+        <v>-1.534739946263403</v>
+      </c>
+      <c r="X28">
+        <v>4.245027088262862</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>51.81792886646188</v>
+      </c>
+      <c r="AA28">
+        <v>5.147680158093454</v>
+      </c>
+      <c r="AB28">
+        <v>0.09764408023252909</v>
+      </c>
+      <c r="AC28">
+        <v>1.584971373517887</v>
+      </c>
+      <c r="AD28">
+        <v>-0.2265013505458537</v>
+      </c>
+      <c r="AE28">
+        <v>0.0518340271602749</v>
+      </c>
+      <c r="AF28">
+        <v>-0.0004859447406909272</v>
+      </c>
+      <c r="AG28">
+        <v>0.2737693886285282</v>
+      </c>
+      <c r="AH28">
+        <v>-0.04246846790504838</v>
+      </c>
+      <c r="AI28">
+        <v>-0.0345642086126214</v>
+      </c>
+      <c r="AJ28">
+        <v>0.2734894684012565</v>
+      </c>
+      <c r="AK28">
+        <v>-7.750000000260822</v>
+      </c>
+      <c r="AL28">
+        <v>-2.749999999999373</v>
+      </c>
+      <c r="AM28">
+        <v>6805.331493269295</v>
+      </c>
+      <c r="AN28">
+        <v>6813.431215456142</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0.3107521349565501</v>
+      </c>
+      <c r="AQ28">
+        <v>181.4697363278481</v>
+      </c>
+      <c r="AR28">
+        <v>197.2649297581581</v>
+      </c>
+      <c r="AS28">
+        <v>-250.2330621752103</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>2093.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50">
+      <c r="A29" s="1">
+        <v>5997</v>
+      </c>
+      <c r="B29">
+        <v>20848</v>
+      </c>
+      <c r="C29">
+        <v>4.74987558049346</v>
+      </c>
+      <c r="D29">
+        <v>2.250921538360386</v>
+      </c>
+      <c r="E29">
+        <v>25.1064966826481</v>
+      </c>
+      <c r="F29">
+        <v>406.9391471297645</v>
+      </c>
+      <c r="G29">
+        <v>445.879442894721</v>
+      </c>
+      <c r="H29">
+        <v>422.4536859658089</v>
+      </c>
+      <c r="I29">
+        <v>425.8592362625385</v>
+      </c>
+      <c r="J29">
+        <v>79.34442620312849</v>
+      </c>
+      <c r="K29">
+        <v>78.32821810019402</v>
+      </c>
+      <c r="L29">
+        <v>63.51909407305987</v>
+      </c>
+      <c r="M29">
+        <v>75.95165376933357</v>
+      </c>
+      <c r="N29">
+        <v>63.49181774592005</v>
+      </c>
+      <c r="O29">
+        <v>76.38147065827698</v>
+      </c>
+      <c r="P29">
+        <v>293.6144181761347</v>
+      </c>
+      <c r="Q29">
+        <v>319.3364551267805</v>
+      </c>
+      <c r="R29">
+        <v>0.4257316267898129</v>
+      </c>
+      <c r="S29">
+        <v>-0.09923812160753125</v>
+      </c>
+      <c r="T29">
+        <v>-0.5354506629068483</v>
+      </c>
+      <c r="U29">
+        <v>120320</v>
+      </c>
+      <c r="V29">
+        <v>41654.99991064495</v>
+      </c>
+      <c r="W29">
+        <v>-1.52776085813925</v>
+      </c>
+      <c r="X29">
+        <v>4.399100809565279</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>51.81793451449791</v>
+      </c>
+      <c r="AA29">
+        <v>5.147565809104389</v>
+      </c>
+      <c r="AB29">
+        <v>0.09414140970210753</v>
+      </c>
+      <c r="AC29">
+        <v>1.569924482393013</v>
+      </c>
+      <c r="AD29">
+        <v>-0.2413870385679086</v>
+      </c>
+      <c r="AE29">
+        <v>0.05216298365350239</v>
+      </c>
+      <c r="AF29">
+        <v>-0.0001999427578577326</v>
+      </c>
+      <c r="AG29">
+        <v>0.2743126841009538</v>
+      </c>
+      <c r="AH29">
+        <v>-0.04560523341319981</v>
+      </c>
+      <c r="AI29">
+        <v>-0.03411031304907387</v>
+      </c>
+      <c r="AJ29">
+        <v>0.2739659281884765</v>
+      </c>
+      <c r="AK29">
+        <v>-7.749999999970659</v>
+      </c>
+      <c r="AL29">
+        <v>-2.749999999999841</v>
+      </c>
+      <c r="AM29">
+        <v>6805.633818891319</v>
+      </c>
+      <c r="AN29">
+        <v>6813.741491097963</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0.310594425950775</v>
+      </c>
+      <c r="AQ29">
+        <v>181.3803634704045</v>
+      </c>
+      <c r="AR29">
+        <v>197.167075893604</v>
+      </c>
+      <c r="AS29">
+        <v>-193.9362813116243</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>4</v>
+      </c>
+      <c r="AX29">
+        <v>2093.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50">
+      <c r="A30" s="1">
+        <v>5998</v>
+      </c>
+      <c r="B30">
+        <v>20849</v>
+      </c>
+      <c r="C30">
+        <v>4.759612683088073</v>
+      </c>
+      <c r="D30">
+        <v>2.250964710853363</v>
+      </c>
+      <c r="E30">
+        <v>25.58025137040256</v>
+      </c>
+      <c r="F30">
+        <v>406.8506369540547</v>
+      </c>
+      <c r="G30">
+        <v>446.0192753797564</v>
+      </c>
+      <c r="H30">
+        <v>422.4666797075415</v>
+      </c>
+      <c r="I30">
+        <v>425.8438101609019</v>
+      </c>
+      <c r="J30">
+        <v>79.34425366824556</v>
+      </c>
+      <c r="K30">
+        <v>78.32927732309287</v>
+      </c>
+      <c r="L30">
+        <v>63.5143723604394</v>
+      </c>
+      <c r="M30">
+        <v>75.94917142723787</v>
+      </c>
+      <c r="N30">
+        <v>63.49201994291565</v>
+      </c>
+      <c r="O30">
+        <v>76.38287989033763</v>
+      </c>
+      <c r="P30">
+        <v>293.6257195827168</v>
+      </c>
+      <c r="Q30">
+        <v>319.3488445510966</v>
+      </c>
+      <c r="R30">
+        <v>0.4253854473783975</v>
+      </c>
+      <c r="S30">
+        <v>-0.09889720463295469</v>
+      </c>
+      <c r="T30">
+        <v>-0.537328029010344</v>
+      </c>
+      <c r="U30">
+        <v>120320</v>
+      </c>
+      <c r="V30">
+        <v>41655.09990699909</v>
+      </c>
+      <c r="W30">
+        <v>-1.522866813734621</v>
+      </c>
+      <c r="X30">
+        <v>4.55177921298802</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>51.81794011547478</v>
+      </c>
+      <c r="AA30">
+        <v>5.147451562604657</v>
+      </c>
+      <c r="AB30">
+        <v>0.07042846334674754</v>
+      </c>
+      <c r="AC30">
+        <v>1.557888394018</v>
+      </c>
+      <c r="AD30">
+        <v>-0.2503837905965313</v>
+      </c>
+      <c r="AE30">
+        <v>0.05248733304471166</v>
+      </c>
+      <c r="AF30">
+        <v>1.685238821052815e-05</v>
+      </c>
+      <c r="AG30">
+        <v>0.2742463800129953</v>
+      </c>
+      <c r="AH30">
+        <v>-0.04868173919347916</v>
+      </c>
+      <c r="AI30">
+        <v>-0.03373776120759039</v>
+      </c>
+      <c r="AJ30">
+        <v>0.2738524571785911</v>
+      </c>
+      <c r="AK30">
+        <v>-7.749999999174988</v>
+      </c>
+      <c r="AL30">
+        <v>-2.750000000000621</v>
+      </c>
+      <c r="AM30">
+        <v>6806.065663182868</v>
+      </c>
+      <c r="AN30">
+        <v>6814.158560482305</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0.3104163989349474</v>
+      </c>
+      <c r="AQ30">
+        <v>181.2778134636847</v>
+      </c>
+      <c r="AR30">
+        <v>197.054142330541</v>
+      </c>
+      <c r="AS30">
+        <v>-131.3557252450244</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
         <v>2093.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50">
+      <c r="A31" s="1">
+        <v>5999</v>
+      </c>
+      <c r="B31">
+        <v>20850</v>
+      </c>
+      <c r="C31">
+        <v>4.763892793947432</v>
+      </c>
+      <c r="D31">
+        <v>2.250917155863733</v>
+      </c>
+      <c r="E31">
+        <v>26.59679083866058</v>
+      </c>
+      <c r="F31">
+        <v>406.8275705569136</v>
+      </c>
+      <c r="G31">
+        <v>446.1248258477515</v>
+      </c>
+      <c r="H31">
+        <v>422.4899682606613</v>
+      </c>
+      <c r="I31">
+        <v>425.8336064323897</v>
+      </c>
+      <c r="J31">
+        <v>79.34410133729135</v>
+      </c>
+      <c r="K31">
+        <v>78.33141500098935</v>
+      </c>
+      <c r="L31">
+        <v>63.5112584801808</v>
+      </c>
+      <c r="M31">
+        <v>75.94812751976289</v>
+      </c>
+      <c r="N31">
+        <v>63.4936032625444</v>
+      </c>
+      <c r="O31">
+        <v>76.38503651182103</v>
+      </c>
+      <c r="P31">
+        <v>293.6370203485656</v>
+      </c>
+      <c r="Q31">
+        <v>319.3612369073701</v>
+      </c>
+      <c r="R31">
+        <v>0.4235630949630139</v>
+      </c>
+      <c r="S31">
+        <v>-0.09445552496602401</v>
+      </c>
+      <c r="T31">
+        <v>-0.5394557608411251</v>
+      </c>
+      <c r="U31">
+        <v>120320</v>
+      </c>
+      <c r="V31">
+        <v>41655.19990336039</v>
+      </c>
+      <c r="W31">
+        <v>-1.521566325844083</v>
+      </c>
+      <c r="X31">
+        <v>4.703159351690616</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>51.81794567916292</v>
+      </c>
+      <c r="AA31">
+        <v>5.147337398324779</v>
+      </c>
+      <c r="AB31">
+        <v>0.03449108722093092</v>
+      </c>
+      <c r="AC31">
+        <v>1.543666098404609</v>
+      </c>
+      <c r="AD31">
+        <v>-0.2525004106999763</v>
+      </c>
+      <c r="AE31">
+        <v>0.05274417650266311</v>
+      </c>
+      <c r="AF31">
+        <v>0.0001163952567170027</v>
+      </c>
+      <c r="AG31">
+        <v>0.2731346732540115</v>
+      </c>
+      <c r="AH31">
+        <v>-0.05170943194917067</v>
+      </c>
+      <c r="AI31">
+        <v>-0.03351326388718905</v>
+      </c>
+      <c r="AJ31">
+        <v>0.2726999408653081</v>
+      </c>
+      <c r="AK31">
+        <v>-7.749999998453661</v>
+      </c>
+      <c r="AL31">
+        <v>-2.750000000000662</v>
+      </c>
+      <c r="AM31">
+        <v>6806.624161347434</v>
+      </c>
+      <c r="AN31">
+        <v>6814.684288127283</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0.3102142334801227</v>
+      </c>
+      <c r="AQ31">
+        <v>181.1590909724365</v>
+      </c>
+      <c r="AR31">
+        <v>196.9248319383292</v>
+      </c>
+      <c r="AS31">
+        <v>-64.32788387097679</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50">
+      <c r="A32" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B32">
+        <v>20851</v>
+      </c>
+      <c r="C32">
+        <v>4.763387174381997</v>
+      </c>
+      <c r="D32">
+        <v>2.250810999070192</v>
+      </c>
+      <c r="E32">
+        <v>28.22143612817007</v>
+      </c>
+      <c r="F32">
+        <v>406.8696366277482</v>
+      </c>
+      <c r="G32">
+        <v>446.1883857186572</v>
+      </c>
+      <c r="H32">
+        <v>422.516048331201</v>
+      </c>
+      <c r="I32">
+        <v>425.8366589133827</v>
+      </c>
+      <c r="J32">
+        <v>79.34421191521108</v>
+      </c>
+      <c r="K32">
+        <v>78.33403388893005</v>
+      </c>
+      <c r="L32">
+        <v>63.50968251448085</v>
+      </c>
+      <c r="M32">
+        <v>75.94859544063689</v>
+      </c>
+      <c r="N32">
+        <v>63.49590462025897</v>
+      </c>
+      <c r="O32">
+        <v>76.38765309033613</v>
+      </c>
+      <c r="P32">
+        <v>293.6483222829164</v>
+      </c>
+      <c r="Q32">
+        <v>319.3736310291957</v>
+      </c>
+      <c r="R32">
+        <v>0.4195490066007018</v>
+      </c>
+      <c r="S32">
+        <v>-0.08550162804176381</v>
+      </c>
+      <c r="T32">
+        <v>-0.541884382565171</v>
+      </c>
+      <c r="U32">
+        <v>120320</v>
+      </c>
+      <c r="V32">
+        <v>41655.2998997217</v>
+      </c>
+      <c r="W32">
+        <v>-1.524532385096889</v>
+      </c>
+      <c r="X32">
+        <v>4.852907828154644</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>51.81795121928699</v>
+      </c>
+      <c r="AA32">
+        <v>5.147223286593285</v>
+      </c>
+      <c r="AB32">
+        <v>-0.006448513133901795</v>
+      </c>
+      <c r="AC32">
+        <v>1.52393261221092</v>
+      </c>
+      <c r="AD32">
+        <v>-0.2459609770111414</v>
+      </c>
+      <c r="AE32">
+        <v>0.05288029161696106</v>
+      </c>
+      <c r="AF32">
+        <v>0.0001747766460188983</v>
+      </c>
+      <c r="AG32">
+        <v>0.2705533569223064</v>
+      </c>
+      <c r="AH32">
+        <v>-0.05468290027619627</v>
+      </c>
+      <c r="AI32">
+        <v>-0.03337743807345249</v>
+      </c>
+      <c r="AJ32">
+        <v>0.2700646242999474</v>
+      </c>
+      <c r="AK32">
+        <v>-7.749999999382726</v>
+      </c>
+      <c r="AL32">
+        <v>-2.749999999998531</v>
+      </c>
+      <c r="AM32">
+        <v>6807.29687839142</v>
+      </c>
+      <c r="AN32">
+        <v>6815.320730063529</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0.3099887132256789</v>
+      </c>
+      <c r="AQ32">
+        <v>181.0245771716373</v>
+      </c>
+      <c r="AR32">
+        <v>196.7809177134629</v>
+      </c>
+      <c r="AS32">
+        <v>5.497397892363697</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>2094.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50">
+      <c r="A33" s="1">
+        <v>6001</v>
+      </c>
+      <c r="B33">
+        <v>20852</v>
+      </c>
+      <c r="C33">
+        <v>4.75898616264762</v>
+      </c>
+      <c r="D33">
+        <v>2.250686177062978</v>
+      </c>
+      <c r="E33">
+        <v>30.48385163372879</v>
+      </c>
+      <c r="F33">
+        <v>406.9585209953028</v>
+      </c>
+      <c r="G33">
+        <v>446.2340619149179</v>
+      </c>
+      <c r="H33">
+        <v>422.5391143676857</v>
+      </c>
+      <c r="I33">
+        <v>425.8550729748801</v>
+      </c>
+      <c r="J33">
+        <v>79.34472631378574</v>
+      </c>
+      <c r="K33">
+        <v>78.3362544942151</v>
+      </c>
+      <c r="L33">
+        <v>63.50927899102766</v>
+      </c>
+      <c r="M33">
+        <v>75.95012848669957</v>
+      </c>
+      <c r="N33">
+        <v>63.49831192321621</v>
+      </c>
+      <c r="O33">
+        <v>76.39053175197144</v>
+      </c>
+      <c r="P33">
+        <v>293.6596266862774</v>
+      </c>
+      <c r="Q33">
+        <v>319.3860264198044</v>
+      </c>
+      <c r="R33">
+        <v>0.4124312731535189</v>
+      </c>
+      <c r="S33">
+        <v>-0.07154389457040142</v>
+      </c>
+      <c r="T33">
+        <v>-0.5449508000535148</v>
+      </c>
+      <c r="U33">
+        <v>120320</v>
+      </c>
+      <c r="V33">
+        <v>41655.399896083</v>
+      </c>
+      <c r="W33">
+        <v>-1.53177695452988</v>
+      </c>
+      <c r="X33">
+        <v>5.000343957113573</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>51.81795674772147</v>
+      </c>
+      <c r="AA33">
+        <v>5.147109201251634</v>
+      </c>
+      <c r="AB33">
+        <v>-0.04780118913693139</v>
+      </c>
+      <c r="AC33">
+        <v>1.496463633141907</v>
+      </c>
+      <c r="AD33">
+        <v>-0.2288348408215046</v>
+      </c>
+      <c r="AE33">
+        <v>0.05287498327635588</v>
+      </c>
+      <c r="AF33">
+        <v>0.0002783480924815154</v>
+      </c>
+      <c r="AG33">
+        <v>0.2663992533513088</v>
+      </c>
+      <c r="AH33">
+        <v>-0.0575904345799964</v>
+      </c>
+      <c r="AI33">
+        <v>-0.03326887853462863</v>
+      </c>
+      <c r="AJ33">
+        <v>0.2658289954370592</v>
+      </c>
+      <c r="AK33">
+        <v>-7.750000003326191</v>
+      </c>
+      <c r="AL33">
+        <v>-2.749999999994029</v>
+      </c>
+      <c r="AM33">
+        <v>6808.068712688702</v>
+      </c>
+      <c r="AN33">
+        <v>6816.066969531347</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0.3097436201287396</v>
+      </c>
+      <c r="AQ33">
+        <v>180.8769694727646</v>
+      </c>
+      <c r="AR33">
+        <v>196.6259423869384</v>
+      </c>
+      <c r="AS33">
+        <v>76.65369938478588</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>4</v>
+      </c>
+      <c r="AX33">
+        <v>2094.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34" s="1">
+        <v>6002</v>
+      </c>
+      <c r="B34">
+        <v>20853</v>
+      </c>
+      <c r="C34">
+        <v>4.75205394606701</v>
+      </c>
+      <c r="D34">
+        <v>2.250572159532092</v>
+      </c>
+      <c r="E34">
+        <v>33.24384403156076</v>
+      </c>
+      <c r="F34">
+        <v>407.0610026508391</v>
+      </c>
+      <c r="G34">
+        <v>446.2847171471684</v>
+      </c>
+      <c r="H34">
+        <v>422.5561289930737</v>
+      </c>
+      <c r="I34">
+        <v>425.8838473118379</v>
+      </c>
+      <c r="J34">
+        <v>79.34566958611248</v>
+      </c>
+      <c r="K34">
+        <v>78.33733414871608</v>
+      </c>
+      <c r="L34">
+        <v>63.50944585246989</v>
+      </c>
+      <c r="M34">
+        <v>75.95196871889573</v>
+      </c>
+      <c r="N34">
+        <v>63.5004094141169</v>
+      </c>
+      <c r="O34">
+        <v>76.39345752496457</v>
+      </c>
+      <c r="P34">
+        <v>293.670933936351</v>
+      </c>
+      <c r="Q34">
+        <v>319.398423217503</v>
+      </c>
+      <c r="R34">
+        <v>0.4010396286341375</v>
+      </c>
+      <c r="S34">
+        <v>-0.05306251673066641</v>
+      </c>
+      <c r="T34">
+        <v>-0.5492762772884304</v>
+      </c>
+      <c r="U34">
+        <v>120320</v>
+      </c>
+      <c r="V34">
+        <v>41655.49989244431</v>
+      </c>
+      <c r="W34">
+        <v>-1.542974227022765</v>
+      </c>
+      <c r="X34">
+        <v>5.144524529897324</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>51.81796227044003</v>
+      </c>
+      <c r="AA34">
+        <v>5.146995129758643</v>
+      </c>
+      <c r="AB34">
+        <v>-0.08871214156471821</v>
+      </c>
+      <c r="AC34">
+        <v>1.459369861566288</v>
+      </c>
+      <c r="AD34">
+        <v>-0.2010463551110191</v>
+      </c>
+      <c r="AE34">
+        <v>0.05273113764556955</v>
+      </c>
+      <c r="AF34">
+        <v>0.000421276624537193</v>
+      </c>
+      <c r="AG34">
+        <v>0.2609465559580195</v>
+      </c>
+      <c r="AH34">
+        <v>-0.06042894430079905</v>
+      </c>
+      <c r="AI34">
+        <v>-0.033218193353792</v>
+      </c>
+      <c r="AJ34">
+        <v>0.2602603436508881</v>
+      </c>
+      <c r="AK34">
+        <v>-7.750000008301833</v>
+      </c>
+      <c r="AL34">
+        <v>-2.749999999991863</v>
+      </c>
+      <c r="AM34">
+        <v>6808.926814372738</v>
+      </c>
+      <c r="AN34">
+        <v>6816.918208543325</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0.3094860474926609</v>
+      </c>
+      <c r="AQ34">
+        <v>180.7211505641303</v>
+      </c>
+      <c r="AR34">
+        <v>196.465431139085</v>
+      </c>
+      <c r="AS34">
+        <v>147.8054970087421</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>2094.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50">
+      <c r="A35" s="1">
+        <v>6003</v>
+      </c>
+      <c r="B35">
+        <v>20854</v>
+      </c>
+      <c r="C35">
+        <v>4.743941530075845</v>
+      </c>
+      <c r="D35">
+        <v>2.250480327285416</v>
+      </c>
+      <c r="E35">
+        <v>36.12437495481877</v>
+      </c>
+      <c r="F35">
+        <v>407.1421817325416</v>
+      </c>
+      <c r="G35">
+        <v>446.3325161628956</v>
+      </c>
+      <c r="H35">
+        <v>422.5663616489381</v>
+      </c>
+      <c r="I35">
+        <v>425.912925658277</v>
+      </c>
+      <c r="J35">
+        <v>79.3469533919161</v>
+      </c>
+      <c r="K35">
+        <v>78.33705025320485</v>
+      </c>
+      <c r="L35">
+        <v>63.50958093447047</v>
+      </c>
+      <c r="M35">
+        <v>75.95348064976147</v>
+      </c>
+      <c r="N35">
+        <v>63.50191615966504</v>
+      </c>
+      <c r="O35">
+        <v>76.39608617996987</v>
+      </c>
+      <c r="P35">
+        <v>293.6822434413991</v>
+      </c>
+      <c r="Q35">
+        <v>319.4108213429519</v>
+      </c>
+      <c r="R35">
+        <v>0.3834303660577859</v>
+      </c>
+      <c r="S35">
+        <v>-0.03236747291699972</v>
+      </c>
+      <c r="T35">
+        <v>-0.555682951709402</v>
+      </c>
+      <c r="U35">
+        <v>120320</v>
+      </c>
+      <c r="V35">
+        <v>41655.59988880561</v>
+      </c>
+      <c r="W35">
+        <v>-1.557913107456118</v>
+      </c>
+      <c r="X35">
+        <v>5.284386663928185</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>51.81796778559362</v>
+      </c>
+      <c r="AA35">
+        <v>5.146881079394064</v>
+      </c>
+      <c r="AB35">
+        <v>-0.132663955976033</v>
+      </c>
+      <c r="AC35">
+        <v>1.411856610115308</v>
+      </c>
+      <c r="AD35">
+        <v>-0.1659062721718569</v>
+      </c>
+      <c r="AE35">
+        <v>0.05246107598521708</v>
+      </c>
+      <c r="AF35">
+        <v>0.0005237570415361776</v>
+      </c>
+      <c r="AG35">
+        <v>0.2547219050500217</v>
+      </c>
+      <c r="AH35">
+        <v>-0.06320634138967476</v>
+      </c>
+      <c r="AI35">
+        <v>-0.03331551481042661</v>
+      </c>
+      <c r="AJ35">
+        <v>0.253881579040673</v>
+      </c>
+      <c r="AK35">
+        <v>-7.750000006459671</v>
+      </c>
+      <c r="AL35">
+        <v>-2.750000000000956</v>
+      </c>
+      <c r="AM35">
+        <v>6809.862346698035</v>
+      </c>
+      <c r="AN35">
+        <v>6817.866852548422</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0.309227245530376</v>
+      </c>
+      <c r="AQ35">
+        <v>180.5643174623031</v>
+      </c>
+      <c r="AR35">
+        <v>196.3071789377173</v>
+      </c>
+      <c r="AS35">
+        <v>217.7569027179433</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>4</v>
+      </c>
+      <c r="AX35">
+        <v>2094.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50">
+      <c r="A36" s="1">
+        <v>6004</v>
+      </c>
+      <c r="B36">
+        <v>20855</v>
+      </c>
+      <c r="C36">
+        <v>4.735411547102589</v>
+      </c>
+      <c r="D36">
+        <v>2.250410778594742</v>
+      </c>
+      <c r="E36">
+        <v>38.59608234845757</v>
+      </c>
+      <c r="F36">
+        <v>407.1826918954236</v>
+      </c>
+      <c r="G36">
+        <v>446.3408388777199</v>
+      </c>
+      <c r="H36">
+        <v>422.5703184176433</v>
+      </c>
+      <c r="I36">
+        <v>425.9314187373258</v>
+      </c>
+      <c r="J36">
+        <v>79.34835895985745</v>
+      </c>
+      <c r="K36">
+        <v>78.3357008311465</v>
+      </c>
+      <c r="L36">
+        <v>63.50935520612124</v>
+      </c>
+      <c r="M36">
+        <v>75.95444321503233</v>
+      </c>
+      <c r="N36">
+        <v>63.5025282442368</v>
+      </c>
+      <c r="O36">
+        <v>76.39791602369733</v>
+      </c>
+      <c r="P36">
+        <v>293.6935540717296</v>
+      </c>
+      <c r="Q36">
+        <v>319.4232196995874</v>
+      </c>
+      <c r="R36">
+        <v>0.3564759855498713</v>
+      </c>
+      <c r="S36">
+        <v>-0.01330093775804847</v>
+      </c>
+      <c r="T36">
+        <v>-0.5650773794702982</v>
+      </c>
+      <c r="U36">
+        <v>120320</v>
+      </c>
+      <c r="V36">
+        <v>41655.69988516691</v>
+      </c>
+      <c r="W36">
+        <v>-1.577003064863449</v>
+      </c>
+      <c r="X36">
+        <v>5.419000075846697</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>51.81797328330277</v>
+      </c>
+      <c r="AA36">
+        <v>5.146767079668898</v>
+      </c>
+      <c r="AB36">
+        <v>-0.187002246315065</v>
+      </c>
+      <c r="AC36">
+        <v>1.356128662619734</v>
+      </c>
+      <c r="AD36">
+        <v>-0.1296381221486582</v>
+      </c>
+      <c r="AE36">
+        <v>0.05208902360762208</v>
+      </c>
+      <c r="AF36">
+        <v>0.0005192757922733143</v>
+      </c>
+      <c r="AG36">
+        <v>0.2483671047618421</v>
+      </c>
+      <c r="AH36">
+        <v>-0.06593094491578083</v>
+      </c>
+      <c r="AI36">
+        <v>-0.03362778402591572</v>
+      </c>
+      <c r="AJ36">
+        <v>0.2473309040122107</v>
+      </c>
+      <c r="AK36">
+        <v>-7.749999988268099</v>
+      </c>
+      <c r="AL36">
+        <v>-2.750000000024953</v>
+      </c>
+      <c r="AM36">
+        <v>6810.871503224978</v>
+      </c>
+      <c r="AN36">
+        <v>6818.90372832215</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0.3089806546034347</v>
+      </c>
+      <c r="AQ36">
+        <v>180.4145465332392</v>
+      </c>
+      <c r="AR36">
+        <v>196.1593059339095</v>
+      </c>
+      <c r="AS36">
+        <v>285.5543196650642</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>2094.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50">
+      <c r="A37" s="1">
+        <v>6005</v>
+      </c>
+      <c r="B37">
+        <v>20856</v>
+      </c>
+      <c r="C37">
+        <v>4.726654922284877</v>
+      </c>
+      <c r="D37">
+        <v>2.250362618108292</v>
+      </c>
+      <c r="E37">
+        <v>40.1974064279044</v>
+      </c>
+      <c r="F37">
+        <v>407.1871190546336</v>
+      </c>
+      <c r="G37">
+        <v>446.2745746713288</v>
+      </c>
+      <c r="H37">
+        <v>422.5687220525541</v>
+      </c>
+      <c r="I37">
+        <v>425.9324524028337</v>
+      </c>
+      <c r="J37">
+        <v>79.34955332362972</v>
+      </c>
+      <c r="K37">
+        <v>78.33380863318118</v>
+      </c>
+      <c r="L37">
+        <v>63.50883068212195</v>
+      </c>
+      <c r="M37">
+        <v>75.95500627775328</v>
+      </c>
+      <c r="N37">
+        <v>63.50186826600832</v>
+      </c>
+      <c r="O37">
+        <v>76.39841330267393</v>
+      </c>
+      <c r="P37">
+        <v>293.7048648250367</v>
+      </c>
+      <c r="Q37">
+        <v>319.4356162155505</v>
+      </c>
+      <c r="R37">
+        <v>0.3168939093546776</v>
+      </c>
+      <c r="S37">
+        <v>0.0004411357886791864</v>
+      </c>
+      <c r="T37">
+        <v>-0.5784493081473915</v>
+      </c>
+      <c r="U37">
+        <v>120320</v>
+      </c>
+      <c r="V37">
+        <v>41655.7998815282</v>
+      </c>
+      <c r="W37">
+        <v>-1.601669514264435</v>
+      </c>
+      <c r="X37">
+        <v>5.547899037870279</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>51.81797874763794</v>
+      </c>
+      <c r="AA37">
+        <v>5.146653178137881</v>
+      </c>
+      <c r="AB37">
+        <v>-0.2612824732981734</v>
+      </c>
+      <c r="AC37">
+        <v>1.29828747482544</v>
+      </c>
+      <c r="AD37">
+        <v>-0.09932117327471932</v>
+      </c>
+      <c r="AE37">
+        <v>0.05166281178982503</v>
+      </c>
+      <c r="AF37">
+        <v>0.0003984855618083728</v>
+      </c>
+      <c r="AG37">
+        <v>0.2425234292811309</v>
+      </c>
+      <c r="AH37">
+        <v>-0.06859929867390008</v>
+      </c>
+      <c r="AI37">
+        <v>-0.03417924314807071</v>
+      </c>
+      <c r="AJ37">
+        <v>0.2412491856567726</v>
+      </c>
+      <c r="AK37">
+        <v>-7.749999958284617</v>
+      </c>
+      <c r="AL37">
+        <v>-2.75000000004556</v>
+      </c>
+      <c r="AM37">
+        <v>6811.957788434484</v>
+      </c>
+      <c r="AN37">
+        <v>6820.020316838854</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0.3087562684190854</v>
+      </c>
+      <c r="AQ37">
+        <v>180.2776451196016</v>
+      </c>
+      <c r="AR37">
+        <v>196.0261648425608</v>
+      </c>
+      <c r="AS37">
+        <v>350.6309310473003</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>2094.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50">
+      <c r="A38" s="1">
+        <v>6006</v>
+      </c>
+      <c r="B38">
+        <v>20857</v>
+      </c>
+      <c r="C38">
+        <v>4.717884248211035</v>
+      </c>
+      <c r="D38">
+        <v>2.250338410431972</v>
+      </c>
+      <c r="E38">
+        <v>40.7443445877169</v>
+      </c>
+      <c r="F38">
+        <v>407.1755646948305</v>
+      </c>
+      <c r="G38">
+        <v>446.1302432618549</v>
+      </c>
+      <c r="H38">
+        <v>422.5621048080808</v>
+      </c>
+      <c r="I38">
+        <v>425.9161261130951</v>
+      </c>
+      <c r="J38">
+        <v>79.35020292219943</v>
+      </c>
+      <c r="K38">
+        <v>78.33189250845615</v>
+      </c>
+      <c r="L38">
+        <v>63.50831508999573</v>
+      </c>
+      <c r="M38">
+        <v>75.95542836587377</v>
+      </c>
+      <c r="N38">
+        <v>63.49964947898216</v>
+      </c>
+      <c r="O38">
+        <v>76.39728976393165</v>
+      </c>
+      <c r="P38">
+        <v>293.7161752573893</v>
+      </c>
+      <c r="Q38">
+        <v>319.4480087223078</v>
+      </c>
+      <c r="R38">
+        <v>0.2643082920855212</v>
+      </c>
+      <c r="S38">
+        <v>0.007233735880739087</v>
+      </c>
+      <c r="T38">
+        <v>-0.5968832123071636</v>
+      </c>
+      <c r="U38">
+        <v>120320</v>
+      </c>
+      <c r="V38">
+        <v>41655.8998778895</v>
+      </c>
+      <c r="W38">
+        <v>-1.634462912125469</v>
+      </c>
+      <c r="X38">
+        <v>5.671336685391842</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>51.81798416178624</v>
+      </c>
+      <c r="AA38">
+        <v>5.146539426038219</v>
+      </c>
+      <c r="AB38">
+        <v>-0.364318354216561</v>
+      </c>
+      <c r="AC38">
+        <v>1.246510098502488</v>
+      </c>
+      <c r="AD38">
+        <v>-0.08085680353089082</v>
+      </c>
+      <c r="AE38">
+        <v>0.05125055149595494</v>
+      </c>
+      <c r="AF38">
+        <v>0.0001788452827606865</v>
+      </c>
+      <c r="AG38">
+        <v>0.237676375708677</v>
+      </c>
+      <c r="AH38">
+        <v>-0.0711945637466205</v>
+      </c>
+      <c r="AI38">
+        <v>-0.03500033314988604</v>
+      </c>
+      <c r="AJ38">
+        <v>0.2361321459252464</v>
+      </c>
+      <c r="AK38">
+        <v>-7.749999953876904</v>
+      </c>
+      <c r="AL38">
+        <v>-2.750000000015047</v>
+      </c>
+      <c r="AM38">
+        <v>6813.132679228042</v>
+      </c>
+      <c r="AN38">
+        <v>6821.212991479385</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0.308554401960652</v>
+      </c>
+      <c r="AQ38">
+        <v>180.1540253443298</v>
+      </c>
+      <c r="AR38">
+        <v>195.9049098022741</v>
+      </c>
+      <c r="AS38">
+        <v>412.942521633822</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>2094.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50">
+      <c r="A39" s="1">
+        <v>6007</v>
+      </c>
+      <c r="B39">
+        <v>20858</v>
+      </c>
+      <c r="C39">
+        <v>4.709853279275818</v>
+      </c>
+      <c r="D39">
+        <v>2.250342598275932</v>
+      </c>
+      <c r="E39">
+        <v>40.35792189044788</v>
+      </c>
+      <c r="F39">
+        <v>407.1651290543999</v>
+      </c>
+      <c r="G39">
+        <v>445.9416993028329</v>
+      </c>
+      <c r="H39">
+        <v>422.5517206346499</v>
+      </c>
+      <c r="I39">
+        <v>425.8884327169032</v>
+      </c>
+      <c r="J39">
+        <v>79.3501417741582</v>
+      </c>
+      <c r="K39">
+        <v>78.33038797130052</v>
+      </c>
+      <c r="L39">
+        <v>63.50804483163277</v>
+      </c>
+      <c r="M39">
+        <v>75.95585501468223</v>
+      </c>
+      <c r="N39">
+        <v>63.49595403983913</v>
+      </c>
+      <c r="O39">
+        <v>76.3947756279354</v>
+      </c>
+      <c r="P39">
+        <v>293.727485399863</v>
+      </c>
+      <c r="Q39">
+        <v>319.4603959917329</v>
+      </c>
+      <c r="R39">
+        <v>0.2043938170737209</v>
+      </c>
+      <c r="S39">
+        <v>0.008010144736632752</v>
+      </c>
+      <c r="T39">
+        <v>-0.6210891130097972</v>
+      </c>
+      <c r="U39">
+        <v>120320</v>
+      </c>
+      <c r="V39">
+        <v>41655.9998742508</v>
+      </c>
+      <c r="W39">
+        <v>-1.678703209489174</v>
+      </c>
+      <c r="X39">
+        <v>5.790270727472473</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>51.81798951534043</v>
+      </c>
+      <c r="AA39">
+        <v>5.146425856576295</v>
+      </c>
+      <c r="AB39">
+        <v>-0.499405863507676</v>
+      </c>
+      <c r="AC39">
+        <v>1.207288636955751</v>
+      </c>
+      <c r="AD39">
+        <v>-0.07797322330716938</v>
+      </c>
+      <c r="AE39">
+        <v>0.05091139980677357</v>
+      </c>
+      <c r="AF39">
+        <v>-0.0001432376786577045</v>
+      </c>
+      <c r="AG39">
+        <v>0.2339757922256305</v>
+      </c>
+      <c r="AH39">
+        <v>-0.07370008167167155</v>
+      </c>
+      <c r="AI39">
+        <v>-0.03616866368148371</v>
+      </c>
+      <c r="AJ39">
+        <v>0.2321538480605257</v>
+      </c>
+      <c r="AK39">
+        <v>-7.750000035682109</v>
+      </c>
+      <c r="AL39">
+        <v>-2.749999999894926</v>
+      </c>
+      <c r="AM39">
+        <v>6814.410342703865</v>
+      </c>
+      <c r="AN39">
+        <v>6822.486962810272</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0.308363721165174</v>
+      </c>
+      <c r="AQ39">
+        <v>180.0376846184404</v>
+      </c>
+      <c r="AR39">
+        <v>195.7859170721005</v>
+      </c>
+      <c r="AS39">
+        <v>472.9961111877348</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>4</v>
+      </c>
+      <c r="AX39">
+        <v>2094.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50">
+      <c r="A40" s="1">
+        <v>6008</v>
+      </c>
+      <c r="B40">
+        <v>20859</v>
+      </c>
+      <c r="C40">
+        <v>4.703701079846198</v>
+      </c>
+      <c r="D40">
+        <v>2.250375812861557</v>
+      </c>
+      <c r="E40">
+        <v>39.28698296855641</v>
+      </c>
+      <c r="F40">
+        <v>407.1575573806394</v>
+      </c>
+      <c r="G40">
+        <v>445.760193864894</v>
+      </c>
+      <c r="H40">
+        <v>422.5411673595156</v>
+      </c>
+      <c r="I40">
+        <v>425.8569255833412</v>
+      </c>
+      <c r="J40">
+        <v>79.34945933580572</v>
+      </c>
+      <c r="K40">
+        <v>78.32953674712903</v>
+      </c>
+      <c r="L40">
+        <v>63.50796392422983</v>
+      </c>
+      <c r="M40">
+        <v>75.95629693337143</v>
+      </c>
+      <c r="N40">
+        <v>63.49134095442903</v>
+      </c>
+      <c r="O40">
+        <v>76.39161191533242</v>
+      </c>
+      <c r="P40">
+        <v>293.7387953320125</v>
+      </c>
+      <c r="Q40">
+        <v>319.4727782193402</v>
+      </c>
+      <c r="R40">
+        <v>0.1484895226862971</v>
+      </c>
+      <c r="S40">
+        <v>0.00477516349265589</v>
+      </c>
+      <c r="T40">
+        <v>-0.6503175078130795</v>
+      </c>
+      <c r="U40">
+        <v>120320</v>
+      </c>
+      <c r="V40">
+        <v>41656.09986901419</v>
+      </c>
+      <c r="W40">
+        <v>-1.737574397267238</v>
+      </c>
+      <c r="X40">
+        <v>5.906042137909203</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>51.81799480956772</v>
+      </c>
+      <c r="AA40">
+        <v>5.14631246814142</v>
+      </c>
+      <c r="AB40">
+        <v>-0.6593485244413498</v>
+      </c>
+      <c r="AC40">
+        <v>1.182637693913003</v>
+      </c>
+      <c r="AD40">
+        <v>-0.0920808800676628</v>
+      </c>
+      <c r="AE40">
+        <v>0.05066105807701438</v>
+      </c>
+      <c r="AF40">
+        <v>-0.000598803502520253</v>
+      </c>
+      <c r="AG40">
+        <v>0.2311641627886121</v>
+      </c>
+      <c r="AH40">
+        <v>-0.07611770002857636</v>
+      </c>
+      <c r="AI40">
+        <v>-0.0377865203527259</v>
+      </c>
+      <c r="AJ40">
+        <v>0.2290853961396812</v>
+      </c>
+      <c r="AK40">
+        <v>-7.750000213662246</v>
+      </c>
+      <c r="AL40">
+        <v>-2.749999999748368</v>
+      </c>
+      <c r="AM40">
+        <v>6815.79858117078</v>
+      </c>
+      <c r="AN40">
+        <v>6823.855392089039</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0.308166180007297</v>
+      </c>
+      <c r="AQ40">
+        <v>179.9185011985307</v>
+      </c>
+      <c r="AR40">
+        <v>195.6575018319463</v>
+      </c>
+      <c r="AS40">
+        <v>531.6394716906619</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>2094.9</v>
       </c>
     </row>
   </sheetData>
